--- a/design/chitiet/addProduct.xlsx
+++ b/design/chitiet/addProduct.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="137">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">Format</t>
   </si>
   <si>
-    <t xml:space="preserve">tên sản phẩm</t>
+    <t xml:space="preserve">iamge </t>
   </si>
   <si>
-    <t xml:space="preserve">Chuỗi chữ</t>
+    <t xml:space="preserve">File </t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -446,52 +446,52 @@
     <t xml:space="preserve">In</t>
   </si>
   <si>
-    <t xml:space="preserve">Textbox</t>
+    <t xml:space="preserve">Input </t>
   </si>
   <si>
-    <t xml:space="preserve">mô tả sản phẩm</t>
+    <t xml:space="preserve">file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tên sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text </t>
   </si>
   <si>
     <t xml:space="preserve">giá sản phảm </t>
   </si>
   <si>
-    <t xml:space="preserve">kiểu số </t>
+    <t xml:space="preserve">Number </t>
   </si>
   <si>
     <t xml:space="preserve">Y </t>
   </si>
   <si>
-    <t xml:space="preserve"> In</t>
+    <t xml:space="preserve">[Vùng nút]</t>
   </si>
   <si>
-    <t xml:space="preserve">Number </t>
+    <t xml:space="preserve">thêm sản phẩm </t>
   </si>
   <si>
-    <t xml:space="preserve">hình ảnh</t>
+    <t xml:space="preserve">Button</t>
   </si>
   <si>
-    <t xml:space="preserve">File </t>
+    <t xml:space="preserve">Hủy bỏ </t>
   </si>
   <si>
-    <t xml:space="preserve">In </t>
+    <t xml:space="preserve">Button </t>
   </si>
   <si>
-    <t xml:space="preserve">file </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Vùng nút]</t>
+    <t xml:space="preserve">[Vùng cố định]</t>
   </si>
   <si>
     <t xml:space="preserve">thêm </t>
   </si>
   <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hủy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button </t>
   </si>
   <si>
     <t xml:space="preserve">9. Khái quát chức năng</t>
@@ -509,34 +509,22 @@
     <t xml:space="preserve">1. Nhấn nút thêm thì thực hiện xử lý thêm sản phảm </t>
   </si>
   <si>
-    <t xml:space="preserve">2. Đăng nhập thành công thì di chuyển sang màn hình chính,</t>
+    <t xml:space="preserve">2. thành công thì di chuyển sang màn quản lý,</t>
   </si>
   <si>
     <t xml:space="preserve">trường hợp phát sinh lỗi thì hiển thị nội dung lỗi, không thực hiện di chuyển màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3) Xử lý hủy bỏ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chuyển trang quản lý sản phẩm </t>
   </si>
   <si>
     <t xml:space="preserve">10. Xử lý chi tiết</t>
   </si>
   <si>
     <t xml:space="preserve">1. Thực hiện khởi tạo màn hình ban đầu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hình ảnh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mô tả </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chuỗi chữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) Xử lý thêm san phảm </t>
   </si>
   <si>
     <t xml:space="preserve">1. Nhấn nút thêm thì thực hiện xử lý.</t>
@@ -584,7 +572,7 @@
     <t xml:space="preserve">invalid_file_size_product_err</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Xử lý đăng nhập</t>
+    <t xml:space="preserve">3. Xử lý thêm sản phẩm </t>
   </si>
   <si>
     <t xml:space="preserve">Đối tượng</t>
@@ -606,9 +594,6 @@
   </si>
   <si>
     <t xml:space="preserve">imageProduct.values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descriptionProduct.values</t>
   </si>
   <si>
     <t xml:space="preserve">Thông báo</t>
@@ -764,17 +749,17 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
       <sz val="9"/>
-      <color rgb="FF660E7A"/>
+      <color rgb="FF008000"/>
       <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="9"/>
-      <color rgb="FF008000"/>
+      <color rgb="FF660E7A"/>
       <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
@@ -831,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1191,6 +1176,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1234,7 +1226,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="222">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1691,8 +1683,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1707,10 +1703,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1739,14 +1731,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="21" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1775,14 +1759,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="35" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1907,40 +1883,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1987,7 +1935,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1999,10 +1947,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2043,7 +1987,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2055,14 +1999,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2087,6 +2023,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="51" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2103,11 +2047,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="51" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="52" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2155,21 +2107,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2257,9 +2201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2273,7 +2217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675720" cy="969840"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,9 +2238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2306,7 +2250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2177280" y="24338880"/>
-          <a:ext cx="955800" cy="645840"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2361,13 +2305,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>163800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>69840</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2376,8 +2320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2582640" y="23726160"/>
-          <a:ext cx="1208160" cy="618480"/>
+          <a:off x="2582640" y="23725080"/>
+          <a:ext cx="1207080" cy="617400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2422,9 +2366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2434,7 +2378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779560" cy="2608200"/>
+          <a:ext cx="2778480" cy="2607120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,9 +2410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2478,7 +2422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188360" cy="426960"/>
+          <a:ext cx="1187280" cy="425880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2536,9 +2480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2548,7 +2492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995040" cy="398160"/>
+          <a:ext cx="993960" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2710,9 +2654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2722,7 +2666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="913680" cy="398520"/>
+          <a:ext cx="912600" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2778,9 +2722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2794,7 +2738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675720" cy="969840"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,15 +2753,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2827,7 +2771,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="3805200" y="23690880"/>
-          <a:ext cx="728280" cy="597960"/>
+          <a:ext cx="727200" cy="596880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2872,9 +2816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>126000</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2884,7 +2828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4008600" y="24215040"/>
-          <a:ext cx="955800" cy="645840"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2948,9 +2892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2960,7 +2904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816800" cy="417600"/>
+          <a:ext cx="4815720" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2996,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>104760</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3012,7 +2956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="217440" y="1015200"/>
-          <a:ext cx="7605000" cy="5258520"/>
+          <a:ext cx="7603920" cy="5257440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10937,10 +10881,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R157" activeCellId="0" sqref="R157"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D158" activeCellId="0" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11937,13 +11881,15 @@
         <v>77</v>
       </c>
       <c r="U49" s="107"/>
-      <c r="V49" s="108" t="s">
+      <c r="V49" s="114" t="s">
         <v>78</v>
       </c>
       <c r="W49" s="109"/>
       <c r="X49" s="109"/>
       <c r="Y49" s="113"/>
-      <c r="Z49" s="114"/>
+      <c r="Z49" s="115" t="s">
+        <v>79</v>
+      </c>
       <c r="AA49" s="109"/>
       <c r="AB49" s="109"/>
       <c r="AC49" s="109"/>
@@ -11965,17 +11911,17 @@
       <c r="AS49" s="109"/>
       <c r="AT49" s="109"/>
       <c r="AU49" s="109"/>
-      <c r="AV49" s="115"/>
+      <c r="AV49" s="116"/>
       <c r="AW49" s="20"/>
-      <c r="AX49" s="116"/>
+      <c r="AX49" s="117"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
-      <c r="C50" s="117" t="n">
+      <c r="C50" s="118" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="118" t="s">
-        <v>79</v>
+      <c r="D50" s="114" t="s">
+        <v>80</v>
       </c>
       <c r="E50" s="119"/>
       <c r="F50" s="119"/>
@@ -11983,7 +11929,7 @@
       <c r="H50" s="120"/>
       <c r="I50" s="121"/>
       <c r="J50" s="122" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -11996,21 +11942,23 @@
         <v>76</v>
       </c>
       <c r="S50" s="123"/>
-      <c r="T50" s="117" t="s">
+      <c r="T50" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="U50" s="117"/>
-      <c r="V50" s="118" t="s">
+      <c r="U50" s="107"/>
+      <c r="V50" s="114" t="s">
         <v>78</v>
       </c>
       <c r="W50" s="119"/>
       <c r="X50" s="119"/>
       <c r="Y50" s="123"/>
-      <c r="Z50" s="124"/>
+      <c r="Z50" s="124" t="s">
+        <v>82</v>
+      </c>
       <c r="AA50" s="119"/>
       <c r="AB50" s="119"/>
       <c r="AC50" s="119"/>
-      <c r="AD50" s="118"/>
+      <c r="AD50" s="114"/>
       <c r="AE50" s="119"/>
       <c r="AF50" s="119"/>
       <c r="AG50" s="119"/>
@@ -12030,15 +11978,15 @@
       <c r="AU50" s="119"/>
       <c r="AV50" s="125"/>
       <c r="AW50" s="20"/>
-      <c r="AX50" s="116"/>
+      <c r="AX50" s="117"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
-      <c r="C51" s="117" t="n">
+      <c r="C51" s="118" t="n">
         <v>3</v>
       </c>
-      <c r="D51" s="118" t="s">
-        <v>80</v>
+      <c r="D51" s="114" t="s">
+        <v>83</v>
       </c>
       <c r="E51" s="119"/>
       <c r="F51" s="119"/>
@@ -12046,7 +11994,7 @@
       <c r="H51" s="120"/>
       <c r="I51" s="121"/>
       <c r="J51" s="122" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K51" s="120"/>
       <c r="L51" s="120"/>
@@ -12056,24 +12004,26 @@
       <c r="P51" s="120"/>
       <c r="Q51" s="122"/>
       <c r="R51" s="120" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S51" s="123"/>
-      <c r="T51" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="U51" s="127"/>
-      <c r="V51" s="118" t="s">
-        <v>84</v>
+      <c r="T51" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="U51" s="107"/>
+      <c r="V51" s="114" t="s">
+        <v>78</v>
       </c>
       <c r="W51" s="119"/>
       <c r="X51" s="119"/>
       <c r="Y51" s="123"/>
-      <c r="Z51" s="126"/>
+      <c r="Z51" s="124" t="s">
+        <v>82</v>
+      </c>
       <c r="AA51" s="119"/>
       <c r="AB51" s="119"/>
       <c r="AC51" s="119"/>
-      <c r="AD51" s="118"/>
+      <c r="AD51" s="114"/>
       <c r="AE51" s="119"/>
       <c r="AF51" s="119"/>
       <c r="AG51" s="119"/>
@@ -12093,119 +12043,109 @@
       <c r="AU51" s="119"/>
       <c r="AV51" s="125"/>
       <c r="AW51" s="20"/>
-      <c r="AX51" s="116"/>
+      <c r="AX51" s="117"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
-      <c r="C52" s="128" t="n">
-        <v>4</v>
-      </c>
-      <c r="D52" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="K52" s="131"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="131"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="131"/>
-      <c r="P52" s="131"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="131"/>
-      <c r="S52" s="134"/>
-      <c r="T52" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="U52" s="136"/>
-      <c r="V52" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="W52" s="130"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="134"/>
-      <c r="Z52" s="135"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="130"/>
-      <c r="AD52" s="129"/>
-      <c r="AE52" s="130"/>
-      <c r="AF52" s="130"/>
-      <c r="AG52" s="130"/>
-      <c r="AH52" s="130"/>
-      <c r="AI52" s="130"/>
-      <c r="AJ52" s="130"/>
-      <c r="AK52" s="130"/>
-      <c r="AL52" s="130"/>
-      <c r="AM52" s="130"/>
-      <c r="AN52" s="130"/>
-      <c r="AO52" s="130"/>
-      <c r="AP52" s="130"/>
-      <c r="AQ52" s="130"/>
-      <c r="AR52" s="130"/>
-      <c r="AS52" s="130"/>
-      <c r="AT52" s="130"/>
-      <c r="AU52" s="130"/>
-      <c r="AV52" s="137"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="131"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="132"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="128"/>
+      <c r="Y52" s="132"/>
+      <c r="Z52" s="124"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="128"/>
+      <c r="AC52" s="128"/>
+      <c r="AD52" s="127"/>
+      <c r="AE52" s="128"/>
+      <c r="AF52" s="128"/>
+      <c r="AG52" s="128"/>
+      <c r="AH52" s="128"/>
+      <c r="AI52" s="128"/>
+      <c r="AJ52" s="128"/>
+      <c r="AK52" s="128"/>
+      <c r="AL52" s="128"/>
+      <c r="AM52" s="128"/>
+      <c r="AN52" s="128"/>
+      <c r="AO52" s="128"/>
+      <c r="AP52" s="128"/>
+      <c r="AQ52" s="128"/>
+      <c r="AR52" s="128"/>
+      <c r="AS52" s="128"/>
+      <c r="AT52" s="128"/>
+      <c r="AU52" s="128"/>
+      <c r="AV52" s="133"/>
       <c r="AW52" s="20"/>
-      <c r="AX52" s="116"/>
+      <c r="AX52" s="117"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="140"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="140"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="141"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="139"/>
-      <c r="X53" s="139"/>
-      <c r="Y53" s="139"/>
-      <c r="Z53" s="138"/>
-      <c r="AA53" s="139"/>
-      <c r="AB53" s="139"/>
-      <c r="AC53" s="139"/>
-      <c r="AD53" s="139"/>
-      <c r="AE53" s="139"/>
-      <c r="AF53" s="139"/>
-      <c r="AG53" s="139"/>
-      <c r="AH53" s="139"/>
-      <c r="AI53" s="139"/>
-      <c r="AJ53" s="139"/>
-      <c r="AK53" s="139"/>
-      <c r="AL53" s="139"/>
-      <c r="AM53" s="139"/>
-      <c r="AN53" s="139"/>
-      <c r="AO53" s="139"/>
-      <c r="AP53" s="139"/>
-      <c r="AQ53" s="139"/>
-      <c r="AR53" s="139"/>
-      <c r="AS53" s="139"/>
-      <c r="AT53" s="139"/>
-      <c r="AU53" s="139"/>
-      <c r="AV53" s="142"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="136"/>
+      <c r="O53" s="136"/>
+      <c r="P53" s="136"/>
+      <c r="Q53" s="136"/>
+      <c r="R53" s="136"/>
+      <c r="S53" s="135"/>
+      <c r="T53" s="134"/>
+      <c r="U53" s="137"/>
+      <c r="V53" s="135"/>
+      <c r="W53" s="135"/>
+      <c r="X53" s="135"/>
+      <c r="Y53" s="135"/>
+      <c r="Z53" s="134"/>
+      <c r="AA53" s="135"/>
+      <c r="AB53" s="135"/>
+      <c r="AC53" s="135"/>
+      <c r="AD53" s="135"/>
+      <c r="AE53" s="135"/>
+      <c r="AF53" s="135"/>
+      <c r="AG53" s="135"/>
+      <c r="AH53" s="135"/>
+      <c r="AI53" s="135"/>
+      <c r="AJ53" s="135"/>
+      <c r="AK53" s="135"/>
+      <c r="AL53" s="135"/>
+      <c r="AM53" s="135"/>
+      <c r="AN53" s="135"/>
+      <c r="AO53" s="135"/>
+      <c r="AP53" s="135"/>
+      <c r="AQ53" s="135"/>
+      <c r="AR53" s="135"/>
+      <c r="AS53" s="135"/>
+      <c r="AT53" s="135"/>
+      <c r="AU53" s="135"/>
+      <c r="AV53" s="138"/>
       <c r="AW53" s="20"/>
-      <c r="AX53" s="116"/>
+      <c r="AX53" s="117"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
@@ -12214,7 +12154,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -12235,16 +12175,16 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
-      <c r="W55" s="143"/>
-      <c r="X55" s="143"/>
-      <c r="Y55" s="143"/>
-      <c r="Z55" s="143"/>
+      <c r="W55" s="139"/>
+      <c r="X55" s="139"/>
+      <c r="Y55" s="139"/>
+      <c r="Z55" s="139"/>
       <c r="AA55" s="19"/>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
-      <c r="AE55" s="143"/>
-      <c r="AF55" s="143"/>
+      <c r="AE55" s="139"/>
+      <c r="AF55" s="139"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
@@ -12264,7 +12204,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
-      <c r="C56" s="144" t="s">
+      <c r="C56" s="140" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -12279,18 +12219,18 @@
       <c r="K56" s="72"/>
       <c r="L56" s="72"/>
       <c r="M56" s="72"/>
-      <c r="N56" s="145" t="s">
+      <c r="N56" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="O56" s="145"/>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="145"/>
-      <c r="R56" s="145"/>
-      <c r="S56" s="145"/>
-      <c r="T56" s="145"/>
-      <c r="U56" s="145"/>
-      <c r="V56" s="145"/>
-      <c r="W56" s="145"/>
+      <c r="O56" s="141"/>
+      <c r="P56" s="141"/>
+      <c r="Q56" s="141"/>
+      <c r="R56" s="141"/>
+      <c r="S56" s="141"/>
+      <c r="T56" s="141"/>
+      <c r="U56" s="141"/>
+      <c r="V56" s="141"/>
+      <c r="W56" s="141"/>
       <c r="X56" s="73" t="s">
         <v>54</v>
       </c>
@@ -12322,11 +12262,11 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
-      <c r="C57" s="146" t="n">
+      <c r="C57" s="142" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="147" t="s">
-        <v>90</v>
+      <c r="D57" s="143" t="s">
+        <v>87</v>
       </c>
       <c r="E57" s="97"/>
       <c r="F57" s="97"/>
@@ -12336,157 +12276,157 @@
       <c r="J57" s="97"/>
       <c r="K57" s="97"/>
       <c r="L57" s="97"/>
-      <c r="M57" s="148"/>
-      <c r="N57" s="149" t="s">
-        <v>91</v>
-      </c>
-      <c r="O57" s="150"/>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="150"/>
-      <c r="U57" s="150"/>
-      <c r="V57" s="150"/>
-      <c r="W57" s="151"/>
-      <c r="X57" s="149"/>
-      <c r="Y57" s="152"/>
-      <c r="Z57" s="152"/>
-      <c r="AA57" s="152"/>
-      <c r="AB57" s="150"/>
-      <c r="AC57" s="150"/>
-      <c r="AD57" s="150"/>
-      <c r="AE57" s="150"/>
-      <c r="AF57" s="152"/>
-      <c r="AG57" s="152"/>
-      <c r="AH57" s="150"/>
-      <c r="AI57" s="150"/>
-      <c r="AJ57" s="150"/>
-      <c r="AK57" s="150"/>
-      <c r="AL57" s="150"/>
-      <c r="AM57" s="150"/>
-      <c r="AN57" s="150"/>
-      <c r="AO57" s="150"/>
-      <c r="AP57" s="150"/>
-      <c r="AQ57" s="150"/>
-      <c r="AR57" s="150"/>
-      <c r="AS57" s="150"/>
-      <c r="AT57" s="150"/>
-      <c r="AU57" s="150"/>
-      <c r="AV57" s="151"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="O57" s="146"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="146"/>
+      <c r="W57" s="147"/>
+      <c r="X57" s="145"/>
+      <c r="Y57" s="148"/>
+      <c r="Z57" s="148"/>
+      <c r="AA57" s="148"/>
+      <c r="AB57" s="146"/>
+      <c r="AC57" s="146"/>
+      <c r="AD57" s="146"/>
+      <c r="AE57" s="146"/>
+      <c r="AF57" s="148"/>
+      <c r="AG57" s="148"/>
+      <c r="AH57" s="146"/>
+      <c r="AI57" s="146"/>
+      <c r="AJ57" s="146"/>
+      <c r="AK57" s="146"/>
+      <c r="AL57" s="146"/>
+      <c r="AM57" s="146"/>
+      <c r="AN57" s="146"/>
+      <c r="AO57" s="146"/>
+      <c r="AP57" s="146"/>
+      <c r="AQ57" s="146"/>
+      <c r="AR57" s="146"/>
+      <c r="AS57" s="146"/>
+      <c r="AT57" s="146"/>
+      <c r="AU57" s="146"/>
+      <c r="AV57" s="147"/>
       <c r="AW57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="C58" s="153" t="n">
+      <c r="C58" s="149" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="154" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="154" t="s">
-        <v>93</v>
-      </c>
-      <c r="O58" s="155"/>
-      <c r="P58" s="155"/>
-      <c r="Q58" s="155"/>
-      <c r="R58" s="155"/>
-      <c r="S58" s="155"/>
-      <c r="T58" s="155"/>
-      <c r="U58" s="155"/>
-      <c r="V58" s="155"/>
-      <c r="W58" s="156"/>
-      <c r="X58" s="154"/>
-      <c r="Y58" s="157"/>
-      <c r="Z58" s="157"/>
-      <c r="AA58" s="157"/>
-      <c r="AB58" s="155"/>
-      <c r="AC58" s="155"/>
-      <c r="AD58" s="155"/>
-      <c r="AE58" s="155"/>
-      <c r="AF58" s="157"/>
-      <c r="AG58" s="157"/>
-      <c r="AH58" s="155"/>
-      <c r="AI58" s="155"/>
-      <c r="AJ58" s="155"/>
-      <c r="AK58" s="155"/>
-      <c r="AL58" s="155"/>
-      <c r="AM58" s="155"/>
-      <c r="AN58" s="155"/>
-      <c r="AO58" s="155"/>
-      <c r="AP58" s="155"/>
-      <c r="AQ58" s="155"/>
-      <c r="AR58" s="155"/>
-      <c r="AS58" s="155"/>
-      <c r="AT58" s="155"/>
-      <c r="AU58" s="155"/>
-      <c r="AV58" s="156"/>
+      <c r="D58" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="151"/>
+      <c r="K58" s="151"/>
+      <c r="L58" s="151"/>
+      <c r="M58" s="152"/>
+      <c r="N58" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="O58" s="151"/>
+      <c r="P58" s="151"/>
+      <c r="Q58" s="151"/>
+      <c r="R58" s="151"/>
+      <c r="S58" s="151"/>
+      <c r="T58" s="151"/>
+      <c r="U58" s="151"/>
+      <c r="V58" s="151"/>
+      <c r="W58" s="152"/>
+      <c r="X58" s="150"/>
+      <c r="Y58" s="153"/>
+      <c r="Z58" s="153"/>
+      <c r="AA58" s="153"/>
+      <c r="AB58" s="151"/>
+      <c r="AC58" s="151"/>
+      <c r="AD58" s="151"/>
+      <c r="AE58" s="151"/>
+      <c r="AF58" s="153"/>
+      <c r="AG58" s="153"/>
+      <c r="AH58" s="151"/>
+      <c r="AI58" s="151"/>
+      <c r="AJ58" s="151"/>
+      <c r="AK58" s="151"/>
+      <c r="AL58" s="151"/>
+      <c r="AM58" s="151"/>
+      <c r="AN58" s="151"/>
+      <c r="AO58" s="151"/>
+      <c r="AP58" s="151"/>
+      <c r="AQ58" s="151"/>
+      <c r="AR58" s="151"/>
+      <c r="AS58" s="151"/>
+      <c r="AT58" s="151"/>
+      <c r="AU58" s="151"/>
+      <c r="AV58" s="152"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="160"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="160"/>
-      <c r="H59" s="160"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="160"/>
-      <c r="K59" s="160"/>
-      <c r="L59" s="160"/>
-      <c r="M59" s="161"/>
-      <c r="N59" s="162"/>
-      <c r="O59" s="163"/>
-      <c r="P59" s="163"/>
-      <c r="Q59" s="163"/>
-      <c r="R59" s="163"/>
-      <c r="S59" s="163"/>
-      <c r="T59" s="163"/>
-      <c r="U59" s="163"/>
-      <c r="V59" s="163"/>
-      <c r="W59" s="164"/>
-      <c r="X59" s="162"/>
-      <c r="Y59" s="165"/>
-      <c r="Z59" s="165"/>
-      <c r="AA59" s="165"/>
-      <c r="AB59" s="163"/>
-      <c r="AC59" s="163"/>
-      <c r="AD59" s="163"/>
-      <c r="AE59" s="163"/>
-      <c r="AF59" s="165"/>
-      <c r="AG59" s="165"/>
-      <c r="AH59" s="163"/>
-      <c r="AI59" s="163"/>
-      <c r="AJ59" s="163"/>
-      <c r="AK59" s="163"/>
-      <c r="AL59" s="163"/>
-      <c r="AM59" s="163"/>
-      <c r="AN59" s="163"/>
-      <c r="AO59" s="163"/>
-      <c r="AP59" s="163"/>
-      <c r="AQ59" s="163"/>
-      <c r="AR59" s="163"/>
-      <c r="AS59" s="163"/>
-      <c r="AT59" s="163"/>
-      <c r="AU59" s="163"/>
-      <c r="AV59" s="166"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="159"/>
+      <c r="P59" s="159"/>
+      <c r="Q59" s="159"/>
+      <c r="R59" s="159"/>
+      <c r="S59" s="159"/>
+      <c r="T59" s="159"/>
+      <c r="U59" s="159"/>
+      <c r="V59" s="159"/>
+      <c r="W59" s="160"/>
+      <c r="X59" s="158"/>
+      <c r="Y59" s="161"/>
+      <c r="Z59" s="161"/>
+      <c r="AA59" s="161"/>
+      <c r="AB59" s="159"/>
+      <c r="AC59" s="159"/>
+      <c r="AD59" s="159"/>
+      <c r="AE59" s="159"/>
+      <c r="AF59" s="161"/>
+      <c r="AG59" s="161"/>
+      <c r="AH59" s="159"/>
+      <c r="AI59" s="159"/>
+      <c r="AJ59" s="159"/>
+      <c r="AK59" s="159"/>
+      <c r="AL59" s="159"/>
+      <c r="AM59" s="159"/>
+      <c r="AN59" s="159"/>
+      <c r="AO59" s="159"/>
+      <c r="AP59" s="159"/>
+      <c r="AQ59" s="159"/>
+      <c r="AR59" s="159"/>
+      <c r="AS59" s="159"/>
+      <c r="AT59" s="159"/>
+      <c r="AU59" s="159"/>
+      <c r="AV59" s="162"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="167"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -12507,15 +12447,15 @@
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
-      <c r="Y60" s="143"/>
-      <c r="Z60" s="143"/>
-      <c r="AA60" s="143"/>
+      <c r="Y60" s="139"/>
+      <c r="Z60" s="139"/>
+      <c r="AA60" s="139"/>
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
-      <c r="AF60" s="143"/>
-      <c r="AG60" s="143"/>
+      <c r="AF60" s="139"/>
+      <c r="AG60" s="139"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
@@ -12535,8 +12475,10 @@
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="167"/>
+      <c r="C61" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -12555,17 +12497,17 @@
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
       <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="143"/>
-      <c r="Z61" s="143"/>
-      <c r="AA61" s="143"/>
+      <c r="W61" s="139"/>
+      <c r="X61" s="139"/>
+      <c r="Y61" s="139"/>
+      <c r="Z61" s="139"/>
+      <c r="AA61" s="19"/>
       <c r="AB61" s="19"/>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="143"/>
-      <c r="AG61" s="143"/>
+      <c r="AE61" s="139"/>
+      <c r="AF61" s="139"/>
+      <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
       <c r="AJ61" s="19"/>
@@ -12585,208 +12527,232 @@
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="143"/>
-      <c r="Z62" s="143"/>
-      <c r="AA62" s="143"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="143"/>
-      <c r="AG62" s="143"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="19"/>
-      <c r="AJ62" s="19"/>
-      <c r="AK62" s="19"/>
-      <c r="AL62" s="19"/>
-      <c r="AM62" s="19"/>
-      <c r="AN62" s="19"/>
-      <c r="AO62" s="19"/>
-      <c r="AP62" s="19"/>
-      <c r="AQ62" s="19"/>
-      <c r="AR62" s="19"/>
-      <c r="AS62" s="19"/>
-      <c r="AT62" s="19"/>
-      <c r="AU62" s="19"/>
+      <c r="C62" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="141" t="s">
+        <v>72</v>
+      </c>
+      <c r="O62" s="141"/>
+      <c r="P62" s="141"/>
+      <c r="Q62" s="141"/>
+      <c r="R62" s="141"/>
+      <c r="S62" s="141"/>
+      <c r="T62" s="141"/>
+      <c r="U62" s="141"/>
+      <c r="V62" s="141"/>
+      <c r="W62" s="141"/>
+      <c r="X62" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y62" s="73"/>
+      <c r="Z62" s="73"/>
+      <c r="AA62" s="73"/>
+      <c r="AB62" s="73"/>
+      <c r="AC62" s="73"/>
+      <c r="AD62" s="73"/>
+      <c r="AE62" s="73"/>
+      <c r="AF62" s="73"/>
+      <c r="AG62" s="73"/>
+      <c r="AH62" s="73"/>
+      <c r="AI62" s="73"/>
+      <c r="AJ62" s="73"/>
+      <c r="AK62" s="73"/>
+      <c r="AL62" s="73"/>
+      <c r="AM62" s="73"/>
+      <c r="AN62" s="73"/>
+      <c r="AO62" s="73"/>
+      <c r="AP62" s="73"/>
+      <c r="AQ62" s="73"/>
+      <c r="AR62" s="73"/>
+      <c r="AS62" s="73"/>
+      <c r="AT62" s="73"/>
+      <c r="AU62" s="73"/>
+      <c r="AV62" s="73"/>
       <c r="AW62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="143"/>
-      <c r="Z63" s="143"/>
-      <c r="AA63" s="143"/>
-      <c r="AB63" s="19"/>
-      <c r="AC63" s="19"/>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="143"/>
-      <c r="AG63" s="143"/>
-      <c r="AH63" s="19"/>
-      <c r="AI63" s="19"/>
-      <c r="AJ63" s="19"/>
-      <c r="AK63" s="19"/>
-      <c r="AL63" s="19"/>
-      <c r="AM63" s="19"/>
-      <c r="AN63" s="19"/>
-      <c r="AO63" s="19"/>
-      <c r="AP63" s="19"/>
-      <c r="AQ63" s="19"/>
-      <c r="AR63" s="19"/>
-      <c r="AS63" s="19"/>
-      <c r="AT63" s="19"/>
-      <c r="AU63" s="19"/>
+      <c r="C63" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="O63" s="146"/>
+      <c r="P63" s="146"/>
+      <c r="Q63" s="146"/>
+      <c r="R63" s="146"/>
+      <c r="S63" s="146"/>
+      <c r="T63" s="146"/>
+      <c r="U63" s="146"/>
+      <c r="V63" s="146"/>
+      <c r="W63" s="147"/>
+      <c r="X63" s="145"/>
+      <c r="Y63" s="148"/>
+      <c r="Z63" s="148"/>
+      <c r="AA63" s="148"/>
+      <c r="AB63" s="146"/>
+      <c r="AC63" s="146"/>
+      <c r="AD63" s="146"/>
+      <c r="AE63" s="146"/>
+      <c r="AF63" s="148"/>
+      <c r="AG63" s="148"/>
+      <c r="AH63" s="146"/>
+      <c r="AI63" s="146"/>
+      <c r="AJ63" s="146"/>
+      <c r="AK63" s="146"/>
+      <c r="AL63" s="146"/>
+      <c r="AM63" s="146"/>
+      <c r="AN63" s="146"/>
+      <c r="AO63" s="146"/>
+      <c r="AP63" s="146"/>
+      <c r="AQ63" s="146"/>
+      <c r="AR63" s="146"/>
+      <c r="AS63" s="146"/>
+      <c r="AT63" s="146"/>
+      <c r="AU63" s="146"/>
+      <c r="AV63" s="147"/>
       <c r="AW63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="143"/>
-      <c r="Z64" s="143"/>
-      <c r="AA64" s="143"/>
-      <c r="AB64" s="19"/>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="143"/>
-      <c r="AG64" s="143"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="19"/>
-      <c r="AK64" s="19"/>
-      <c r="AL64" s="19"/>
-      <c r="AM64" s="19"/>
-      <c r="AN64" s="19"/>
-      <c r="AO64" s="19"/>
-      <c r="AP64" s="19"/>
-      <c r="AQ64" s="19"/>
-      <c r="AR64" s="19"/>
-      <c r="AS64" s="19"/>
-      <c r="AT64" s="19"/>
-      <c r="AU64" s="19"/>
+      <c r="C64" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="151"/>
+      <c r="F64" s="151"/>
+      <c r="G64" s="151"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="151"/>
+      <c r="K64" s="151"/>
+      <c r="L64" s="151"/>
+      <c r="M64" s="152"/>
+      <c r="N64" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="O64" s="151"/>
+      <c r="P64" s="151"/>
+      <c r="Q64" s="151"/>
+      <c r="R64" s="151"/>
+      <c r="S64" s="151"/>
+      <c r="T64" s="151"/>
+      <c r="U64" s="151"/>
+      <c r="V64" s="151"/>
+      <c r="W64" s="152"/>
+      <c r="X64" s="150"/>
+      <c r="Y64" s="153"/>
+      <c r="Z64" s="153"/>
+      <c r="AA64" s="153"/>
+      <c r="AB64" s="151"/>
+      <c r="AC64" s="151"/>
+      <c r="AD64" s="151"/>
+      <c r="AE64" s="151"/>
+      <c r="AF64" s="153"/>
+      <c r="AG64" s="153"/>
+      <c r="AH64" s="151"/>
+      <c r="AI64" s="151"/>
+      <c r="AJ64" s="151"/>
+      <c r="AK64" s="151"/>
+      <c r="AL64" s="151"/>
+      <c r="AM64" s="151"/>
+      <c r="AN64" s="151"/>
+      <c r="AO64" s="151"/>
+      <c r="AP64" s="151"/>
+      <c r="AQ64" s="151"/>
+      <c r="AR64" s="151"/>
+      <c r="AS64" s="151"/>
+      <c r="AT64" s="151"/>
+      <c r="AU64" s="151"/>
+      <c r="AV64" s="152"/>
       <c r="AW64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="143"/>
-      <c r="Z65" s="143"/>
-      <c r="AA65" s="143"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="143"/>
-      <c r="AG65" s="143"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="19"/>
-      <c r="AJ65" s="19"/>
-      <c r="AK65" s="19"/>
-      <c r="AL65" s="19"/>
-      <c r="AM65" s="19"/>
-      <c r="AN65" s="19"/>
-      <c r="AO65" s="19"/>
-      <c r="AP65" s="19"/>
-      <c r="AQ65" s="19"/>
-      <c r="AR65" s="19"/>
-      <c r="AS65" s="19"/>
-      <c r="AT65" s="19"/>
-      <c r="AU65" s="19"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="158"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="159"/>
+      <c r="Q65" s="159"/>
+      <c r="R65" s="159"/>
+      <c r="S65" s="159"/>
+      <c r="T65" s="159"/>
+      <c r="U65" s="159"/>
+      <c r="V65" s="159"/>
+      <c r="W65" s="160"/>
+      <c r="X65" s="158"/>
+      <c r="Y65" s="161"/>
+      <c r="Z65" s="161"/>
+      <c r="AA65" s="161"/>
+      <c r="AB65" s="159"/>
+      <c r="AC65" s="159"/>
+      <c r="AD65" s="159"/>
+      <c r="AE65" s="159"/>
+      <c r="AF65" s="161"/>
+      <c r="AG65" s="161"/>
+      <c r="AH65" s="159"/>
+      <c r="AI65" s="159"/>
+      <c r="AJ65" s="159"/>
+      <c r="AK65" s="159"/>
+      <c r="AL65" s="159"/>
+      <c r="AM65" s="159"/>
+      <c r="AN65" s="159"/>
+      <c r="AO65" s="159"/>
+      <c r="AP65" s="159"/>
+      <c r="AQ65" s="159"/>
+      <c r="AR65" s="159"/>
+      <c r="AS65" s="159"/>
+      <c r="AT65" s="159"/>
+      <c r="AU65" s="159"/>
+      <c r="AV65" s="162"/>
       <c r="AW65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="167"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -12807,15 +12773,15 @@
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
-      <c r="Y66" s="143"/>
-      <c r="Z66" s="143"/>
-      <c r="AA66" s="143"/>
+      <c r="Y66" s="139"/>
+      <c r="Z66" s="139"/>
+      <c r="AA66" s="139"/>
       <c r="AB66" s="19"/>
       <c r="AC66" s="19"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
-      <c r="AF66" s="143"/>
-      <c r="AG66" s="143"/>
+      <c r="AF66" s="139"/>
+      <c r="AG66" s="139"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
@@ -12835,8 +12801,8 @@
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="167"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
@@ -12857,15 +12823,15 @@
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
-      <c r="Y67" s="143"/>
-      <c r="Z67" s="143"/>
-      <c r="AA67" s="143"/>
+      <c r="Y67" s="139"/>
+      <c r="Z67" s="139"/>
+      <c r="AA67" s="139"/>
       <c r="AB67" s="19"/>
       <c r="AC67" s="19"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
-      <c r="AF67" s="143"/>
-      <c r="AG67" s="143"/>
+      <c r="AF67" s="139"/>
+      <c r="AG67" s="139"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
       <c r="AJ67" s="19"/>
@@ -12885,8 +12851,8 @@
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="143"/>
-      <c r="D68" s="167"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -12907,15 +12873,15 @@
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="143"/>
-      <c r="Z68" s="143"/>
-      <c r="AA68" s="143"/>
+      <c r="Y68" s="139"/>
+      <c r="Z68" s="139"/>
+      <c r="AA68" s="139"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
-      <c r="AF68" s="143"/>
-      <c r="AG68" s="143"/>
+      <c r="AF68" s="139"/>
+      <c r="AG68" s="139"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
@@ -12935,8 +12901,8 @@
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="167"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="163"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -12957,15 +12923,15 @@
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
-      <c r="Y69" s="143"/>
-      <c r="Z69" s="143"/>
-      <c r="AA69" s="143"/>
+      <c r="Y69" s="139"/>
+      <c r="Z69" s="139"/>
+      <c r="AA69" s="139"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
-      <c r="AF69" s="143"/>
-      <c r="AG69" s="143"/>
+      <c r="AF69" s="139"/>
+      <c r="AG69" s="139"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
       <c r="AJ69" s="19"/>
@@ -12985,8 +12951,8 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="167"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="163"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -13007,15 +12973,15 @@
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="143"/>
-      <c r="Z70" s="143"/>
-      <c r="AA70" s="143"/>
+      <c r="Y70" s="139"/>
+      <c r="Z70" s="139"/>
+      <c r="AA70" s="139"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
-      <c r="AF70" s="143"/>
-      <c r="AG70" s="143"/>
+      <c r="AF70" s="139"/>
+      <c r="AG70" s="139"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
       <c r="AJ70" s="19"/>
@@ -13035,8 +13001,8 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="167"/>
+      <c r="C71" s="139"/>
+      <c r="D71" s="163"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -13057,15 +13023,15 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="143"/>
-      <c r="Z71" s="143"/>
-      <c r="AA71" s="143"/>
+      <c r="Y71" s="139"/>
+      <c r="Z71" s="139"/>
+      <c r="AA71" s="139"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
-      <c r="AF71" s="143"/>
-      <c r="AG71" s="143"/>
+      <c r="AF71" s="139"/>
+      <c r="AG71" s="139"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
@@ -13085,8 +13051,8 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="167"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="163"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -13107,15 +13073,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="143"/>
-      <c r="Z72" s="143"/>
-      <c r="AA72" s="143"/>
+      <c r="Y72" s="139"/>
+      <c r="Z72" s="139"/>
+      <c r="AA72" s="139"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="143"/>
-      <c r="AG72" s="143"/>
+      <c r="AF72" s="139"/>
+      <c r="AG72" s="139"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -13135,8 +13101,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="167"/>
+      <c r="C73" s="139"/>
+      <c r="D73" s="163"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -13157,15 +13123,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="143"/>
-      <c r="Z73" s="143"/>
-      <c r="AA73" s="143"/>
+      <c r="Y73" s="139"/>
+      <c r="Z73" s="139"/>
+      <c r="AA73" s="139"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="143"/>
-      <c r="AG73" s="143"/>
+      <c r="AF73" s="139"/>
+      <c r="AG73" s="139"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -13185,8 +13151,8 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="143"/>
-      <c r="D74" s="167"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="163"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -13207,15 +13173,15 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="143"/>
-      <c r="Z74" s="143"/>
-      <c r="AA74" s="143"/>
+      <c r="Y74" s="139"/>
+      <c r="Z74" s="139"/>
+      <c r="AA74" s="139"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
-      <c r="AF74" s="143"/>
-      <c r="AG74" s="143"/>
+      <c r="AF74" s="139"/>
+      <c r="AG74" s="139"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
@@ -13235,8 +13201,8 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="143"/>
-      <c r="D75" s="167"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="163"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -13257,15 +13223,15 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="143"/>
-      <c r="Z75" s="143"/>
-      <c r="AA75" s="143"/>
+      <c r="Y75" s="139"/>
+      <c r="Z75" s="139"/>
+      <c r="AA75" s="139"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
-      <c r="AF75" s="143"/>
-      <c r="AG75" s="143"/>
+      <c r="AF75" s="139"/>
+      <c r="AG75" s="139"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -13285,8 +13251,8 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="143"/>
-      <c r="D76" s="167"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="163"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -13307,15 +13273,15 @@
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
-      <c r="Y76" s="143"/>
-      <c r="Z76" s="143"/>
-      <c r="AA76" s="143"/>
+      <c r="Y76" s="139"/>
+      <c r="Z76" s="139"/>
+      <c r="AA76" s="139"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="143"/>
-      <c r="AG76" s="143"/>
+      <c r="AF76" s="139"/>
+      <c r="AG76" s="139"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
       <c r="AJ76" s="19"/>
@@ -13335,8 +13301,8 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="143"/>
-      <c r="D77" s="167"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="163"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -13357,15 +13323,15 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
-      <c r="Y77" s="143"/>
-      <c r="Z77" s="143"/>
-      <c r="AA77" s="143"/>
+      <c r="Y77" s="139"/>
+      <c r="Z77" s="139"/>
+      <c r="AA77" s="139"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
-      <c r="AF77" s="143"/>
-      <c r="AG77" s="143"/>
+      <c r="AF77" s="139"/>
+      <c r="AG77" s="139"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
@@ -13385,8 +13351,8 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="143"/>
-      <c r="D78" s="167"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="163"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -13407,15 +13373,15 @@
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
-      <c r="Y78" s="143"/>
-      <c r="Z78" s="143"/>
-      <c r="AA78" s="143"/>
+      <c r="Y78" s="139"/>
+      <c r="Z78" s="139"/>
+      <c r="AA78" s="139"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="143"/>
-      <c r="AG78" s="143"/>
+      <c r="AF78" s="139"/>
+      <c r="AG78" s="139"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
@@ -13435,8 +13401,8 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="167"/>
+      <c r="C79" s="139"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -13457,15 +13423,15 @@
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
-      <c r="Y79" s="143"/>
-      <c r="Z79" s="143"/>
-      <c r="AA79" s="143"/>
+      <c r="Y79" s="139"/>
+      <c r="Z79" s="139"/>
+      <c r="AA79" s="139"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
-      <c r="AF79" s="143"/>
-      <c r="AG79" s="143"/>
+      <c r="AF79" s="139"/>
+      <c r="AG79" s="139"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
@@ -13485,8 +13451,8 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="167"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="163"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13507,15 +13473,15 @@
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="143"/>
-      <c r="Z80" s="143"/>
-      <c r="AA80" s="143"/>
+      <c r="Y80" s="139"/>
+      <c r="Z80" s="139"/>
+      <c r="AA80" s="139"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="143"/>
-      <c r="AG80" s="143"/>
+      <c r="AF80" s="139"/>
+      <c r="AG80" s="139"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
@@ -13535,8 +13501,8 @@
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="167"/>
+      <c r="C81" s="139"/>
+      <c r="D81" s="163"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -13557,15 +13523,15 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
-      <c r="Y81" s="143"/>
-      <c r="Z81" s="143"/>
-      <c r="AA81" s="143"/>
+      <c r="Y81" s="139"/>
+      <c r="Z81" s="139"/>
+      <c r="AA81" s="139"/>
       <c r="AB81" s="19"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
       <c r="AE81" s="19"/>
-      <c r="AF81" s="143"/>
-      <c r="AG81" s="143"/>
+      <c r="AF81" s="139"/>
+      <c r="AG81" s="139"/>
       <c r="AH81" s="19"/>
       <c r="AI81" s="19"/>
       <c r="AJ81" s="19"/>
@@ -14068,6 +14034,9 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
+      <c r="C95" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
@@ -14098,7 +14067,9 @@
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
-      <c r="D96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
@@ -14158,7 +14129,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="17"/>
-      <c r="D98" s="19"/>
+      <c r="D98" s="0"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
@@ -15092,7 +15063,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -15158,7 +15129,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -15189,218 +15160,413 @@
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
-      <c r="N129" s="19"/>
-      <c r="O129" s="19"/>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="19"/>
-      <c r="R129" s="19"/>
-      <c r="S129" s="19"/>
+      <c r="C129" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="AM129" s="19"/>
       <c r="AN129" s="19"/>
       <c r="AO129" s="19"/>
       <c r="AP129" s="19"/>
-      <c r="AQ129" s="19"/>
       <c r="AR129" s="19"/>
       <c r="AS129" s="19"/>
       <c r="AT129" s="19"/>
       <c r="AU129" s="19"/>
-      <c r="AV129" s="19"/>
       <c r="AW129" s="20"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV130" s="19"/>
+      <c r="C130" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="K130" s="104"/>
+      <c r="L130" s="104"/>
+      <c r="M130" s="104"/>
+      <c r="N130" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="O130" s="104"/>
+      <c r="P130" s="104"/>
+      <c r="Q130" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="R130" s="72"/>
+      <c r="S130" s="72"/>
+      <c r="T130" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="U130" s="72"/>
+      <c r="V130" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="W130" s="73"/>
+      <c r="X130" s="73"/>
+      <c r="Y130" s="73"/>
+      <c r="Z130" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA130" s="105"/>
+      <c r="AB130" s="105"/>
+      <c r="AC130" s="105"/>
+      <c r="AD130" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE130" s="73"/>
+      <c r="AF130" s="73"/>
+      <c r="AG130" s="73"/>
+      <c r="AH130" s="73"/>
+      <c r="AI130" s="73"/>
+      <c r="AJ130" s="73"/>
+      <c r="AK130" s="73"/>
+      <c r="AL130" s="73"/>
+      <c r="AM130" s="73"/>
+      <c r="AN130" s="73"/>
+      <c r="AO130" s="73"/>
+      <c r="AP130" s="73"/>
+      <c r="AQ130" s="73"/>
+      <c r="AR130" s="73"/>
+      <c r="AS130" s="73"/>
+      <c r="AT130" s="73"/>
+      <c r="AU130" s="73"/>
+      <c r="AV130" s="73"/>
       <c r="AW130" s="20"/>
+      <c r="AX130" s="1"/>
+      <c r="AKN130" s="0"/>
+      <c r="AKO130" s="0"/>
+      <c r="AKP130" s="0"/>
+      <c r="AKQ130" s="0"/>
+      <c r="AKR130" s="0"/>
+      <c r="AKS130" s="0"/>
+      <c r="AKT130" s="0"/>
+      <c r="AKU130" s="0"/>
+      <c r="AKV130" s="0"/>
+      <c r="AKW130" s="0"/>
+      <c r="AKX130" s="0"/>
+      <c r="AKY130" s="0"/>
+      <c r="AKZ130" s="0"/>
+      <c r="ALA130" s="0"/>
+      <c r="ALB130" s="0"/>
+      <c r="ALC130" s="0"/>
+      <c r="ALD130" s="0"/>
+      <c r="ALE130" s="0"/>
+      <c r="ALF130" s="0"/>
+      <c r="ALG130" s="0"/>
+      <c r="ALH130" s="0"/>
+      <c r="ALI130" s="0"/>
+      <c r="ALJ130" s="0"/>
+      <c r="ALK130" s="0"/>
+      <c r="ALL130" s="0"/>
+      <c r="ALM130" s="0"/>
+      <c r="ALN130" s="0"/>
+      <c r="ALO130" s="0"/>
+      <c r="ALP130" s="0"/>
+      <c r="ALQ130" s="0"/>
+      <c r="ALR130" s="0"/>
+      <c r="ALS130" s="0"/>
+      <c r="ALT130" s="0"/>
+      <c r="ALU130" s="0"/>
+      <c r="ALV130" s="0"/>
+      <c r="ALW130" s="0"/>
+      <c r="ALX130" s="0"/>
+      <c r="ALY130" s="0"/>
+      <c r="ALZ130" s="0"/>
+      <c r="AMA130" s="0"/>
+      <c r="AMB130" s="0"/>
+      <c r="AMC130" s="0"/>
+      <c r="AMD130" s="0"/>
+      <c r="AME130" s="0"/>
+      <c r="AMF130" s="0"/>
+      <c r="AMG130" s="0"/>
+      <c r="AMH130" s="0"/>
+      <c r="AMI130" s="0"/>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="F131" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="M131" s="104"/>
-      <c r="N131" s="104"/>
-      <c r="O131" s="104"/>
-      <c r="P131" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q131" s="104"/>
-      <c r="R131" s="104"/>
-      <c r="S131" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="T131" s="72"/>
-      <c r="U131" s="72"/>
-      <c r="V131" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="W131" s="72"/>
-      <c r="X131" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y131" s="73"/>
-      <c r="Z131" s="73"/>
-      <c r="AA131" s="73"/>
-      <c r="AB131" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC131" s="105"/>
-      <c r="AD131" s="105"/>
-      <c r="AE131" s="105"/>
-      <c r="AF131" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG131" s="73"/>
-      <c r="AH131" s="73"/>
-      <c r="AI131" s="73"/>
-      <c r="AJ131" s="73"/>
-      <c r="AK131" s="73"/>
-      <c r="AL131" s="73"/>
-      <c r="AM131" s="73"/>
-      <c r="AN131" s="73"/>
-      <c r="AO131" s="73"/>
-      <c r="AP131" s="73"/>
-      <c r="AQ131" s="73"/>
-      <c r="AR131" s="73"/>
-      <c r="AS131" s="73"/>
-      <c r="AT131" s="73"/>
-      <c r="AU131" s="73"/>
-      <c r="AV131" s="73"/>
-      <c r="AW131" s="73"/>
-      <c r="AX131" s="73"/>
+      <c r="C131" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" s="109"/>
+      <c r="F131" s="109"/>
+      <c r="G131" s="110"/>
+      <c r="H131" s="110"/>
+      <c r="I131" s="111"/>
+      <c r="J131" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="K131" s="110"/>
+      <c r="L131" s="110"/>
+      <c r="M131" s="110"/>
+      <c r="N131" s="112"/>
+      <c r="O131" s="110" t="n">
+        <v>32</v>
+      </c>
+      <c r="P131" s="110"/>
+      <c r="Q131" s="112"/>
+      <c r="R131" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="S131" s="113"/>
+      <c r="T131" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="U131" s="107"/>
+      <c r="V131" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="W131" s="109"/>
+      <c r="X131" s="109"/>
+      <c r="Y131" s="113"/>
+      <c r="Z131" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA131" s="109"/>
+      <c r="AB131" s="109"/>
+      <c r="AC131" s="109"/>
+      <c r="AD131" s="108"/>
+      <c r="AE131" s="109"/>
+      <c r="AF131" s="109"/>
+      <c r="AG131" s="109"/>
+      <c r="AH131" s="109"/>
+      <c r="AI131" s="109"/>
+      <c r="AJ131" s="109"/>
+      <c r="AK131" s="109"/>
+      <c r="AL131" s="109"/>
+      <c r="AM131" s="109"/>
+      <c r="AN131" s="109"/>
+      <c r="AO131" s="109"/>
+      <c r="AP131" s="109"/>
+      <c r="AQ131" s="109"/>
+      <c r="AR131" s="109"/>
+      <c r="AS131" s="109"/>
+      <c r="AT131" s="109"/>
+      <c r="AU131" s="109"/>
+      <c r="AV131" s="116"/>
+      <c r="AW131" s="20"/>
+      <c r="AX131" s="1"/>
+      <c r="AKN131" s="0"/>
+      <c r="AKO131" s="0"/>
+      <c r="AKP131" s="0"/>
+      <c r="AKQ131" s="0"/>
+      <c r="AKR131" s="0"/>
+      <c r="AKS131" s="0"/>
+      <c r="AKT131" s="0"/>
+      <c r="AKU131" s="0"/>
+      <c r="AKV131" s="0"/>
+      <c r="AKW131" s="0"/>
+      <c r="AKX131" s="0"/>
+      <c r="AKY131" s="0"/>
+      <c r="AKZ131" s="0"/>
+      <c r="ALA131" s="0"/>
+      <c r="ALB131" s="0"/>
+      <c r="ALC131" s="0"/>
+      <c r="ALD131" s="0"/>
+      <c r="ALE131" s="0"/>
+      <c r="ALF131" s="0"/>
+      <c r="ALG131" s="0"/>
+      <c r="ALH131" s="0"/>
+      <c r="ALI131" s="0"/>
+      <c r="ALJ131" s="0"/>
+      <c r="ALK131" s="0"/>
+      <c r="ALL131" s="0"/>
+      <c r="ALM131" s="0"/>
+      <c r="ALN131" s="0"/>
+      <c r="ALO131" s="0"/>
+      <c r="ALP131" s="0"/>
+      <c r="ALQ131" s="0"/>
+      <c r="ALR131" s="0"/>
+      <c r="ALS131" s="0"/>
+      <c r="ALT131" s="0"/>
+      <c r="ALU131" s="0"/>
+      <c r="ALV131" s="0"/>
+      <c r="ALW131" s="0"/>
+      <c r="ALX131" s="0"/>
+      <c r="ALY131" s="0"/>
+      <c r="ALZ131" s="0"/>
+      <c r="AMA131" s="0"/>
+      <c r="AMB131" s="0"/>
+      <c r="AMC131" s="0"/>
+      <c r="AMD131" s="0"/>
+      <c r="AME131" s="0"/>
+      <c r="AMF131" s="0"/>
+      <c r="AMG131" s="0"/>
+      <c r="AMH131" s="0"/>
+      <c r="AMI131" s="0"/>
+      <c r="AMJ131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="G132" s="109"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="110"/>
-      <c r="J132" s="110"/>
-      <c r="K132" s="111"/>
-      <c r="L132" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="M132" s="110"/>
-      <c r="N132" s="110"/>
-      <c r="O132" s="110"/>
-      <c r="P132" s="112"/>
-      <c r="Q132" s="110" t="n">
-        <v>32</v>
-      </c>
-      <c r="R132" s="110"/>
-      <c r="S132" s="112"/>
-      <c r="T132" s="110" t="s">
+      <c r="C132" s="118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" s="119"/>
+      <c r="F132" s="119"/>
+      <c r="G132" s="120"/>
+      <c r="H132" s="120"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="K132" s="120"/>
+      <c r="L132" s="120"/>
+      <c r="M132" s="120"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="120"/>
+      <c r="P132" s="120"/>
+      <c r="Q132" s="122"/>
+      <c r="R132" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="U132" s="113"/>
-      <c r="V132" s="107" t="s">
+      <c r="S132" s="123"/>
+      <c r="T132" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="W132" s="107"/>
-      <c r="X132" s="108" t="s">
+      <c r="U132" s="107"/>
+      <c r="V132" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="Y132" s="109"/>
-      <c r="Z132" s="109"/>
-      <c r="AA132" s="113"/>
-      <c r="AB132" s="114"/>
-      <c r="AC132" s="109"/>
-      <c r="AD132" s="109"/>
-      <c r="AE132" s="109"/>
-      <c r="AF132" s="108"/>
-      <c r="AG132" s="109"/>
-      <c r="AH132" s="109"/>
-      <c r="AI132" s="109"/>
-      <c r="AJ132" s="109"/>
-      <c r="AK132" s="109"/>
-      <c r="AL132" s="109"/>
-      <c r="AM132" s="109"/>
-      <c r="AN132" s="109"/>
-      <c r="AO132" s="109"/>
-      <c r="AP132" s="109"/>
-      <c r="AQ132" s="109"/>
-      <c r="AR132" s="109"/>
-      <c r="AS132" s="109"/>
-      <c r="AT132" s="109"/>
-      <c r="AU132" s="109"/>
-      <c r="AV132" s="109"/>
-      <c r="AW132" s="109"/>
-      <c r="AX132" s="115"/>
+      <c r="W132" s="119"/>
+      <c r="X132" s="119"/>
+      <c r="Y132" s="123"/>
+      <c r="Z132" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA132" s="119"/>
+      <c r="AB132" s="119"/>
+      <c r="AC132" s="119"/>
+      <c r="AD132" s="114"/>
+      <c r="AE132" s="119"/>
+      <c r="AF132" s="119"/>
+      <c r="AG132" s="119"/>
+      <c r="AH132" s="119"/>
+      <c r="AI132" s="119"/>
+      <c r="AJ132" s="119"/>
+      <c r="AK132" s="119"/>
+      <c r="AL132" s="119"/>
+      <c r="AM132" s="119"/>
+      <c r="AN132" s="119"/>
+      <c r="AO132" s="119"/>
+      <c r="AP132" s="119"/>
+      <c r="AQ132" s="119"/>
+      <c r="AR132" s="119"/>
+      <c r="AS132" s="119"/>
+      <c r="AT132" s="119"/>
+      <c r="AU132" s="119"/>
+      <c r="AV132" s="125"/>
+      <c r="AW132" s="20"/>
+      <c r="AX132" s="1"/>
+      <c r="AKN132" s="0"/>
+      <c r="AKO132" s="0"/>
+      <c r="AKP132" s="0"/>
+      <c r="AKQ132" s="0"/>
+      <c r="AKR132" s="0"/>
+      <c r="AKS132" s="0"/>
+      <c r="AKT132" s="0"/>
+      <c r="AKU132" s="0"/>
+      <c r="AKV132" s="0"/>
+      <c r="AKW132" s="0"/>
+      <c r="AKX132" s="0"/>
+      <c r="AKY132" s="0"/>
+      <c r="AKZ132" s="0"/>
+      <c r="ALA132" s="0"/>
+      <c r="ALB132" s="0"/>
+      <c r="ALC132" s="0"/>
+      <c r="ALD132" s="0"/>
+      <c r="ALE132" s="0"/>
+      <c r="ALF132" s="0"/>
+      <c r="ALG132" s="0"/>
+      <c r="ALH132" s="0"/>
+      <c r="ALI132" s="0"/>
+      <c r="ALJ132" s="0"/>
+      <c r="ALK132" s="0"/>
+      <c r="ALL132" s="0"/>
+      <c r="ALM132" s="0"/>
+      <c r="ALN132" s="0"/>
+      <c r="ALO132" s="0"/>
+      <c r="ALP132" s="0"/>
+      <c r="ALQ132" s="0"/>
+      <c r="ALR132" s="0"/>
+      <c r="ALS132" s="0"/>
+      <c r="ALT132" s="0"/>
+      <c r="ALU132" s="0"/>
+      <c r="ALV132" s="0"/>
+      <c r="ALW132" s="0"/>
+      <c r="ALX132" s="0"/>
+      <c r="ALY132" s="0"/>
+      <c r="ALZ132" s="0"/>
+      <c r="AMA132" s="0"/>
+      <c r="AMB132" s="0"/>
+      <c r="AMC132" s="0"/>
+      <c r="AMD132" s="0"/>
+      <c r="AME132" s="0"/>
+      <c r="AMF132" s="0"/>
+      <c r="AMG132" s="0"/>
+      <c r="AMH132" s="0"/>
+      <c r="AMI132" s="0"/>
+      <c r="AMJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="107" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="G133" s="119"/>
-      <c r="H133" s="119"/>
-      <c r="I133" s="120"/>
-      <c r="J133" s="120"/>
-      <c r="K133" s="121"/>
-      <c r="L133" s="122" t="s">
-        <v>81</v>
-      </c>
+      <c r="C133" s="118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E133" s="119"/>
+      <c r="F133" s="119"/>
+      <c r="G133" s="120"/>
+      <c r="H133" s="120"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="K133" s="120"/>
+      <c r="L133" s="120"/>
       <c r="M133" s="120"/>
-      <c r="N133" s="120"/>
+      <c r="N133" s="122"/>
       <c r="O133" s="120"/>
-      <c r="P133" s="122"/>
-      <c r="Q133" s="120"/>
-      <c r="R133" s="120"/>
-      <c r="S133" s="122"/>
-      <c r="T133" s="120" t="s">
+      <c r="P133" s="120"/>
+      <c r="Q133" s="122"/>
+      <c r="R133" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="S133" s="123"/>
+      <c r="T133" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="U133" s="107"/>
+      <c r="V133" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="W133" s="119"/>
+      <c r="X133" s="119"/>
+      <c r="Y133" s="123"/>
+      <c r="Z133" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="U133" s="123"/>
-      <c r="V133" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="W133" s="127"/>
-      <c r="X133" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y133" s="119"/>
-      <c r="Z133" s="119"/>
-      <c r="AA133" s="123"/>
-      <c r="AB133" s="126"/>
+      <c r="AA133" s="119"/>
+      <c r="AB133" s="119"/>
       <c r="AC133" s="119"/>
-      <c r="AD133" s="119"/>
+      <c r="AD133" s="114"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="118"/>
+      <c r="AF133" s="119"/>
       <c r="AG133" s="119"/>
       <c r="AH133" s="119"/>
       <c r="AI133" s="119"/>
@@ -15416,463 +15582,789 @@
       <c r="AS133" s="119"/>
       <c r="AT133" s="119"/>
       <c r="AU133" s="119"/>
-      <c r="AV133" s="119"/>
-      <c r="AW133" s="119"/>
-      <c r="AX133" s="125"/>
+      <c r="AV133" s="125"/>
+      <c r="AW133" s="20"/>
+      <c r="AX133" s="1"/>
+      <c r="AKN133" s="0"/>
+      <c r="AKO133" s="0"/>
+      <c r="AKP133" s="0"/>
+      <c r="AKQ133" s="0"/>
+      <c r="AKR133" s="0"/>
+      <c r="AKS133" s="0"/>
+      <c r="AKT133" s="0"/>
+      <c r="AKU133" s="0"/>
+      <c r="AKV133" s="0"/>
+      <c r="AKW133" s="0"/>
+      <c r="AKX133" s="0"/>
+      <c r="AKY133" s="0"/>
+      <c r="AKZ133" s="0"/>
+      <c r="ALA133" s="0"/>
+      <c r="ALB133" s="0"/>
+      <c r="ALC133" s="0"/>
+      <c r="ALD133" s="0"/>
+      <c r="ALE133" s="0"/>
+      <c r="ALF133" s="0"/>
+      <c r="ALG133" s="0"/>
+      <c r="ALH133" s="0"/>
+      <c r="ALI133" s="0"/>
+      <c r="ALJ133" s="0"/>
+      <c r="ALK133" s="0"/>
+      <c r="ALL133" s="0"/>
+      <c r="ALM133" s="0"/>
+      <c r="ALN133" s="0"/>
+      <c r="ALO133" s="0"/>
+      <c r="ALP133" s="0"/>
+      <c r="ALQ133" s="0"/>
+      <c r="ALR133" s="0"/>
+      <c r="ALS133" s="0"/>
+      <c r="ALT133" s="0"/>
+      <c r="ALU133" s="0"/>
+      <c r="ALV133" s="0"/>
+      <c r="ALW133" s="0"/>
+      <c r="ALX133" s="0"/>
+      <c r="ALY133" s="0"/>
+      <c r="ALZ133" s="0"/>
+      <c r="AMA133" s="0"/>
+      <c r="AMB133" s="0"/>
+      <c r="AMC133" s="0"/>
+      <c r="AMD133" s="0"/>
+      <c r="AME133" s="0"/>
+      <c r="AMF133" s="0"/>
+      <c r="AMG133" s="0"/>
+      <c r="AMH133" s="0"/>
+      <c r="AMI133" s="0"/>
+      <c r="AMJ133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="F134" s="168" t="s">
-        <v>103</v>
-      </c>
-      <c r="G134" s="169"/>
-      <c r="H134" s="169"/>
-      <c r="I134" s="170"/>
-      <c r="J134" s="170"/>
-      <c r="K134" s="171"/>
-      <c r="L134" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="M134" s="170"/>
-      <c r="N134" s="170"/>
-      <c r="O134" s="170"/>
-      <c r="P134" s="172"/>
-      <c r="Q134" s="170"/>
-      <c r="R134" s="170"/>
-      <c r="S134" s="172"/>
-      <c r="T134" s="170"/>
-      <c r="U134" s="173"/>
-      <c r="V134" s="174" t="s">
-        <v>87</v>
-      </c>
-      <c r="W134" s="175"/>
-      <c r="X134" s="168" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y134" s="169"/>
-      <c r="Z134" s="169"/>
-      <c r="AA134" s="173"/>
-      <c r="AB134" s="174"/>
-      <c r="AC134" s="169"/>
-      <c r="AD134" s="169"/>
-      <c r="AE134" s="169"/>
-      <c r="AF134" s="168"/>
-      <c r="AG134" s="169"/>
-      <c r="AH134" s="169"/>
-      <c r="AI134" s="169"/>
-      <c r="AJ134" s="169"/>
-      <c r="AK134" s="169"/>
-      <c r="AL134" s="169"/>
-      <c r="AM134" s="169"/>
-      <c r="AN134" s="169"/>
-      <c r="AO134" s="169"/>
-      <c r="AP134" s="169"/>
-      <c r="AQ134" s="169"/>
-      <c r="AR134" s="169"/>
-      <c r="AS134" s="169"/>
-      <c r="AT134" s="169"/>
-      <c r="AU134" s="169"/>
-      <c r="AV134" s="169"/>
-      <c r="AW134" s="169"/>
-      <c r="AX134" s="176"/>
+      <c r="C134" s="126"/>
+      <c r="D134" s="127"/>
+      <c r="E134" s="128"/>
+      <c r="F134" s="128"/>
+      <c r="G134" s="129"/>
+      <c r="H134" s="129"/>
+      <c r="I134" s="130"/>
+      <c r="J134" s="122"/>
+      <c r="K134" s="129"/>
+      <c r="L134" s="129"/>
+      <c r="M134" s="129"/>
+      <c r="N134" s="131"/>
+      <c r="O134" s="129"/>
+      <c r="P134" s="129"/>
+      <c r="Q134" s="131"/>
+      <c r="R134" s="129"/>
+      <c r="S134" s="132"/>
+      <c r="T134" s="107"/>
+      <c r="U134" s="107"/>
+      <c r="V134" s="114"/>
+      <c r="W134" s="128"/>
+      <c r="X134" s="128"/>
+      <c r="Y134" s="132"/>
+      <c r="Z134" s="124"/>
+      <c r="AA134" s="128"/>
+      <c r="AB134" s="128"/>
+      <c r="AC134" s="128"/>
+      <c r="AD134" s="127"/>
+      <c r="AE134" s="128"/>
+      <c r="AF134" s="128"/>
+      <c r="AG134" s="128"/>
+      <c r="AH134" s="128"/>
+      <c r="AI134" s="128"/>
+      <c r="AJ134" s="128"/>
+      <c r="AK134" s="128"/>
+      <c r="AL134" s="128"/>
+      <c r="AM134" s="128"/>
+      <c r="AN134" s="128"/>
+      <c r="AO134" s="128"/>
+      <c r="AP134" s="128"/>
+      <c r="AQ134" s="128"/>
+      <c r="AR134" s="128"/>
+      <c r="AS134" s="128"/>
+      <c r="AT134" s="128"/>
+      <c r="AU134" s="128"/>
+      <c r="AV134" s="133"/>
+      <c r="AW134" s="20"/>
+      <c r="AX134" s="1"/>
+      <c r="AKN134" s="0"/>
+      <c r="AKO134" s="0"/>
+      <c r="AKP134" s="0"/>
+      <c r="AKQ134" s="0"/>
+      <c r="AKR134" s="0"/>
+      <c r="AKS134" s="0"/>
+      <c r="AKT134" s="0"/>
+      <c r="AKU134" s="0"/>
+      <c r="AKV134" s="0"/>
+      <c r="AKW134" s="0"/>
+      <c r="AKX134" s="0"/>
+      <c r="AKY134" s="0"/>
+      <c r="AKZ134" s="0"/>
+      <c r="ALA134" s="0"/>
+      <c r="ALB134" s="0"/>
+      <c r="ALC134" s="0"/>
+      <c r="ALD134" s="0"/>
+      <c r="ALE134" s="0"/>
+      <c r="ALF134" s="0"/>
+      <c r="ALG134" s="0"/>
+      <c r="ALH134" s="0"/>
+      <c r="ALI134" s="0"/>
+      <c r="ALJ134" s="0"/>
+      <c r="ALK134" s="0"/>
+      <c r="ALL134" s="0"/>
+      <c r="ALM134" s="0"/>
+      <c r="ALN134" s="0"/>
+      <c r="ALO134" s="0"/>
+      <c r="ALP134" s="0"/>
+      <c r="ALQ134" s="0"/>
+      <c r="ALR134" s="0"/>
+      <c r="ALS134" s="0"/>
+      <c r="ALT134" s="0"/>
+      <c r="ALU134" s="0"/>
+      <c r="ALV134" s="0"/>
+      <c r="ALW134" s="0"/>
+      <c r="ALX134" s="0"/>
+      <c r="ALY134" s="0"/>
+      <c r="ALZ134" s="0"/>
+      <c r="AMA134" s="0"/>
+      <c r="AMB134" s="0"/>
+      <c r="AMC134" s="0"/>
+      <c r="AMD134" s="0"/>
+      <c r="AME134" s="0"/>
+      <c r="AMF134" s="0"/>
+      <c r="AMG134" s="0"/>
+      <c r="AMH134" s="0"/>
+      <c r="AMI134" s="0"/>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="F135" s="168" t="s">
-        <v>104</v>
-      </c>
-      <c r="G135" s="169"/>
-      <c r="H135" s="169"/>
-      <c r="I135" s="170"/>
-      <c r="J135" s="170"/>
-      <c r="K135" s="171"/>
-      <c r="L135" s="172" t="s">
-        <v>105</v>
-      </c>
-      <c r="M135" s="170"/>
-      <c r="N135" s="170"/>
-      <c r="O135" s="170"/>
-      <c r="P135" s="172"/>
-      <c r="Q135" s="170"/>
-      <c r="R135" s="170"/>
-      <c r="S135" s="172"/>
-      <c r="T135" s="170" t="s">
-        <v>76</v>
-      </c>
-      <c r="U135" s="173"/>
-      <c r="V135" s="174" t="s">
-        <v>87</v>
-      </c>
-      <c r="W135" s="175"/>
-      <c r="X135" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y135" s="169" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z135" s="169"/>
-      <c r="AA135" s="173"/>
-      <c r="AB135" s="174"/>
-      <c r="AC135" s="169"/>
-      <c r="AD135" s="169"/>
-      <c r="AE135" s="169"/>
-      <c r="AF135" s="168"/>
-      <c r="AG135" s="169"/>
-      <c r="AH135" s="169"/>
-      <c r="AI135" s="169"/>
-      <c r="AJ135" s="169"/>
-      <c r="AK135" s="169"/>
-      <c r="AL135" s="169"/>
-      <c r="AM135" s="169"/>
-      <c r="AN135" s="169"/>
-      <c r="AO135" s="169"/>
-      <c r="AP135" s="169"/>
-      <c r="AQ135" s="169"/>
-      <c r="AR135" s="169"/>
-      <c r="AS135" s="169"/>
-      <c r="AT135" s="169"/>
-      <c r="AU135" s="169"/>
-      <c r="AV135" s="169"/>
-      <c r="AW135" s="169"/>
-      <c r="AX135" s="176"/>
+      <c r="C135" s="134"/>
+      <c r="D135" s="135"/>
+      <c r="E135" s="135"/>
+      <c r="F135" s="135"/>
+      <c r="G135" s="136"/>
+      <c r="H135" s="136"/>
+      <c r="I135" s="136"/>
+      <c r="J135" s="136"/>
+      <c r="K135" s="136"/>
+      <c r="L135" s="136"/>
+      <c r="M135" s="136"/>
+      <c r="N135" s="136"/>
+      <c r="O135" s="136"/>
+      <c r="P135" s="136"/>
+      <c r="Q135" s="136"/>
+      <c r="R135" s="136"/>
+      <c r="S135" s="135"/>
+      <c r="T135" s="134"/>
+      <c r="U135" s="137"/>
+      <c r="V135" s="135"/>
+      <c r="W135" s="135"/>
+      <c r="X135" s="135"/>
+      <c r="Y135" s="135"/>
+      <c r="Z135" s="134"/>
+      <c r="AA135" s="135"/>
+      <c r="AB135" s="135"/>
+      <c r="AC135" s="135"/>
+      <c r="AD135" s="135"/>
+      <c r="AE135" s="135"/>
+      <c r="AF135" s="135"/>
+      <c r="AG135" s="135"/>
+      <c r="AH135" s="135"/>
+      <c r="AI135" s="135"/>
+      <c r="AJ135" s="135"/>
+      <c r="AK135" s="135"/>
+      <c r="AL135" s="135"/>
+      <c r="AM135" s="135"/>
+      <c r="AN135" s="135"/>
+      <c r="AO135" s="135"/>
+      <c r="AP135" s="135"/>
+      <c r="AQ135" s="135"/>
+      <c r="AR135" s="135"/>
+      <c r="AS135" s="135"/>
+      <c r="AT135" s="135"/>
+      <c r="AU135" s="135"/>
+      <c r="AV135" s="138"/>
+      <c r="AW135" s="20"/>
+      <c r="AX135" s="1"/>
+      <c r="AKN135" s="0"/>
+      <c r="AKO135" s="0"/>
+      <c r="AKP135" s="0"/>
+      <c r="AKQ135" s="0"/>
+      <c r="AKR135" s="0"/>
+      <c r="AKS135" s="0"/>
+      <c r="AKT135" s="0"/>
+      <c r="AKU135" s="0"/>
+      <c r="AKV135" s="0"/>
+      <c r="AKW135" s="0"/>
+      <c r="AKX135" s="0"/>
+      <c r="AKY135" s="0"/>
+      <c r="AKZ135" s="0"/>
+      <c r="ALA135" s="0"/>
+      <c r="ALB135" s="0"/>
+      <c r="ALC135" s="0"/>
+      <c r="ALD135" s="0"/>
+      <c r="ALE135" s="0"/>
+      <c r="ALF135" s="0"/>
+      <c r="ALG135" s="0"/>
+      <c r="ALH135" s="0"/>
+      <c r="ALI135" s="0"/>
+      <c r="ALJ135" s="0"/>
+      <c r="ALK135" s="0"/>
+      <c r="ALL135" s="0"/>
+      <c r="ALM135" s="0"/>
+      <c r="ALN135" s="0"/>
+      <c r="ALO135" s="0"/>
+      <c r="ALP135" s="0"/>
+      <c r="ALQ135" s="0"/>
+      <c r="ALR135" s="0"/>
+      <c r="ALS135" s="0"/>
+      <c r="ALT135" s="0"/>
+      <c r="ALU135" s="0"/>
+      <c r="ALV135" s="0"/>
+      <c r="ALW135" s="0"/>
+      <c r="ALX135" s="0"/>
+      <c r="ALY135" s="0"/>
+      <c r="ALZ135" s="0"/>
+      <c r="AMA135" s="0"/>
+      <c r="AMB135" s="0"/>
+      <c r="AMC135" s="0"/>
+      <c r="AMD135" s="0"/>
+      <c r="AME135" s="0"/>
+      <c r="AMF135" s="0"/>
+      <c r="AMG135" s="0"/>
+      <c r="AMH135" s="0"/>
+      <c r="AMI135" s="0"/>
+      <c r="AMJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
-      <c r="T136" s="19"/>
-      <c r="U136" s="19"/>
-      <c r="V136" s="19"/>
-      <c r="W136" s="19"/>
-      <c r="X136" s="19"/>
-      <c r="Y136" s="143"/>
-      <c r="Z136" s="143"/>
-      <c r="AA136" s="143"/>
-      <c r="AB136" s="143"/>
-      <c r="AC136" s="19"/>
-      <c r="AD136" s="19"/>
-      <c r="AE136" s="19"/>
-      <c r="AF136" s="19"/>
-      <c r="AG136" s="143"/>
-      <c r="AH136" s="143"/>
-      <c r="AI136" s="19"/>
-      <c r="AJ136" s="19"/>
-      <c r="AK136" s="19"/>
-      <c r="AL136" s="19"/>
-      <c r="AM136" s="19"/>
-      <c r="AN136" s="19"/>
-      <c r="AO136" s="19"/>
-      <c r="AP136" s="19"/>
-      <c r="AQ136" s="19"/>
-      <c r="AR136" s="19"/>
-      <c r="AS136" s="19"/>
-      <c r="AT136" s="19"/>
-      <c r="AU136" s="19"/>
-      <c r="AV136" s="19"/>
-      <c r="AW136" s="19"/>
-      <c r="AX136" s="9"/>
+      <c r="AW136" s="20"/>
+      <c r="AX136" s="1"/>
+      <c r="AKN136" s="0"/>
+      <c r="AKO136" s="0"/>
+      <c r="AKP136" s="0"/>
+      <c r="AKQ136" s="0"/>
+      <c r="AKR136" s="0"/>
+      <c r="AKS136" s="0"/>
+      <c r="AKT136" s="0"/>
+      <c r="AKU136" s="0"/>
+      <c r="AKV136" s="0"/>
+      <c r="AKW136" s="0"/>
+      <c r="AKX136" s="0"/>
+      <c r="AKY136" s="0"/>
+      <c r="AKZ136" s="0"/>
+      <c r="ALA136" s="0"/>
+      <c r="ALB136" s="0"/>
+      <c r="ALC136" s="0"/>
+      <c r="ALD136" s="0"/>
+      <c r="ALE136" s="0"/>
+      <c r="ALF136" s="0"/>
+      <c r="ALG136" s="0"/>
+      <c r="ALH136" s="0"/>
+      <c r="ALI136" s="0"/>
+      <c r="ALJ136" s="0"/>
+      <c r="ALK136" s="0"/>
+      <c r="ALL136" s="0"/>
+      <c r="ALM136" s="0"/>
+      <c r="ALN136" s="0"/>
+      <c r="ALO136" s="0"/>
+      <c r="ALP136" s="0"/>
+      <c r="ALQ136" s="0"/>
+      <c r="ALR136" s="0"/>
+      <c r="ALS136" s="0"/>
+      <c r="ALT136" s="0"/>
+      <c r="ALU136" s="0"/>
+      <c r="ALV136" s="0"/>
+      <c r="ALW136" s="0"/>
+      <c r="ALX136" s="0"/>
+      <c r="ALY136" s="0"/>
+      <c r="ALZ136" s="0"/>
+      <c r="AMA136" s="0"/>
+      <c r="AMB136" s="0"/>
+      <c r="AMC136" s="0"/>
+      <c r="AMD136" s="0"/>
+      <c r="AME136" s="0"/>
+      <c r="AMF136" s="0"/>
+      <c r="AMG136" s="0"/>
+      <c r="AMH136" s="0"/>
+      <c r="AMI136" s="0"/>
+      <c r="AMJ136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
+      <c r="C137" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="D137" s="19"/>
-      <c r="E137" s="144" t="s">
-        <v>50</v>
-      </c>
-      <c r="F137" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G137" s="72"/>
-      <c r="H137" s="72"/>
-      <c r="I137" s="72"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="72"/>
-      <c r="L137" s="72"/>
-      <c r="M137" s="72"/>
-      <c r="N137" s="72"/>
-      <c r="O137" s="72"/>
-      <c r="P137" s="145" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q137" s="145"/>
-      <c r="R137" s="145"/>
-      <c r="S137" s="145"/>
-      <c r="T137" s="145"/>
-      <c r="U137" s="145"/>
-      <c r="V137" s="145"/>
-      <c r="W137" s="145"/>
-      <c r="X137" s="145"/>
-      <c r="Y137" s="145"/>
-      <c r="Z137" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA137" s="73"/>
-      <c r="AB137" s="73"/>
-      <c r="AC137" s="73"/>
-      <c r="AD137" s="73"/>
-      <c r="AE137" s="73"/>
-      <c r="AF137" s="73"/>
-      <c r="AG137" s="73"/>
-      <c r="AH137" s="73"/>
-      <c r="AI137" s="73"/>
-      <c r="AJ137" s="73"/>
-      <c r="AK137" s="73"/>
-      <c r="AL137" s="73"/>
-      <c r="AM137" s="73"/>
-      <c r="AN137" s="73"/>
-      <c r="AO137" s="73"/>
-      <c r="AP137" s="73"/>
-      <c r="AQ137" s="73"/>
-      <c r="AR137" s="73"/>
-      <c r="AS137" s="73"/>
-      <c r="AT137" s="73"/>
-      <c r="AU137" s="73"/>
-      <c r="AV137" s="73"/>
-      <c r="AW137" s="73"/>
-      <c r="AX137" s="73"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="19"/>
+      <c r="V137" s="19"/>
+      <c r="W137" s="139"/>
+      <c r="X137" s="139"/>
+      <c r="Y137" s="139"/>
+      <c r="Z137" s="139"/>
+      <c r="AA137" s="19"/>
+      <c r="AB137" s="19"/>
+      <c r="AC137" s="19"/>
+      <c r="AD137" s="19"/>
+      <c r="AE137" s="139"/>
+      <c r="AF137" s="139"/>
+      <c r="AG137" s="19"/>
+      <c r="AH137" s="19"/>
+      <c r="AI137" s="19"/>
+      <c r="AJ137" s="19"/>
+      <c r="AK137" s="19"/>
+      <c r="AL137" s="19"/>
+      <c r="AM137" s="19"/>
+      <c r="AN137" s="19"/>
+      <c r="AO137" s="19"/>
+      <c r="AP137" s="19"/>
+      <c r="AQ137" s="19"/>
+      <c r="AR137" s="19"/>
+      <c r="AS137" s="19"/>
+      <c r="AT137" s="19"/>
+      <c r="AU137" s="19"/>
+      <c r="AW137" s="20"/>
+      <c r="AX137" s="1"/>
+      <c r="AKN137" s="0"/>
+      <c r="AKO137" s="0"/>
+      <c r="AKP137" s="0"/>
+      <c r="AKQ137" s="0"/>
+      <c r="AKR137" s="0"/>
+      <c r="AKS137" s="0"/>
+      <c r="AKT137" s="0"/>
+      <c r="AKU137" s="0"/>
+      <c r="AKV137" s="0"/>
+      <c r="AKW137" s="0"/>
+      <c r="AKX137" s="0"/>
+      <c r="AKY137" s="0"/>
+      <c r="AKZ137" s="0"/>
+      <c r="ALA137" s="0"/>
+      <c r="ALB137" s="0"/>
+      <c r="ALC137" s="0"/>
+      <c r="ALD137" s="0"/>
+      <c r="ALE137" s="0"/>
+      <c r="ALF137" s="0"/>
+      <c r="ALG137" s="0"/>
+      <c r="ALH137" s="0"/>
+      <c r="ALI137" s="0"/>
+      <c r="ALJ137" s="0"/>
+      <c r="ALK137" s="0"/>
+      <c r="ALL137" s="0"/>
+      <c r="ALM137" s="0"/>
+      <c r="ALN137" s="0"/>
+      <c r="ALO137" s="0"/>
+      <c r="ALP137" s="0"/>
+      <c r="ALQ137" s="0"/>
+      <c r="ALR137" s="0"/>
+      <c r="ALS137" s="0"/>
+      <c r="ALT137" s="0"/>
+      <c r="ALU137" s="0"/>
+      <c r="ALV137" s="0"/>
+      <c r="ALW137" s="0"/>
+      <c r="ALX137" s="0"/>
+      <c r="ALY137" s="0"/>
+      <c r="ALZ137" s="0"/>
+      <c r="AMA137" s="0"/>
+      <c r="AMB137" s="0"/>
+      <c r="AMC137" s="0"/>
+      <c r="AMD137" s="0"/>
+      <c r="AME137" s="0"/>
+      <c r="AMF137" s="0"/>
+      <c r="AMG137" s="0"/>
+      <c r="AMH137" s="0"/>
+      <c r="AMI137" s="0"/>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="147" t="s">
-        <v>90</v>
-      </c>
-      <c r="G138" s="97"/>
-      <c r="H138" s="97"/>
-      <c r="I138" s="97"/>
-      <c r="J138" s="97"/>
-      <c r="K138" s="97"/>
-      <c r="L138" s="97"/>
-      <c r="M138" s="97"/>
-      <c r="N138" s="97"/>
-      <c r="O138" s="148"/>
-      <c r="P138" s="149" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q138" s="150"/>
-      <c r="R138" s="150"/>
-      <c r="S138" s="150"/>
-      <c r="T138" s="150"/>
-      <c r="U138" s="150"/>
-      <c r="V138" s="150"/>
-      <c r="W138" s="150"/>
-      <c r="X138" s="150"/>
-      <c r="Y138" s="151"/>
-      <c r="Z138" s="149"/>
-      <c r="AA138" s="152"/>
-      <c r="AB138" s="152"/>
-      <c r="AC138" s="152"/>
-      <c r="AD138" s="150"/>
-      <c r="AE138" s="150"/>
-      <c r="AF138" s="150"/>
-      <c r="AG138" s="150"/>
-      <c r="AH138" s="152"/>
-      <c r="AI138" s="152"/>
-      <c r="AJ138" s="150"/>
-      <c r="AK138" s="150"/>
-      <c r="AL138" s="150"/>
-      <c r="AM138" s="150"/>
-      <c r="AN138" s="150"/>
-      <c r="AO138" s="150"/>
-      <c r="AP138" s="150"/>
-      <c r="AQ138" s="150"/>
-      <c r="AR138" s="150"/>
-      <c r="AS138" s="150"/>
-      <c r="AT138" s="150"/>
-      <c r="AU138" s="150"/>
-      <c r="AV138" s="150"/>
-      <c r="AW138" s="150"/>
-      <c r="AX138" s="151"/>
+      <c r="C138" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="72"/>
+      <c r="L138" s="72"/>
+      <c r="M138" s="72"/>
+      <c r="N138" s="141" t="s">
+        <v>72</v>
+      </c>
+      <c r="O138" s="141"/>
+      <c r="P138" s="141"/>
+      <c r="Q138" s="141"/>
+      <c r="R138" s="141"/>
+      <c r="S138" s="141"/>
+      <c r="T138" s="141"/>
+      <c r="U138" s="141"/>
+      <c r="V138" s="141"/>
+      <c r="W138" s="141"/>
+      <c r="X138" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y138" s="73"/>
+      <c r="Z138" s="73"/>
+      <c r="AA138" s="73"/>
+      <c r="AB138" s="73"/>
+      <c r="AC138" s="73"/>
+      <c r="AD138" s="73"/>
+      <c r="AE138" s="73"/>
+      <c r="AF138" s="73"/>
+      <c r="AG138" s="73"/>
+      <c r="AH138" s="73"/>
+      <c r="AI138" s="73"/>
+      <c r="AJ138" s="73"/>
+      <c r="AK138" s="73"/>
+      <c r="AL138" s="73"/>
+      <c r="AM138" s="73"/>
+      <c r="AN138" s="73"/>
+      <c r="AO138" s="73"/>
+      <c r="AP138" s="73"/>
+      <c r="AQ138" s="73"/>
+      <c r="AR138" s="73"/>
+      <c r="AS138" s="73"/>
+      <c r="AT138" s="73"/>
+      <c r="AU138" s="73"/>
+      <c r="AV138" s="73"/>
+      <c r="AW138" s="20"/>
+      <c r="AX138" s="1"/>
+      <c r="AKN138" s="0"/>
+      <c r="AKO138" s="0"/>
+      <c r="AKP138" s="0"/>
+      <c r="AKQ138" s="0"/>
+      <c r="AKR138" s="0"/>
+      <c r="AKS138" s="0"/>
+      <c r="AKT138" s="0"/>
+      <c r="AKU138" s="0"/>
+      <c r="AKV138" s="0"/>
+      <c r="AKW138" s="0"/>
+      <c r="AKX138" s="0"/>
+      <c r="AKY138" s="0"/>
+      <c r="AKZ138" s="0"/>
+      <c r="ALA138" s="0"/>
+      <c r="ALB138" s="0"/>
+      <c r="ALC138" s="0"/>
+      <c r="ALD138" s="0"/>
+      <c r="ALE138" s="0"/>
+      <c r="ALF138" s="0"/>
+      <c r="ALG138" s="0"/>
+      <c r="ALH138" s="0"/>
+      <c r="ALI138" s="0"/>
+      <c r="ALJ138" s="0"/>
+      <c r="ALK138" s="0"/>
+      <c r="ALL138" s="0"/>
+      <c r="ALM138" s="0"/>
+      <c r="ALN138" s="0"/>
+      <c r="ALO138" s="0"/>
+      <c r="ALP138" s="0"/>
+      <c r="ALQ138" s="0"/>
+      <c r="ALR138" s="0"/>
+      <c r="ALS138" s="0"/>
+      <c r="ALT138" s="0"/>
+      <c r="ALU138" s="0"/>
+      <c r="ALV138" s="0"/>
+      <c r="ALW138" s="0"/>
+      <c r="ALX138" s="0"/>
+      <c r="ALY138" s="0"/>
+      <c r="ALZ138" s="0"/>
+      <c r="AMA138" s="0"/>
+      <c r="AMB138" s="0"/>
+      <c r="AMC138" s="0"/>
+      <c r="AMD138" s="0"/>
+      <c r="AME138" s="0"/>
+      <c r="AMF138" s="0"/>
+      <c r="AMG138" s="0"/>
+      <c r="AMH138" s="0"/>
+      <c r="AMI138" s="0"/>
+      <c r="AMJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="153" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" s="154" t="s">
-        <v>92</v>
-      </c>
-      <c r="G139" s="155"/>
-      <c r="H139" s="155"/>
-      <c r="I139" s="155"/>
-      <c r="J139" s="155"/>
-      <c r="K139" s="155"/>
-      <c r="L139" s="155"/>
-      <c r="M139" s="155"/>
-      <c r="N139" s="155"/>
-      <c r="O139" s="156"/>
-      <c r="P139" s="154" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q139" s="155"/>
-      <c r="R139" s="155"/>
-      <c r="S139" s="155"/>
-      <c r="T139" s="155"/>
-      <c r="U139" s="155"/>
-      <c r="V139" s="155"/>
-      <c r="W139" s="155"/>
-      <c r="X139" s="155"/>
-      <c r="Y139" s="156"/>
-      <c r="Z139" s="154"/>
-      <c r="AA139" s="157"/>
-      <c r="AB139" s="157"/>
-      <c r="AC139" s="157"/>
-      <c r="AD139" s="155"/>
-      <c r="AE139" s="155"/>
-      <c r="AF139" s="155"/>
-      <c r="AG139" s="155"/>
-      <c r="AH139" s="157"/>
-      <c r="AI139" s="157"/>
-      <c r="AJ139" s="155"/>
-      <c r="AK139" s="155"/>
-      <c r="AL139" s="155"/>
-      <c r="AM139" s="155"/>
-      <c r="AN139" s="155"/>
-      <c r="AO139" s="155"/>
-      <c r="AP139" s="155"/>
-      <c r="AQ139" s="155"/>
-      <c r="AR139" s="155"/>
-      <c r="AS139" s="155"/>
-      <c r="AT139" s="155"/>
-      <c r="AU139" s="155"/>
-      <c r="AV139" s="155"/>
-      <c r="AW139" s="155"/>
-      <c r="AX139" s="156"/>
+      <c r="C139" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="E139" s="97"/>
+      <c r="F139" s="97"/>
+      <c r="G139" s="97"/>
+      <c r="H139" s="97"/>
+      <c r="I139" s="97"/>
+      <c r="J139" s="97"/>
+      <c r="K139" s="97"/>
+      <c r="L139" s="97"/>
+      <c r="M139" s="144"/>
+      <c r="N139" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="O139" s="146"/>
+      <c r="P139" s="146"/>
+      <c r="Q139" s="146"/>
+      <c r="R139" s="146"/>
+      <c r="S139" s="146"/>
+      <c r="T139" s="146"/>
+      <c r="U139" s="146"/>
+      <c r="V139" s="146"/>
+      <c r="W139" s="147"/>
+      <c r="X139" s="145"/>
+      <c r="Y139" s="148"/>
+      <c r="Z139" s="148"/>
+      <c r="AA139" s="148"/>
+      <c r="AB139" s="146"/>
+      <c r="AC139" s="146"/>
+      <c r="AD139" s="146"/>
+      <c r="AE139" s="146"/>
+      <c r="AF139" s="148"/>
+      <c r="AG139" s="148"/>
+      <c r="AH139" s="146"/>
+      <c r="AI139" s="146"/>
+      <c r="AJ139" s="146"/>
+      <c r="AK139" s="146"/>
+      <c r="AL139" s="146"/>
+      <c r="AM139" s="146"/>
+      <c r="AN139" s="146"/>
+      <c r="AO139" s="146"/>
+      <c r="AP139" s="146"/>
+      <c r="AQ139" s="146"/>
+      <c r="AR139" s="146"/>
+      <c r="AS139" s="146"/>
+      <c r="AT139" s="146"/>
+      <c r="AU139" s="146"/>
+      <c r="AV139" s="147"/>
+      <c r="AW139" s="20"/>
+      <c r="AX139" s="1"/>
+      <c r="AKN139" s="0"/>
+      <c r="AKO139" s="0"/>
+      <c r="AKP139" s="0"/>
+      <c r="AKQ139" s="0"/>
+      <c r="AKR139" s="0"/>
+      <c r="AKS139" s="0"/>
+      <c r="AKT139" s="0"/>
+      <c r="AKU139" s="0"/>
+      <c r="AKV139" s="0"/>
+      <c r="AKW139" s="0"/>
+      <c r="AKX139" s="0"/>
+      <c r="AKY139" s="0"/>
+      <c r="AKZ139" s="0"/>
+      <c r="ALA139" s="0"/>
+      <c r="ALB139" s="0"/>
+      <c r="ALC139" s="0"/>
+      <c r="ALD139" s="0"/>
+      <c r="ALE139" s="0"/>
+      <c r="ALF139" s="0"/>
+      <c r="ALG139" s="0"/>
+      <c r="ALH139" s="0"/>
+      <c r="ALI139" s="0"/>
+      <c r="ALJ139" s="0"/>
+      <c r="ALK139" s="0"/>
+      <c r="ALL139" s="0"/>
+      <c r="ALM139" s="0"/>
+      <c r="ALN139" s="0"/>
+      <c r="ALO139" s="0"/>
+      <c r="ALP139" s="0"/>
+      <c r="ALQ139" s="0"/>
+      <c r="ALR139" s="0"/>
+      <c r="ALS139" s="0"/>
+      <c r="ALT139" s="0"/>
+      <c r="ALU139" s="0"/>
+      <c r="ALV139" s="0"/>
+      <c r="ALW139" s="0"/>
+      <c r="ALX139" s="0"/>
+      <c r="ALY139" s="0"/>
+      <c r="ALZ139" s="0"/>
+      <c r="AMA139" s="0"/>
+      <c r="AMB139" s="0"/>
+      <c r="AMC139" s="0"/>
+      <c r="AMD139" s="0"/>
+      <c r="AME139" s="0"/>
+      <c r="AMF139" s="0"/>
+      <c r="AMG139" s="0"/>
+      <c r="AMH139" s="0"/>
+      <c r="AMI139" s="0"/>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="158"/>
-      <c r="F140" s="159"/>
-      <c r="G140" s="160"/>
-      <c r="H140" s="160"/>
-      <c r="I140" s="160"/>
-      <c r="J140" s="160"/>
-      <c r="K140" s="160"/>
-      <c r="L140" s="160"/>
-      <c r="M140" s="160"/>
-      <c r="N140" s="160"/>
-      <c r="O140" s="161"/>
-      <c r="P140" s="162"/>
-      <c r="Q140" s="163"/>
-      <c r="R140" s="163"/>
-      <c r="S140" s="163"/>
-      <c r="T140" s="163"/>
-      <c r="U140" s="163"/>
-      <c r="V140" s="163"/>
-      <c r="W140" s="163"/>
-      <c r="X140" s="163"/>
-      <c r="Y140" s="164"/>
-      <c r="Z140" s="162"/>
-      <c r="AA140" s="165"/>
-      <c r="AB140" s="165"/>
-      <c r="AC140" s="165"/>
-      <c r="AD140" s="163"/>
-      <c r="AE140" s="163"/>
-      <c r="AF140" s="163"/>
-      <c r="AG140" s="163"/>
-      <c r="AH140" s="165"/>
-      <c r="AI140" s="165"/>
-      <c r="AJ140" s="163"/>
-      <c r="AK140" s="163"/>
-      <c r="AL140" s="163"/>
-      <c r="AM140" s="163"/>
-      <c r="AN140" s="163"/>
-      <c r="AO140" s="163"/>
-      <c r="AP140" s="163"/>
-      <c r="AQ140" s="163"/>
-      <c r="AR140" s="163"/>
-      <c r="AS140" s="163"/>
-      <c r="AT140" s="163"/>
-      <c r="AU140" s="163"/>
-      <c r="AV140" s="163"/>
-      <c r="AW140" s="163"/>
-      <c r="AX140" s="166"/>
+      <c r="C140" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="E140" s="151"/>
+      <c r="F140" s="151"/>
+      <c r="G140" s="151"/>
+      <c r="H140" s="151"/>
+      <c r="I140" s="151"/>
+      <c r="J140" s="151"/>
+      <c r="K140" s="151"/>
+      <c r="L140" s="151"/>
+      <c r="M140" s="152"/>
+      <c r="N140" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="O140" s="151"/>
+      <c r="P140" s="151"/>
+      <c r="Q140" s="151"/>
+      <c r="R140" s="151"/>
+      <c r="S140" s="151"/>
+      <c r="T140" s="151"/>
+      <c r="U140" s="151"/>
+      <c r="V140" s="151"/>
+      <c r="W140" s="152"/>
+      <c r="X140" s="150"/>
+      <c r="Y140" s="153"/>
+      <c r="Z140" s="153"/>
+      <c r="AA140" s="153"/>
+      <c r="AB140" s="151"/>
+      <c r="AC140" s="151"/>
+      <c r="AD140" s="151"/>
+      <c r="AE140" s="151"/>
+      <c r="AF140" s="153"/>
+      <c r="AG140" s="153"/>
+      <c r="AH140" s="151"/>
+      <c r="AI140" s="151"/>
+      <c r="AJ140" s="151"/>
+      <c r="AK140" s="151"/>
+      <c r="AL140" s="151"/>
+      <c r="AM140" s="151"/>
+      <c r="AN140" s="151"/>
+      <c r="AO140" s="151"/>
+      <c r="AP140" s="151"/>
+      <c r="AQ140" s="151"/>
+      <c r="AR140" s="151"/>
+      <c r="AS140" s="151"/>
+      <c r="AT140" s="151"/>
+      <c r="AU140" s="151"/>
+      <c r="AV140" s="152"/>
+      <c r="AW140" s="20"/>
+      <c r="AX140" s="1"/>
+      <c r="AKN140" s="0"/>
+      <c r="AKO140" s="0"/>
+      <c r="AKP140" s="0"/>
+      <c r="AKQ140" s="0"/>
+      <c r="AKR140" s="0"/>
+      <c r="AKS140" s="0"/>
+      <c r="AKT140" s="0"/>
+      <c r="AKU140" s="0"/>
+      <c r="AKV140" s="0"/>
+      <c r="AKW140" s="0"/>
+      <c r="AKX140" s="0"/>
+      <c r="AKY140" s="0"/>
+      <c r="AKZ140" s="0"/>
+      <c r="ALA140" s="0"/>
+      <c r="ALB140" s="0"/>
+      <c r="ALC140" s="0"/>
+      <c r="ALD140" s="0"/>
+      <c r="ALE140" s="0"/>
+      <c r="ALF140" s="0"/>
+      <c r="ALG140" s="0"/>
+      <c r="ALH140" s="0"/>
+      <c r="ALI140" s="0"/>
+      <c r="ALJ140" s="0"/>
+      <c r="ALK140" s="0"/>
+      <c r="ALL140" s="0"/>
+      <c r="ALM140" s="0"/>
+      <c r="ALN140" s="0"/>
+      <c r="ALO140" s="0"/>
+      <c r="ALP140" s="0"/>
+      <c r="ALQ140" s="0"/>
+      <c r="ALR140" s="0"/>
+      <c r="ALS140" s="0"/>
+      <c r="ALT140" s="0"/>
+      <c r="ALU140" s="0"/>
+      <c r="ALV140" s="0"/>
+      <c r="ALW140" s="0"/>
+      <c r="ALX140" s="0"/>
+      <c r="ALY140" s="0"/>
+      <c r="ALZ140" s="0"/>
+      <c r="AMA140" s="0"/>
+      <c r="AMB140" s="0"/>
+      <c r="AMC140" s="0"/>
+      <c r="AMD140" s="0"/>
+      <c r="AME140" s="0"/>
+      <c r="AMF140" s="0"/>
+      <c r="AMG140" s="0"/>
+      <c r="AMH140" s="0"/>
+      <c r="AMI140" s="0"/>
+      <c r="AMJ140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="C141" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="143"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="24"/>
-      <c r="N141" s="24"/>
-      <c r="O141" s="24"/>
-      <c r="P141" s="24"/>
-      <c r="Q141" s="24"/>
-      <c r="R141" s="24"/>
-      <c r="S141" s="24"/>
-      <c r="T141" s="24"/>
-      <c r="U141" s="24"/>
-      <c r="V141" s="24"/>
-      <c r="W141" s="24"/>
-      <c r="X141" s="24"/>
-      <c r="Y141" s="24"/>
-      <c r="Z141" s="24"/>
-      <c r="AA141" s="24"/>
-      <c r="AB141" s="24"/>
-      <c r="AC141" s="24"/>
-      <c r="AD141" s="24"/>
-      <c r="AF141" s="24"/>
-      <c r="AG141" s="24"/>
-      <c r="AH141" s="24"/>
-      <c r="AI141" s="24"/>
-      <c r="AJ141" s="24"/>
-      <c r="AK141" s="24"/>
-      <c r="AL141" s="24"/>
-      <c r="AM141" s="24"/>
-      <c r="AN141" s="24"/>
-      <c r="AO141" s="24"/>
-      <c r="AP141" s="24"/>
-      <c r="AQ141" s="24"/>
-      <c r="AR141" s="24"/>
-      <c r="AS141" s="24"/>
-      <c r="AT141" s="24"/>
-      <c r="AU141" s="24"/>
-      <c r="AV141" s="19"/>
+      <c r="C141" s="154"/>
+      <c r="D141" s="155"/>
+      <c r="E141" s="156"/>
+      <c r="F141" s="156"/>
+      <c r="G141" s="156"/>
+      <c r="H141" s="156"/>
+      <c r="I141" s="156"/>
+      <c r="J141" s="156"/>
+      <c r="K141" s="156"/>
+      <c r="L141" s="156"/>
+      <c r="M141" s="157"/>
+      <c r="N141" s="158"/>
+      <c r="O141" s="159"/>
+      <c r="P141" s="159"/>
+      <c r="Q141" s="159"/>
+      <c r="R141" s="159"/>
+      <c r="S141" s="159"/>
+      <c r="T141" s="159"/>
+      <c r="U141" s="159"/>
+      <c r="V141" s="159"/>
+      <c r="W141" s="160"/>
+      <c r="X141" s="158"/>
+      <c r="Y141" s="161"/>
+      <c r="Z141" s="161"/>
+      <c r="AA141" s="161"/>
+      <c r="AB141" s="159"/>
+      <c r="AC141" s="159"/>
+      <c r="AD141" s="159"/>
+      <c r="AE141" s="159"/>
+      <c r="AF141" s="161"/>
+      <c r="AG141" s="161"/>
+      <c r="AH141" s="159"/>
+      <c r="AI141" s="159"/>
+      <c r="AJ141" s="159"/>
+      <c r="AK141" s="159"/>
+      <c r="AL141" s="159"/>
+      <c r="AM141" s="159"/>
+      <c r="AN141" s="159"/>
+      <c r="AO141" s="159"/>
+      <c r="AP141" s="159"/>
+      <c r="AQ141" s="159"/>
+      <c r="AR141" s="159"/>
+      <c r="AS141" s="159"/>
+      <c r="AT141" s="159"/>
+      <c r="AU141" s="159"/>
+      <c r="AV141" s="162"/>
       <c r="AW141" s="20"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="D142" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E142" s="143"/>
+      <c r="C142" s="139"/>
+      <c r="D142" s="163"/>
+      <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
@@ -15892,15 +16384,15 @@
       <c r="V142" s="19"/>
       <c r="W142" s="19"/>
       <c r="X142" s="19"/>
-      <c r="Y142" s="19"/>
-      <c r="Z142" s="19"/>
-      <c r="AA142" s="19"/>
+      <c r="Y142" s="139"/>
+      <c r="Z142" s="139"/>
+      <c r="AA142" s="139"/>
       <c r="AB142" s="19"/>
       <c r="AC142" s="19"/>
       <c r="AD142" s="19"/>
-      <c r="AE142" s="1"/>
-      <c r="AF142" s="19"/>
-      <c r="AG142" s="19"/>
+      <c r="AE142" s="19"/>
+      <c r="AF142" s="139"/>
+      <c r="AG142" s="139"/>
       <c r="AH142" s="19"/>
       <c r="AI142" s="19"/>
       <c r="AJ142" s="19"/>
@@ -15915,15 +16407,15 @@
       <c r="AS142" s="19"/>
       <c r="AT142" s="19"/>
       <c r="AU142" s="19"/>
-      <c r="AV142" s="19"/>
       <c r="AW142" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="D143" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E143" s="143"/>
+      <c r="C143" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
@@ -15941,16 +16433,16 @@
       <c r="T143" s="19"/>
       <c r="U143" s="19"/>
       <c r="V143" s="19"/>
-      <c r="W143" s="19"/>
-      <c r="X143" s="19"/>
-      <c r="Y143" s="19"/>
-      <c r="Z143" s="19"/>
+      <c r="W143" s="139"/>
+      <c r="X143" s="139"/>
+      <c r="Y143" s="139"/>
+      <c r="Z143" s="139"/>
       <c r="AA143" s="19"/>
       <c r="AB143" s="19"/>
       <c r="AC143" s="19"/>
       <c r="AD143" s="19"/>
-      <c r="AE143" s="1"/>
-      <c r="AF143" s="19"/>
+      <c r="AE143" s="139"/>
+      <c r="AF143" s="139"/>
       <c r="AG143" s="19"/>
       <c r="AH143" s="19"/>
       <c r="AI143" s="19"/>
@@ -15966,363 +16458,351 @@
       <c r="AS143" s="19"/>
       <c r="AT143" s="19"/>
       <c r="AU143" s="19"/>
-      <c r="AV143" s="19"/>
       <c r="AW143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
-      <c r="O144" s="19"/>
-      <c r="P144" s="19"/>
-      <c r="Q144" s="19"/>
-      <c r="R144" s="19"/>
-      <c r="S144" s="19"/>
-      <c r="T144" s="19"/>
-      <c r="U144" s="19"/>
-      <c r="V144" s="19"/>
-      <c r="W144" s="19"/>
-      <c r="X144" s="19"/>
-      <c r="Y144" s="19"/>
-      <c r="Z144" s="19"/>
-      <c r="AA144" s="19"/>
-      <c r="AB144" s="19"/>
-      <c r="AC144" s="19"/>
-      <c r="AD144" s="19"/>
-      <c r="AE144" s="1"/>
-      <c r="AF144" s="19"/>
-      <c r="AG144" s="19"/>
-      <c r="AH144" s="19"/>
-      <c r="AI144" s="19"/>
-      <c r="AJ144" s="19"/>
-      <c r="AK144" s="19"/>
-      <c r="AL144" s="19"/>
-      <c r="AM144" s="19"/>
-      <c r="AN144" s="19"/>
-      <c r="AO144" s="19"/>
-      <c r="AP144" s="19"/>
-      <c r="AQ144" s="19"/>
-      <c r="AR144" s="19"/>
-      <c r="AS144" s="19"/>
-      <c r="AT144" s="19"/>
-      <c r="AU144" s="19"/>
-      <c r="AV144" s="19"/>
+      <c r="C144" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="72"/>
+      <c r="N144" s="141" t="s">
+        <v>72</v>
+      </c>
+      <c r="O144" s="141"/>
+      <c r="P144" s="141"/>
+      <c r="Q144" s="141"/>
+      <c r="R144" s="141"/>
+      <c r="S144" s="141"/>
+      <c r="T144" s="141"/>
+      <c r="U144" s="141"/>
+      <c r="V144" s="141"/>
+      <c r="W144" s="141"/>
+      <c r="X144" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y144" s="73"/>
+      <c r="Z144" s="73"/>
+      <c r="AA144" s="73"/>
+      <c r="AB144" s="73"/>
+      <c r="AC144" s="73"/>
+      <c r="AD144" s="73"/>
+      <c r="AE144" s="73"/>
+      <c r="AF144" s="73"/>
+      <c r="AG144" s="73"/>
+      <c r="AH144" s="73"/>
+      <c r="AI144" s="73"/>
+      <c r="AJ144" s="73"/>
+      <c r="AK144" s="73"/>
+      <c r="AL144" s="73"/>
+      <c r="AM144" s="73"/>
+      <c r="AN144" s="73"/>
+      <c r="AO144" s="73"/>
+      <c r="AP144" s="73"/>
+      <c r="AQ144" s="73"/>
+      <c r="AR144" s="73"/>
+      <c r="AS144" s="73"/>
+      <c r="AT144" s="73"/>
+      <c r="AU144" s="73"/>
+      <c r="AV144" s="73"/>
       <c r="AW144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="178" t="s">
-        <v>50</v>
-      </c>
-      <c r="F145" s="179" t="s">
-        <v>68</v>
-      </c>
-      <c r="G145" s="179"/>
-      <c r="H145" s="179"/>
-      <c r="I145" s="179"/>
-      <c r="J145" s="179"/>
-      <c r="K145" s="179"/>
-      <c r="L145" s="179"/>
-      <c r="M145" s="179"/>
-      <c r="N145" s="179" t="s">
-        <v>112</v>
-      </c>
-      <c r="O145" s="179"/>
-      <c r="P145" s="179"/>
-      <c r="Q145" s="179"/>
-      <c r="R145" s="179"/>
-      <c r="S145" s="179"/>
-      <c r="T145" s="179"/>
-      <c r="U145" s="179"/>
-      <c r="V145" s="179"/>
-      <c r="W145" s="179"/>
-      <c r="X145" s="179"/>
-      <c r="Y145" s="179"/>
-      <c r="Z145" s="179"/>
-      <c r="AA145" s="179"/>
-      <c r="AB145" s="179"/>
-      <c r="AC145" s="179"/>
-      <c r="AD145" s="179"/>
-      <c r="AE145" s="179"/>
-      <c r="AF145" s="179"/>
-      <c r="AG145" s="179"/>
-      <c r="AH145" s="179"/>
-      <c r="AI145" s="179"/>
-      <c r="AJ145" s="179" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK145" s="179"/>
-      <c r="AL145" s="179"/>
-      <c r="AM145" s="179"/>
-      <c r="AN145" s="179"/>
-      <c r="AO145" s="179"/>
-      <c r="AP145" s="179"/>
-      <c r="AQ145" s="179"/>
-      <c r="AR145" s="179"/>
-      <c r="AS145" s="179"/>
-      <c r="AT145" s="179"/>
-      <c r="AU145" s="179"/>
-      <c r="AV145" s="19"/>
+      <c r="C145" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="97"/>
+      <c r="K145" s="97"/>
+      <c r="L145" s="97"/>
+      <c r="M145" s="144"/>
+      <c r="N145" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="O145" s="146"/>
+      <c r="P145" s="146"/>
+      <c r="Q145" s="146"/>
+      <c r="R145" s="146"/>
+      <c r="S145" s="146"/>
+      <c r="T145" s="146"/>
+      <c r="U145" s="146"/>
+      <c r="V145" s="146"/>
+      <c r="W145" s="147"/>
+      <c r="X145" s="145"/>
+      <c r="Y145" s="148"/>
+      <c r="Z145" s="148"/>
+      <c r="AA145" s="148"/>
+      <c r="AB145" s="146"/>
+      <c r="AC145" s="146"/>
+      <c r="AD145" s="146"/>
+      <c r="AE145" s="146"/>
+      <c r="AF145" s="148"/>
+      <c r="AG145" s="148"/>
+      <c r="AH145" s="146"/>
+      <c r="AI145" s="146"/>
+      <c r="AJ145" s="146"/>
+      <c r="AK145" s="146"/>
+      <c r="AL145" s="146"/>
+      <c r="AM145" s="146"/>
+      <c r="AN145" s="146"/>
+      <c r="AO145" s="146"/>
+      <c r="AP145" s="146"/>
+      <c r="AQ145" s="146"/>
+      <c r="AR145" s="146"/>
+      <c r="AS145" s="146"/>
+      <c r="AT145" s="146"/>
+      <c r="AU145" s="146"/>
+      <c r="AV145" s="147"/>
       <c r="AW145" s="20"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="180" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" s="181" t="s">
-        <v>114</v>
-      </c>
-      <c r="G146" s="182"/>
-      <c r="H146" s="182"/>
-      <c r="I146" s="183"/>
-      <c r="J146" s="183"/>
-      <c r="K146" s="183"/>
-      <c r="L146" s="183"/>
-      <c r="M146" s="184"/>
-      <c r="N146" s="185" t="s">
-        <v>115</v>
-      </c>
-      <c r="O146" s="182"/>
-      <c r="P146" s="182"/>
-      <c r="Q146" s="183"/>
-      <c r="R146" s="183"/>
-      <c r="S146" s="183"/>
-      <c r="T146" s="183"/>
-      <c r="U146" s="183"/>
-      <c r="V146" s="186"/>
-      <c r="W146" s="186"/>
-      <c r="X146" s="186"/>
-      <c r="Y146" s="186"/>
-      <c r="Z146" s="186"/>
-      <c r="AA146" s="186"/>
-      <c r="AB146" s="186"/>
-      <c r="AC146" s="186"/>
-      <c r="AD146" s="186"/>
-      <c r="AE146" s="186"/>
-      <c r="AF146" s="186"/>
-      <c r="AG146" s="186"/>
-      <c r="AH146" s="186"/>
-      <c r="AI146" s="187"/>
-      <c r="AJ146" s="188" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK146" s="189"/>
-      <c r="AL146" s="189"/>
-      <c r="AM146" s="189"/>
-      <c r="AN146" s="189"/>
-      <c r="AO146" s="189"/>
-      <c r="AP146" s="189"/>
-      <c r="AQ146" s="189"/>
-      <c r="AR146" s="189"/>
-      <c r="AS146" s="189"/>
-      <c r="AT146" s="189"/>
-      <c r="AU146" s="190"/>
-      <c r="AV146" s="19"/>
+      <c r="C146" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E146" s="151"/>
+      <c r="F146" s="151"/>
+      <c r="G146" s="151"/>
+      <c r="H146" s="151"/>
+      <c r="I146" s="151"/>
+      <c r="J146" s="151"/>
+      <c r="K146" s="151"/>
+      <c r="L146" s="151"/>
+      <c r="M146" s="152"/>
+      <c r="N146" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="O146" s="151"/>
+      <c r="P146" s="151"/>
+      <c r="Q146" s="151"/>
+      <c r="R146" s="151"/>
+      <c r="S146" s="151"/>
+      <c r="T146" s="151"/>
+      <c r="U146" s="151"/>
+      <c r="V146" s="151"/>
+      <c r="W146" s="152"/>
+      <c r="X146" s="150"/>
+      <c r="Y146" s="153"/>
+      <c r="Z146" s="153"/>
+      <c r="AA146" s="153"/>
+      <c r="AB146" s="151"/>
+      <c r="AC146" s="151"/>
+      <c r="AD146" s="151"/>
+      <c r="AE146" s="151"/>
+      <c r="AF146" s="153"/>
+      <c r="AG146" s="153"/>
+      <c r="AH146" s="151"/>
+      <c r="AI146" s="151"/>
+      <c r="AJ146" s="151"/>
+      <c r="AK146" s="151"/>
+      <c r="AL146" s="151"/>
+      <c r="AM146" s="151"/>
+      <c r="AN146" s="151"/>
+      <c r="AO146" s="151"/>
+      <c r="AP146" s="151"/>
+      <c r="AQ146" s="151"/>
+      <c r="AR146" s="151"/>
+      <c r="AS146" s="151"/>
+      <c r="AT146" s="151"/>
+      <c r="AU146" s="151"/>
+      <c r="AV146" s="152"/>
       <c r="AW146" s="20"/>
-      <c r="AY146" s="191"/>
+      <c r="AY146" s="164"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="192" t="n">
-        <v>2</v>
-      </c>
-      <c r="F147" s="193" t="s">
-        <v>117</v>
-      </c>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
-      <c r="I147" s="195"/>
-      <c r="J147" s="195"/>
-      <c r="K147" s="195"/>
-      <c r="L147" s="195"/>
-      <c r="M147" s="196"/>
-      <c r="N147" s="197" t="s">
-        <v>115</v>
-      </c>
-      <c r="O147" s="198"/>
-      <c r="P147" s="198"/>
-      <c r="Q147" s="199"/>
-      <c r="R147" s="199"/>
-      <c r="S147" s="199"/>
-      <c r="T147" s="199"/>
-      <c r="U147" s="199"/>
-      <c r="V147" s="200"/>
-      <c r="W147" s="200"/>
-      <c r="X147" s="200"/>
-      <c r="Y147" s="200"/>
-      <c r="Z147" s="200"/>
-      <c r="AA147" s="200"/>
-      <c r="AB147" s="200"/>
-      <c r="AC147" s="200"/>
-      <c r="AD147" s="200"/>
-      <c r="AE147" s="200"/>
-      <c r="AF147" s="200"/>
-      <c r="AG147" s="200"/>
-      <c r="AH147" s="200"/>
-      <c r="AI147" s="201"/>
-      <c r="AJ147" s="202" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK147" s="203"/>
-      <c r="AL147" s="203"/>
-      <c r="AM147" s="203"/>
-      <c r="AN147" s="203"/>
-      <c r="AO147" s="203"/>
-      <c r="AP147" s="203"/>
-      <c r="AQ147" s="203"/>
-      <c r="AR147" s="203"/>
-      <c r="AS147" s="203"/>
-      <c r="AT147" s="203"/>
-      <c r="AU147" s="204"/>
-      <c r="AV147" s="19"/>
+      <c r="C147" s="154"/>
+      <c r="D147" s="155"/>
+      <c r="E147" s="156"/>
+      <c r="F147" s="156"/>
+      <c r="G147" s="156"/>
+      <c r="H147" s="156"/>
+      <c r="I147" s="156"/>
+      <c r="J147" s="156"/>
+      <c r="K147" s="156"/>
+      <c r="L147" s="156"/>
+      <c r="M147" s="157"/>
+      <c r="N147" s="158"/>
+      <c r="O147" s="159"/>
+      <c r="P147" s="159"/>
+      <c r="Q147" s="159"/>
+      <c r="R147" s="159"/>
+      <c r="S147" s="159"/>
+      <c r="T147" s="159"/>
+      <c r="U147" s="159"/>
+      <c r="V147" s="159"/>
+      <c r="W147" s="160"/>
+      <c r="X147" s="158"/>
+      <c r="Y147" s="161"/>
+      <c r="Z147" s="161"/>
+      <c r="AA147" s="161"/>
+      <c r="AB147" s="159"/>
+      <c r="AC147" s="159"/>
+      <c r="AD147" s="159"/>
+      <c r="AE147" s="159"/>
+      <c r="AF147" s="161"/>
+      <c r="AG147" s="161"/>
+      <c r="AH147" s="159"/>
+      <c r="AI147" s="159"/>
+      <c r="AJ147" s="159"/>
+      <c r="AK147" s="159"/>
+      <c r="AL147" s="159"/>
+      <c r="AM147" s="159"/>
+      <c r="AN147" s="159"/>
+      <c r="AO147" s="159"/>
+      <c r="AP147" s="159"/>
+      <c r="AQ147" s="159"/>
+      <c r="AR147" s="159"/>
+      <c r="AS147" s="159"/>
+      <c r="AT147" s="159"/>
+      <c r="AU147" s="159"/>
+      <c r="AV147" s="162"/>
       <c r="AW147" s="20"/>
-      <c r="AY147" s="191"/>
-    </row>
-    <row r="148" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AY147" s="164"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
+      <c r="C148" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="D148" s="19"/>
-      <c r="E148" s="180" t="n">
-        <v>3</v>
-      </c>
-      <c r="F148" s="181" t="s">
-        <v>119</v>
-      </c>
-      <c r="G148" s="182"/>
-      <c r="H148" s="182"/>
-      <c r="I148" s="183"/>
-      <c r="J148" s="183"/>
-      <c r="K148" s="183"/>
-      <c r="L148" s="183"/>
-      <c r="M148" s="184"/>
-      <c r="N148" s="185" t="s">
-        <v>115</v>
-      </c>
-      <c r="O148" s="182"/>
-      <c r="P148" s="182"/>
-      <c r="Q148" s="183"/>
-      <c r="R148" s="183"/>
-      <c r="S148" s="183"/>
-      <c r="T148" s="183"/>
-      <c r="U148" s="183"/>
-      <c r="V148" s="186"/>
-      <c r="W148" s="186"/>
-      <c r="X148" s="186"/>
-      <c r="Y148" s="186"/>
-      <c r="Z148" s="186"/>
-      <c r="AA148" s="186"/>
-      <c r="AB148" s="186"/>
-      <c r="AC148" s="186"/>
-      <c r="AD148" s="186"/>
-      <c r="AE148" s="186"/>
-      <c r="AF148" s="186"/>
-      <c r="AG148" s="186"/>
-      <c r="AH148" s="186"/>
-      <c r="AI148" s="187"/>
-      <c r="AJ148" s="188" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK148" s="189"/>
-      <c r="AL148" s="189"/>
-      <c r="AM148" s="189"/>
-      <c r="AN148" s="189"/>
-      <c r="AO148" s="189"/>
-      <c r="AP148" s="189"/>
-      <c r="AQ148" s="189"/>
-      <c r="AR148" s="189"/>
-      <c r="AS148" s="189"/>
-      <c r="AT148" s="189"/>
-      <c r="AU148" s="190"/>
-      <c r="AV148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="0"/>
+      <c r="L148" s="0"/>
+      <c r="M148" s="0"/>
+      <c r="N148" s="0"/>
+      <c r="O148" s="0"/>
+      <c r="P148" s="0"/>
+      <c r="Q148" s="0"/>
+      <c r="R148" s="0"/>
+      <c r="S148" s="0"/>
+      <c r="T148" s="0"/>
+      <c r="U148" s="0"/>
+      <c r="V148" s="0"/>
+      <c r="W148" s="0"/>
+      <c r="X148" s="0"/>
+      <c r="Y148" s="0"/>
+      <c r="Z148" s="0"/>
+      <c r="AA148" s="0"/>
+      <c r="AB148" s="0"/>
+      <c r="AC148" s="0"/>
+      <c r="AD148" s="0"/>
+      <c r="AE148" s="0"/>
+      <c r="AF148" s="0"/>
+      <c r="AG148" s="0"/>
+      <c r="AH148" s="0"/>
+      <c r="AI148" s="0"/>
+      <c r="AJ148" s="0"/>
+      <c r="AK148" s="0"/>
+      <c r="AL148" s="0"/>
+      <c r="AM148" s="0"/>
+      <c r="AN148" s="0"/>
+      <c r="AO148" s="0"/>
+      <c r="AP148" s="0"/>
+      <c r="AQ148" s="0"/>
+      <c r="AR148" s="0"/>
+      <c r="AS148" s="0"/>
+      <c r="AT148" s="0"/>
+      <c r="AU148" s="0"/>
+      <c r="AV148" s="0"/>
       <c r="AW148" s="20"/>
-      <c r="AY148" s="205"/>
-      <c r="AZ148" s="205"/>
-      <c r="BA148" s="205"/>
-      <c r="BB148" s="205"/>
-      <c r="BC148" s="205"/>
-      <c r="BD148" s="205"/>
-      <c r="BE148" s="205"/>
-      <c r="BF148" s="205"/>
-      <c r="BG148" s="205"/>
-      <c r="BH148" s="205"/>
-      <c r="BI148" s="205"/>
-      <c r="BJ148" s="205"/>
+      <c r="AY148" s="165"/>
+      <c r="AZ148" s="165"/>
+      <c r="BA148" s="165"/>
+      <c r="BB148" s="165"/>
+      <c r="BC148" s="165"/>
+      <c r="BD148" s="165"/>
+      <c r="BE148" s="165"/>
+      <c r="BF148" s="165"/>
+      <c r="BG148" s="165"/>
+      <c r="BH148" s="165"/>
+      <c r="BI148" s="165"/>
+      <c r="BJ148" s="165"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="180" t="n">
-        <v>4</v>
-      </c>
-      <c r="F149" s="181" t="s">
-        <v>121</v>
-      </c>
-      <c r="G149" s="182"/>
-      <c r="H149" s="182"/>
-      <c r="I149" s="183"/>
-      <c r="J149" s="183"/>
-      <c r="K149" s="183"/>
-      <c r="L149" s="183"/>
-      <c r="M149" s="184"/>
-      <c r="N149" s="185" t="s">
-        <v>122</v>
-      </c>
-      <c r="O149" s="182"/>
-      <c r="P149" s="182"/>
-      <c r="Q149" s="183"/>
-      <c r="R149" s="183"/>
-      <c r="S149" s="183"/>
-      <c r="T149" s="183"/>
-      <c r="U149" s="183"/>
-      <c r="V149" s="186"/>
-      <c r="W149" s="186"/>
-      <c r="X149" s="186"/>
-      <c r="Y149" s="186"/>
-      <c r="Z149" s="186"/>
-      <c r="AA149" s="186"/>
-      <c r="AB149" s="186"/>
-      <c r="AC149" s="186"/>
-      <c r="AD149" s="186"/>
-      <c r="AE149" s="186"/>
-      <c r="AF149" s="186"/>
-      <c r="AG149" s="186"/>
-      <c r="AH149" s="186"/>
-      <c r="AI149" s="187"/>
-      <c r="AJ149" s="188" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK149" s="189"/>
-      <c r="AL149" s="189"/>
-      <c r="AM149" s="189"/>
-      <c r="AN149" s="189"/>
-      <c r="AO149" s="189"/>
-      <c r="AP149" s="189"/>
-      <c r="AQ149" s="189"/>
-      <c r="AR149" s="189"/>
-      <c r="AS149" s="189"/>
-      <c r="AT149" s="189"/>
-      <c r="AU149" s="190"/>
+      <c r="D149" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E149" s="139"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="19"/>
+      <c r="V149" s="19"/>
+      <c r="W149" s="19"/>
+      <c r="X149" s="19"/>
+      <c r="Y149" s="19"/>
+      <c r="Z149" s="19"/>
+      <c r="AA149" s="19"/>
+      <c r="AB149" s="19"/>
+      <c r="AC149" s="19"/>
+      <c r="AD149" s="19"/>
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="19"/>
+      <c r="AG149" s="19"/>
+      <c r="AH149" s="19"/>
+      <c r="AI149" s="19"/>
+      <c r="AJ149" s="19"/>
+      <c r="AK149" s="19"/>
+      <c r="AL149" s="19"/>
+      <c r="AM149" s="19"/>
+      <c r="AN149" s="19"/>
+      <c r="AO149" s="19"/>
+      <c r="AP149" s="19"/>
+      <c r="AQ149" s="19"/>
+      <c r="AR149" s="19"/>
+      <c r="AS149" s="19"/>
+      <c r="AT149" s="19"/>
+      <c r="AU149" s="19"/>
       <c r="AV149" s="19"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="143"/>
+      <c r="D150" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E150" s="139"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
@@ -16371,961 +16851,1075 @@
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
       <c r="D151" s="19"/>
-      <c r="E151" s="206"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
-      <c r="K151" s="24"/>
-      <c r="L151" s="24"/>
-      <c r="M151" s="24"/>
-      <c r="N151" s="24"/>
-      <c r="O151" s="24"/>
-      <c r="P151" s="24"/>
-      <c r="Q151" s="24"/>
-      <c r="R151" s="24"/>
-      <c r="S151" s="24"/>
-      <c r="T151" s="24"/>
-      <c r="U151" s="24"/>
-      <c r="V151" s="24"/>
-      <c r="W151" s="24"/>
-      <c r="X151" s="24"/>
-      <c r="Y151" s="24"/>
-      <c r="Z151" s="24"/>
-      <c r="AA151" s="24"/>
-      <c r="AB151" s="24"/>
-      <c r="AC151" s="24"/>
-      <c r="AD151" s="24"/>
-      <c r="AF151" s="24"/>
-      <c r="AG151" s="24"/>
-      <c r="AH151" s="24"/>
-      <c r="AI151" s="24"/>
-      <c r="AJ151" s="24"/>
-      <c r="AK151" s="24"/>
-      <c r="AL151" s="24"/>
-      <c r="AM151" s="24"/>
-      <c r="AN151" s="24"/>
-      <c r="AO151" s="24"/>
-      <c r="AP151" s="24"/>
-      <c r="AQ151" s="24"/>
-      <c r="AR151" s="24"/>
-      <c r="AS151" s="24"/>
-      <c r="AT151" s="24"/>
-      <c r="AU151" s="24"/>
+      <c r="E151" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
+      <c r="V151" s="19"/>
+      <c r="W151" s="19"/>
+      <c r="X151" s="19"/>
+      <c r="Y151" s="19"/>
+      <c r="Z151" s="19"/>
+      <c r="AA151" s="19"/>
+      <c r="AB151" s="19"/>
+      <c r="AC151" s="19"/>
+      <c r="AD151" s="19"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="19"/>
+      <c r="AG151" s="19"/>
+      <c r="AH151" s="19"/>
+      <c r="AI151" s="19"/>
+      <c r="AJ151" s="19"/>
+      <c r="AK151" s="19"/>
+      <c r="AL151" s="19"/>
+      <c r="AM151" s="19"/>
+      <c r="AN151" s="19"/>
+      <c r="AO151" s="19"/>
+      <c r="AP151" s="19"/>
+      <c r="AQ151" s="19"/>
+      <c r="AR151" s="19"/>
+      <c r="AS151" s="19"/>
+      <c r="AT151" s="19"/>
+      <c r="AU151" s="19"/>
       <c r="AV151" s="19"/>
       <c r="AW151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
-      <c r="D152" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E152" s="207"/>
-      <c r="F152" s="208"/>
-      <c r="G152" s="208"/>
-      <c r="H152" s="208"/>
-      <c r="I152" s="208"/>
-      <c r="J152" s="208"/>
-      <c r="K152" s="208"/>
-      <c r="L152" s="208"/>
-      <c r="M152" s="208"/>
-      <c r="N152" s="208"/>
-      <c r="O152" s="208"/>
-      <c r="P152" s="208"/>
-      <c r="Q152" s="208"/>
-      <c r="R152" s="208"/>
-      <c r="S152" s="208"/>
-      <c r="T152" s="208"/>
-      <c r="U152" s="208"/>
-      <c r="V152" s="208"/>
-      <c r="W152" s="208"/>
-      <c r="X152" s="208"/>
-      <c r="Y152" s="208"/>
-      <c r="Z152" s="208"/>
-      <c r="AA152" s="208"/>
-      <c r="AB152" s="208"/>
-      <c r="AC152" s="208"/>
-      <c r="AD152" s="208"/>
-      <c r="AE152" s="208"/>
-      <c r="AF152" s="208"/>
-      <c r="AG152" s="208"/>
-      <c r="AH152" s="208"/>
-      <c r="AI152" s="208"/>
-      <c r="AJ152" s="208"/>
-      <c r="AK152" s="208"/>
-      <c r="AL152" s="208"/>
-      <c r="AM152" s="208"/>
-      <c r="AN152" s="208"/>
-      <c r="AO152" s="208"/>
-      <c r="AP152" s="208"/>
-      <c r="AQ152" s="208"/>
-      <c r="AR152" s="208"/>
-      <c r="AS152" s="208"/>
-      <c r="AT152" s="208"/>
-      <c r="AU152" s="208"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="167" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="G152" s="168"/>
+      <c r="H152" s="168"/>
+      <c r="I152" s="168"/>
+      <c r="J152" s="168"/>
+      <c r="K152" s="168"/>
+      <c r="L152" s="168"/>
+      <c r="M152" s="168"/>
+      <c r="N152" s="168" t="s">
+        <v>108</v>
+      </c>
+      <c r="O152" s="168"/>
+      <c r="P152" s="168"/>
+      <c r="Q152" s="168"/>
+      <c r="R152" s="168"/>
+      <c r="S152" s="168"/>
+      <c r="T152" s="168"/>
+      <c r="U152" s="168"/>
+      <c r="V152" s="168"/>
+      <c r="W152" s="168"/>
+      <c r="X152" s="168"/>
+      <c r="Y152" s="168"/>
+      <c r="Z152" s="168"/>
+      <c r="AA152" s="168"/>
+      <c r="AB152" s="168"/>
+      <c r="AC152" s="168"/>
+      <c r="AD152" s="168"/>
+      <c r="AE152" s="168"/>
+      <c r="AF152" s="168"/>
+      <c r="AG152" s="168"/>
+      <c r="AH152" s="168"/>
+      <c r="AI152" s="168"/>
+      <c r="AJ152" s="168" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK152" s="168"/>
+      <c r="AL152" s="168"/>
+      <c r="AM152" s="168"/>
+      <c r="AN152" s="168"/>
+      <c r="AO152" s="168"/>
+      <c r="AP152" s="168"/>
+      <c r="AQ152" s="168"/>
+      <c r="AR152" s="168"/>
+      <c r="AS152" s="168"/>
+      <c r="AT152" s="168"/>
+      <c r="AU152" s="168"/>
       <c r="AV152" s="19"/>
       <c r="AW152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="D153" s="19"/>
-      <c r="E153" s="209" t="s">
-        <v>125</v>
-      </c>
-      <c r="F153" s="209"/>
-      <c r="G153" s="209"/>
-      <c r="H153" s="209"/>
-      <c r="I153" s="209"/>
-      <c r="J153" s="209"/>
-      <c r="K153" s="209"/>
-      <c r="L153" s="210" t="s">
-        <v>126</v>
-      </c>
-      <c r="M153" s="210"/>
-      <c r="N153" s="210"/>
-      <c r="O153" s="210"/>
-      <c r="P153" s="210"/>
-      <c r="Q153" s="210"/>
-      <c r="R153" s="210"/>
-      <c r="S153" s="210"/>
-      <c r="T153" s="210"/>
-      <c r="U153" s="210"/>
-      <c r="V153" s="210"/>
-      <c r="W153" s="210"/>
-      <c r="X153" s="210"/>
-      <c r="Y153" s="210"/>
-      <c r="Z153" s="210"/>
-      <c r="AA153" s="210"/>
-      <c r="AB153" s="210"/>
-      <c r="AC153" s="210"/>
-      <c r="AD153" s="210"/>
-      <c r="AE153" s="210"/>
-      <c r="AF153" s="210"/>
-      <c r="AG153" s="210"/>
-      <c r="AH153" s="210"/>
-      <c r="AI153" s="210"/>
-      <c r="AJ153" s="210"/>
-      <c r="AK153" s="210"/>
-      <c r="AL153" s="210"/>
-      <c r="AM153" s="210"/>
-      <c r="AN153" s="210"/>
-      <c r="AO153" s="210"/>
-      <c r="AP153" s="210"/>
-      <c r="AQ153" s="210"/>
-      <c r="AR153" s="210"/>
-      <c r="AS153" s="210"/>
-      <c r="AT153" s="210"/>
-      <c r="AU153" s="210"/>
+      <c r="E153" s="169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="G153" s="171"/>
+      <c r="H153" s="171"/>
+      <c r="I153" s="172"/>
+      <c r="J153" s="172"/>
+      <c r="K153" s="172"/>
+      <c r="L153" s="172"/>
+      <c r="M153" s="173"/>
+      <c r="N153" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="O153" s="171"/>
+      <c r="P153" s="171"/>
+      <c r="Q153" s="172"/>
+      <c r="R153" s="172"/>
+      <c r="S153" s="172"/>
+      <c r="T153" s="172"/>
+      <c r="U153" s="172"/>
+      <c r="V153" s="175"/>
+      <c r="W153" s="175"/>
+      <c r="X153" s="175"/>
+      <c r="Y153" s="175"/>
+      <c r="Z153" s="175"/>
+      <c r="AA153" s="175"/>
+      <c r="AB153" s="175"/>
+      <c r="AC153" s="175"/>
+      <c r="AD153" s="175"/>
+      <c r="AE153" s="175"/>
+      <c r="AF153" s="175"/>
+      <c r="AG153" s="175"/>
+      <c r="AH153" s="175"/>
+      <c r="AI153" s="176"/>
+      <c r="AJ153" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK153" s="178"/>
+      <c r="AL153" s="178"/>
+      <c r="AM153" s="178"/>
+      <c r="AN153" s="178"/>
+      <c r="AO153" s="178"/>
+      <c r="AP153" s="178"/>
+      <c r="AQ153" s="178"/>
+      <c r="AR153" s="178"/>
+      <c r="AS153" s="178"/>
+      <c r="AT153" s="178"/>
+      <c r="AU153" s="179"/>
       <c r="AV153" s="19"/>
       <c r="AW153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="D154" s="19"/>
-      <c r="E154" s="209" t="s">
-        <v>60</v>
-      </c>
-      <c r="F154" s="209"/>
-      <c r="G154" s="209"/>
-      <c r="H154" s="209"/>
-      <c r="I154" s="209"/>
-      <c r="J154" s="209"/>
-      <c r="K154" s="209"/>
-      <c r="L154" s="211"/>
-      <c r="M154" s="183"/>
-      <c r="N154" s="183" t="s">
-        <v>127</v>
-      </c>
-      <c r="O154" s="183"/>
-      <c r="P154" s="183"/>
-      <c r="Q154" s="186"/>
-      <c r="R154" s="186"/>
-      <c r="S154" s="186"/>
-      <c r="T154" s="186"/>
-      <c r="U154" s="186"/>
-      <c r="V154" s="186"/>
-      <c r="W154" s="186"/>
-      <c r="X154" s="186"/>
-      <c r="Y154" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z154" s="186" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA154" s="186"/>
-      <c r="AB154" s="186"/>
-      <c r="AC154" s="186"/>
-      <c r="AD154" s="186"/>
-      <c r="AE154" s="186"/>
-      <c r="AF154" s="186"/>
-      <c r="AG154" s="186"/>
-      <c r="AH154" s="186"/>
-      <c r="AI154" s="186"/>
-      <c r="AJ154" s="186"/>
-      <c r="AK154" s="186"/>
-      <c r="AL154" s="186"/>
-      <c r="AM154" s="186"/>
-      <c r="AN154" s="186"/>
-      <c r="AO154" s="186"/>
-      <c r="AP154" s="186"/>
-      <c r="AQ154" s="186"/>
-      <c r="AR154" s="186"/>
-      <c r="AS154" s="186"/>
-      <c r="AT154" s="186"/>
-      <c r="AU154" s="187"/>
+      <c r="E154" s="180" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="G154" s="182"/>
+      <c r="H154" s="182"/>
+      <c r="I154" s="183"/>
+      <c r="J154" s="183"/>
+      <c r="K154" s="183"/>
+      <c r="L154" s="183"/>
+      <c r="M154" s="184"/>
+      <c r="N154" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="O154" s="186"/>
+      <c r="P154" s="186"/>
+      <c r="Q154" s="187"/>
+      <c r="R154" s="187"/>
+      <c r="S154" s="187"/>
+      <c r="T154" s="187"/>
+      <c r="U154" s="187"/>
+      <c r="V154" s="188"/>
+      <c r="W154" s="188"/>
+      <c r="X154" s="188"/>
+      <c r="Y154" s="188"/>
+      <c r="Z154" s="188"/>
+      <c r="AA154" s="188"/>
+      <c r="AB154" s="188"/>
+      <c r="AC154" s="188"/>
+      <c r="AD154" s="188"/>
+      <c r="AE154" s="188"/>
+      <c r="AF154" s="188"/>
+      <c r="AG154" s="188"/>
+      <c r="AH154" s="188"/>
+      <c r="AI154" s="189"/>
+      <c r="AJ154" s="190" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK154" s="191"/>
+      <c r="AL154" s="191"/>
+      <c r="AM154" s="191"/>
+      <c r="AN154" s="191"/>
+      <c r="AO154" s="191"/>
+      <c r="AP154" s="191"/>
+      <c r="AQ154" s="191"/>
+      <c r="AR154" s="191"/>
+      <c r="AS154" s="191"/>
+      <c r="AT154" s="191"/>
+      <c r="AU154" s="192"/>
       <c r="AV154" s="19"/>
       <c r="AW154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="D155" s="19"/>
-      <c r="E155" s="209"/>
-      <c r="F155" s="209"/>
-      <c r="G155" s="209"/>
-      <c r="H155" s="209"/>
-      <c r="I155" s="209"/>
-      <c r="J155" s="209"/>
-      <c r="K155" s="209"/>
-      <c r="L155" s="213"/>
-      <c r="M155" s="195"/>
-      <c r="N155" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="O155" s="195"/>
-      <c r="P155" s="195"/>
-      <c r="Q155" s="214"/>
-      <c r="R155" s="214"/>
-      <c r="S155" s="214"/>
-      <c r="T155" s="214"/>
-      <c r="U155" s="214"/>
-      <c r="V155" s="214"/>
-      <c r="W155" s="214"/>
-      <c r="X155" s="214"/>
-      <c r="Y155" s="215" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z155" s="214" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA155" s="214"/>
-      <c r="AB155" s="214"/>
-      <c r="AC155" s="214"/>
-      <c r="AD155" s="214"/>
-      <c r="AE155" s="214"/>
-      <c r="AF155" s="214"/>
-      <c r="AG155" s="214"/>
-      <c r="AH155" s="214"/>
-      <c r="AI155" s="214"/>
-      <c r="AJ155" s="214"/>
-      <c r="AK155" s="214"/>
-      <c r="AL155" s="214"/>
-      <c r="AM155" s="214"/>
-      <c r="AN155" s="214"/>
-      <c r="AO155" s="214"/>
-      <c r="AP155" s="214"/>
-      <c r="AQ155" s="214"/>
-      <c r="AR155" s="214"/>
-      <c r="AS155" s="214"/>
-      <c r="AT155" s="214"/>
-      <c r="AU155" s="216"/>
+      <c r="E155" s="169" t="n">
+        <v>3</v>
+      </c>
+      <c r="F155" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="G155" s="171"/>
+      <c r="H155" s="171"/>
+      <c r="I155" s="172"/>
+      <c r="J155" s="172"/>
+      <c r="K155" s="172"/>
+      <c r="L155" s="172"/>
+      <c r="M155" s="173"/>
+      <c r="N155" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="O155" s="171"/>
+      <c r="P155" s="171"/>
+      <c r="Q155" s="172"/>
+      <c r="R155" s="172"/>
+      <c r="S155" s="172"/>
+      <c r="T155" s="172"/>
+      <c r="U155" s="172"/>
+      <c r="V155" s="175"/>
+      <c r="W155" s="175"/>
+      <c r="X155" s="175"/>
+      <c r="Y155" s="175"/>
+      <c r="Z155" s="175"/>
+      <c r="AA155" s="175"/>
+      <c r="AB155" s="175"/>
+      <c r="AC155" s="175"/>
+      <c r="AD155" s="175"/>
+      <c r="AE155" s="175"/>
+      <c r="AF155" s="175"/>
+      <c r="AG155" s="175"/>
+      <c r="AH155" s="175"/>
+      <c r="AI155" s="176"/>
+      <c r="AJ155" s="177" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK155" s="178"/>
+      <c r="AL155" s="178"/>
+      <c r="AM155" s="178"/>
+      <c r="AN155" s="178"/>
+      <c r="AO155" s="178"/>
+      <c r="AP155" s="178"/>
+      <c r="AQ155" s="178"/>
+      <c r="AR155" s="178"/>
+      <c r="AS155" s="178"/>
+      <c r="AT155" s="178"/>
+      <c r="AU155" s="179"/>
       <c r="AV155" s="19"/>
       <c r="AW155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="209"/>
-      <c r="F156" s="209"/>
-      <c r="G156" s="209"/>
-      <c r="H156" s="209"/>
-      <c r="I156" s="209"/>
-      <c r="J156" s="209"/>
-      <c r="K156" s="209"/>
-      <c r="L156" s="211"/>
-      <c r="M156" s="183"/>
-      <c r="N156" s="183" t="s">
-        <v>131</v>
-      </c>
-      <c r="O156" s="183"/>
-      <c r="P156" s="183"/>
-      <c r="Q156" s="186"/>
-      <c r="R156" s="186"/>
-      <c r="S156" s="186"/>
-      <c r="T156" s="186"/>
-      <c r="U156" s="186"/>
-      <c r="V156" s="186"/>
-      <c r="W156" s="186"/>
-      <c r="X156" s="186"/>
-      <c r="Y156" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z156" s="186" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA156" s="186"/>
-      <c r="AB156" s="186"/>
-      <c r="AC156" s="186"/>
-      <c r="AD156" s="186"/>
-      <c r="AE156" s="186"/>
-      <c r="AF156" s="186"/>
-      <c r="AG156" s="186"/>
-      <c r="AH156" s="186"/>
-      <c r="AI156" s="186"/>
-      <c r="AJ156" s="186"/>
-      <c r="AK156" s="186"/>
-      <c r="AL156" s="186"/>
-      <c r="AM156" s="186"/>
-      <c r="AN156" s="186"/>
-      <c r="AO156" s="186"/>
-      <c r="AP156" s="186"/>
-      <c r="AQ156" s="186"/>
-      <c r="AR156" s="186"/>
-      <c r="AS156" s="186"/>
-      <c r="AT156" s="186"/>
-      <c r="AU156" s="187"/>
+      <c r="E156" s="169" t="n">
+        <v>4</v>
+      </c>
+      <c r="F156" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="G156" s="171"/>
+      <c r="H156" s="171"/>
+      <c r="I156" s="172"/>
+      <c r="J156" s="172"/>
+      <c r="K156" s="172"/>
+      <c r="L156" s="172"/>
+      <c r="M156" s="173"/>
+      <c r="N156" s="174" t="s">
+        <v>118</v>
+      </c>
+      <c r="O156" s="171"/>
+      <c r="P156" s="171"/>
+      <c r="Q156" s="172"/>
+      <c r="R156" s="172"/>
+      <c r="S156" s="172"/>
+      <c r="T156" s="172"/>
+      <c r="U156" s="172"/>
+      <c r="V156" s="175"/>
+      <c r="W156" s="175"/>
+      <c r="X156" s="175"/>
+      <c r="Y156" s="175"/>
+      <c r="Z156" s="175"/>
+      <c r="AA156" s="175"/>
+      <c r="AB156" s="175"/>
+      <c r="AC156" s="175"/>
+      <c r="AD156" s="175"/>
+      <c r="AE156" s="175"/>
+      <c r="AF156" s="175"/>
+      <c r="AG156" s="175"/>
+      <c r="AH156" s="175"/>
+      <c r="AI156" s="176"/>
+      <c r="AJ156" s="177" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK156" s="178"/>
+      <c r="AL156" s="178"/>
+      <c r="AM156" s="178"/>
+      <c r="AN156" s="178"/>
+      <c r="AO156" s="178"/>
+      <c r="AP156" s="178"/>
+      <c r="AQ156" s="178"/>
+      <c r="AR156" s="178"/>
+      <c r="AS156" s="178"/>
+      <c r="AT156" s="178"/>
+      <c r="AU156" s="179"/>
       <c r="AV156" s="19"/>
       <c r="AW156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
-      <c r="D157" s="177"/>
-      <c r="E157" s="209"/>
-      <c r="F157" s="209"/>
-      <c r="G157" s="209"/>
-      <c r="H157" s="209"/>
-      <c r="I157" s="209"/>
-      <c r="J157" s="209"/>
-      <c r="K157" s="209" t="s">
-        <v>131</v>
-      </c>
-      <c r="L157" s="183"/>
-      <c r="M157" s="183"/>
-      <c r="N157" s="183" t="s">
-        <v>132</v>
-      </c>
-      <c r="O157" s="183"/>
-      <c r="P157" s="183"/>
-      <c r="Q157" s="186"/>
-      <c r="R157" s="186"/>
-      <c r="S157" s="186"/>
-      <c r="T157" s="186"/>
-      <c r="U157" s="186"/>
-      <c r="V157" s="186"/>
-      <c r="W157" s="186"/>
-      <c r="X157" s="186"/>
-      <c r="Y157" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z157" s="186" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA157" s="186"/>
-      <c r="AB157" s="186"/>
-      <c r="AC157" s="186"/>
-      <c r="AD157" s="186"/>
-      <c r="AE157" s="186"/>
-      <c r="AF157" s="186"/>
-      <c r="AG157" s="186"/>
-      <c r="AH157" s="186"/>
-      <c r="AI157" s="186"/>
-      <c r="AJ157" s="186"/>
-      <c r="AK157" s="186"/>
-      <c r="AL157" s="186"/>
-      <c r="AM157" s="186"/>
-      <c r="AN157" s="186"/>
-      <c r="AO157" s="186"/>
-      <c r="AP157" s="186"/>
-      <c r="AQ157" s="186"/>
-      <c r="AR157" s="186"/>
-      <c r="AS157" s="186"/>
-      <c r="AT157" s="186"/>
-      <c r="AU157" s="187"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="139"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
+      <c r="S157" s="19"/>
+      <c r="T157" s="19"/>
+      <c r="U157" s="19"/>
+      <c r="V157" s="19"/>
+      <c r="W157" s="19"/>
+      <c r="X157" s="19"/>
+      <c r="Y157" s="19"/>
+      <c r="Z157" s="19"/>
+      <c r="AA157" s="19"/>
+      <c r="AB157" s="19"/>
+      <c r="AC157" s="19"/>
+      <c r="AD157" s="19"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="19"/>
+      <c r="AG157" s="19"/>
+      <c r="AH157" s="19"/>
+      <c r="AI157" s="19"/>
+      <c r="AJ157" s="19"/>
+      <c r="AK157" s="19"/>
+      <c r="AL157" s="19"/>
+      <c r="AM157" s="19"/>
+      <c r="AN157" s="19"/>
+      <c r="AO157" s="19"/>
+      <c r="AP157" s="19"/>
+      <c r="AQ157" s="19"/>
+      <c r="AR157" s="19"/>
+      <c r="AS157" s="19"/>
+      <c r="AT157" s="19"/>
+      <c r="AU157" s="19"/>
       <c r="AV157" s="19"/>
       <c r="AW157" s="20"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
-      <c r="D158" s="177"/>
-      <c r="E158" s="177"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="24"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="24"/>
-      <c r="M158" s="24"/>
-      <c r="N158" s="24"/>
-      <c r="O158" s="24"/>
-      <c r="P158" s="24"/>
-      <c r="Q158" s="24"/>
-      <c r="R158" s="24"/>
-      <c r="S158" s="24"/>
-      <c r="T158" s="24"/>
-      <c r="U158" s="24"/>
-      <c r="V158" s="24"/>
-      <c r="W158" s="24"/>
-      <c r="X158" s="24"/>
-      <c r="Y158" s="24"/>
-      <c r="Z158" s="24"/>
-      <c r="AA158" s="24"/>
-      <c r="AB158" s="24"/>
-      <c r="AC158" s="24"/>
-      <c r="AD158" s="24"/>
-      <c r="AF158" s="24"/>
-      <c r="AG158" s="24"/>
-      <c r="AH158" s="24"/>
-      <c r="AI158" s="24"/>
-      <c r="AJ158" s="24"/>
-      <c r="AK158" s="24"/>
-      <c r="AL158" s="24"/>
-      <c r="AM158" s="24"/>
-      <c r="AN158" s="24"/>
-      <c r="AO158" s="24"/>
-      <c r="AP158" s="24"/>
-      <c r="AQ158" s="24"/>
-      <c r="AR158" s="24"/>
-      <c r="AS158" s="24"/>
-      <c r="AT158" s="24"/>
+      <c r="D158" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E158" s="193"/>
+      <c r="F158" s="194"/>
+      <c r="G158" s="194"/>
+      <c r="H158" s="194"/>
+      <c r="I158" s="194"/>
+      <c r="J158" s="194"/>
+      <c r="K158" s="194"/>
+      <c r="L158" s="194"/>
+      <c r="M158" s="194"/>
+      <c r="N158" s="194"/>
+      <c r="O158" s="194"/>
+      <c r="P158" s="194"/>
+      <c r="Q158" s="194"/>
+      <c r="R158" s="194"/>
+      <c r="S158" s="194"/>
+      <c r="T158" s="194"/>
+      <c r="U158" s="194"/>
+      <c r="V158" s="194"/>
+      <c r="W158" s="194"/>
+      <c r="X158" s="194"/>
+      <c r="Y158" s="194"/>
+      <c r="Z158" s="194"/>
+      <c r="AA158" s="194"/>
+      <c r="AB158" s="194"/>
+      <c r="AC158" s="194"/>
+      <c r="AD158" s="194"/>
+      <c r="AE158" s="194"/>
+      <c r="AF158" s="194"/>
+      <c r="AG158" s="194"/>
+      <c r="AH158" s="194"/>
+      <c r="AI158" s="194"/>
+      <c r="AJ158" s="194"/>
+      <c r="AK158" s="194"/>
+      <c r="AL158" s="194"/>
+      <c r="AM158" s="194"/>
+      <c r="AN158" s="194"/>
+      <c r="AO158" s="194"/>
+      <c r="AP158" s="194"/>
+      <c r="AQ158" s="194"/>
+      <c r="AR158" s="194"/>
+      <c r="AS158" s="194"/>
+      <c r="AT158" s="194"/>
       <c r="AU158" s="24"/>
       <c r="AV158" s="19"/>
       <c r="AW158" s="20"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
-      <c r="D159" s="177"/>
-      <c r="E159" s="206"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="24"/>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="24"/>
-      <c r="P159" s="24"/>
-      <c r="Q159" s="24"/>
-      <c r="R159" s="24"/>
-      <c r="S159" s="24"/>
-      <c r="T159" s="24"/>
-      <c r="U159" s="24"/>
-      <c r="V159" s="24"/>
-      <c r="W159" s="24"/>
-      <c r="X159" s="24"/>
-      <c r="Y159" s="24"/>
-      <c r="Z159" s="24"/>
-      <c r="AA159" s="24"/>
-      <c r="AB159" s="24"/>
-      <c r="AC159" s="24"/>
-      <c r="AD159" s="24"/>
-      <c r="AF159" s="24"/>
-      <c r="AG159" s="24"/>
-      <c r="AH159" s="24"/>
-      <c r="AI159" s="24"/>
-      <c r="AJ159" s="24"/>
-      <c r="AK159" s="24"/>
-      <c r="AL159" s="24"/>
-      <c r="AM159" s="24"/>
-      <c r="AN159" s="24"/>
-      <c r="AO159" s="24"/>
-      <c r="AP159" s="24"/>
-      <c r="AQ159" s="24"/>
-      <c r="AR159" s="24"/>
-      <c r="AS159" s="24"/>
-      <c r="AT159" s="24"/>
-      <c r="AU159" s="24"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="195" t="s">
+        <v>121</v>
+      </c>
+      <c r="F159" s="195"/>
+      <c r="G159" s="195"/>
+      <c r="H159" s="195"/>
+      <c r="I159" s="195"/>
+      <c r="J159" s="195"/>
+      <c r="K159" s="195"/>
+      <c r="L159" s="196" t="s">
+        <v>122</v>
+      </c>
+      <c r="M159" s="196"/>
+      <c r="N159" s="196"/>
+      <c r="O159" s="196"/>
+      <c r="P159" s="196"/>
+      <c r="Q159" s="196"/>
+      <c r="R159" s="196"/>
+      <c r="S159" s="196"/>
+      <c r="T159" s="196"/>
+      <c r="U159" s="196"/>
+      <c r="V159" s="196"/>
+      <c r="W159" s="196"/>
+      <c r="X159" s="196"/>
+      <c r="Y159" s="196"/>
+      <c r="Z159" s="196"/>
+      <c r="AA159" s="196"/>
+      <c r="AB159" s="196"/>
+      <c r="AC159" s="196"/>
+      <c r="AD159" s="196"/>
+      <c r="AE159" s="196"/>
+      <c r="AF159" s="196"/>
+      <c r="AG159" s="196"/>
+      <c r="AH159" s="196"/>
+      <c r="AI159" s="196"/>
+      <c r="AJ159" s="196"/>
+      <c r="AK159" s="196"/>
+      <c r="AL159" s="196"/>
+      <c r="AM159" s="196"/>
+      <c r="AN159" s="196"/>
+      <c r="AO159" s="196"/>
+      <c r="AP159" s="196"/>
+      <c r="AQ159" s="196"/>
+      <c r="AR159" s="196"/>
+      <c r="AS159" s="196"/>
+      <c r="AT159" s="196"/>
+      <c r="AU159" s="196"/>
       <c r="AV159" s="19"/>
       <c r="AW159" s="20"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
-      <c r="D160" s="177"/>
-      <c r="E160" s="217" t="s">
-        <v>133</v>
-      </c>
-      <c r="F160" s="218"/>
-      <c r="G160" s="218"/>
-      <c r="H160" s="219"/>
-      <c r="I160" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="J160" s="209"/>
-      <c r="K160" s="209"/>
-      <c r="L160" s="209"/>
-      <c r="M160" s="209"/>
-      <c r="N160" s="209"/>
-      <c r="O160" s="209"/>
-      <c r="P160" s="209"/>
-      <c r="Q160" s="209"/>
-      <c r="R160" s="209"/>
-      <c r="S160" s="209"/>
-      <c r="T160" s="209"/>
-      <c r="U160" s="209"/>
-      <c r="V160" s="209"/>
-      <c r="W160" s="209"/>
-      <c r="X160" s="209"/>
-      <c r="Y160" s="209"/>
-      <c r="Z160" s="209"/>
-      <c r="AA160" s="209"/>
-      <c r="AB160" s="209"/>
-      <c r="AC160" s="209"/>
-      <c r="AD160" s="209"/>
-      <c r="AE160" s="209"/>
-      <c r="AF160" s="209"/>
-      <c r="AG160" s="209"/>
-      <c r="AH160" s="209"/>
-      <c r="AI160" s="209"/>
-      <c r="AJ160" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK160" s="209"/>
-      <c r="AL160" s="209"/>
-      <c r="AM160" s="209"/>
-      <c r="AN160" s="209"/>
-      <c r="AO160" s="209"/>
-      <c r="AP160" s="209"/>
-      <c r="AQ160" s="209"/>
-      <c r="AR160" s="209"/>
-      <c r="AS160" s="209"/>
-      <c r="AT160" s="209"/>
-      <c r="AU160" s="24"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="195" t="s">
+        <v>60</v>
+      </c>
+      <c r="F160" s="195"/>
+      <c r="G160" s="195"/>
+      <c r="H160" s="195"/>
+      <c r="I160" s="195"/>
+      <c r="J160" s="195"/>
+      <c r="K160" s="195"/>
+      <c r="L160" s="197"/>
+      <c r="M160" s="172"/>
+      <c r="N160" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="O160" s="172"/>
+      <c r="P160" s="172"/>
+      <c r="Q160" s="175"/>
+      <c r="R160" s="175"/>
+      <c r="S160" s="175"/>
+      <c r="T160" s="175"/>
+      <c r="U160" s="175"/>
+      <c r="V160" s="175"/>
+      <c r="W160" s="175"/>
+      <c r="X160" s="175"/>
+      <c r="Y160" s="198" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z160" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA160" s="175"/>
+      <c r="AB160" s="175"/>
+      <c r="AC160" s="175"/>
+      <c r="AD160" s="175"/>
+      <c r="AE160" s="175"/>
+      <c r="AF160" s="175"/>
+      <c r="AG160" s="175"/>
+      <c r="AH160" s="175"/>
+      <c r="AI160" s="175"/>
+      <c r="AJ160" s="175"/>
+      <c r="AK160" s="175"/>
+      <c r="AL160" s="175"/>
+      <c r="AM160" s="175"/>
+      <c r="AN160" s="175"/>
+      <c r="AO160" s="175"/>
+      <c r="AP160" s="175"/>
+      <c r="AQ160" s="175"/>
+      <c r="AR160" s="175"/>
+      <c r="AS160" s="175"/>
+      <c r="AT160" s="199"/>
+      <c r="AU160" s="200"/>
       <c r="AV160" s="19"/>
       <c r="AW160" s="20"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
-      <c r="D161" s="177"/>
-      <c r="E161" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="F161" s="220"/>
-      <c r="G161" s="220"/>
-      <c r="H161" s="220"/>
-      <c r="I161" s="221" t="s">
-        <v>137</v>
-      </c>
-      <c r="J161" s="222"/>
-      <c r="K161" s="222"/>
-      <c r="L161" s="222"/>
-      <c r="M161" s="222"/>
-      <c r="N161" s="222"/>
-      <c r="O161" s="222"/>
-      <c r="P161" s="222"/>
-      <c r="Q161" s="222"/>
-      <c r="R161" s="222"/>
-      <c r="S161" s="222"/>
-      <c r="T161" s="222"/>
-      <c r="U161" s="222"/>
-      <c r="V161" s="222"/>
-      <c r="W161" s="222"/>
-      <c r="X161" s="222"/>
-      <c r="Y161" s="222"/>
-      <c r="Z161" s="222"/>
-      <c r="AA161" s="222"/>
-      <c r="AB161" s="222"/>
-      <c r="AC161" s="222"/>
-      <c r="AD161" s="222"/>
-      <c r="AE161" s="223"/>
-      <c r="AF161" s="222"/>
-      <c r="AG161" s="222"/>
-      <c r="AH161" s="222"/>
-      <c r="AI161" s="224"/>
-      <c r="AJ161" s="188" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK161" s="222"/>
-      <c r="AL161" s="222"/>
-      <c r="AM161" s="222"/>
-      <c r="AN161" s="222"/>
-      <c r="AO161" s="222"/>
-      <c r="AP161" s="222"/>
-      <c r="AQ161" s="222"/>
-      <c r="AR161" s="222"/>
-      <c r="AS161" s="222"/>
-      <c r="AT161" s="224"/>
-      <c r="AU161" s="24"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="195"/>
+      <c r="F161" s="195"/>
+      <c r="G161" s="195"/>
+      <c r="H161" s="195"/>
+      <c r="I161" s="195"/>
+      <c r="J161" s="195"/>
+      <c r="K161" s="195"/>
+      <c r="L161" s="201"/>
+      <c r="M161" s="183"/>
+      <c r="N161" s="183" t="s">
+        <v>126</v>
+      </c>
+      <c r="O161" s="183"/>
+      <c r="P161" s="183"/>
+      <c r="Q161" s="202"/>
+      <c r="R161" s="202"/>
+      <c r="S161" s="202"/>
+      <c r="T161" s="202"/>
+      <c r="U161" s="202"/>
+      <c r="V161" s="202"/>
+      <c r="W161" s="202"/>
+      <c r="X161" s="202"/>
+      <c r="Y161" s="203" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z161" s="202" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA161" s="202"/>
+      <c r="AB161" s="202"/>
+      <c r="AC161" s="202"/>
+      <c r="AD161" s="202"/>
+      <c r="AE161" s="202"/>
+      <c r="AF161" s="202"/>
+      <c r="AG161" s="202"/>
+      <c r="AH161" s="202"/>
+      <c r="AI161" s="202"/>
+      <c r="AJ161" s="202"/>
+      <c r="AK161" s="202"/>
+      <c r="AL161" s="202"/>
+      <c r="AM161" s="202"/>
+      <c r="AN161" s="202"/>
+      <c r="AO161" s="202"/>
+      <c r="AP161" s="202"/>
+      <c r="AQ161" s="202"/>
+      <c r="AR161" s="202"/>
+      <c r="AS161" s="202"/>
+      <c r="AT161" s="202"/>
+      <c r="AU161" s="176"/>
       <c r="AV161" s="19"/>
       <c r="AW161" s="20"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
-      <c r="D162" s="177"/>
-      <c r="E162" s="225" t="s">
-        <v>139</v>
-      </c>
-      <c r="F162" s="225"/>
-      <c r="G162" s="225"/>
-      <c r="H162" s="225"/>
-      <c r="I162" s="226" t="s">
-        <v>140</v>
-      </c>
-      <c r="J162" s="227"/>
-      <c r="K162" s="227"/>
-      <c r="L162" s="227"/>
-      <c r="M162" s="227"/>
-      <c r="N162" s="227"/>
-      <c r="O162" s="227"/>
-      <c r="P162" s="227"/>
-      <c r="Q162" s="227"/>
-      <c r="R162" s="227"/>
-      <c r="S162" s="227"/>
-      <c r="T162" s="227"/>
-      <c r="U162" s="227"/>
-      <c r="V162" s="227"/>
-      <c r="W162" s="227"/>
-      <c r="X162" s="227"/>
-      <c r="Y162" s="227"/>
-      <c r="Z162" s="227"/>
-      <c r="AA162" s="227"/>
-      <c r="AB162" s="227"/>
-      <c r="AC162" s="227"/>
-      <c r="AD162" s="227"/>
-      <c r="AE162" s="228"/>
-      <c r="AF162" s="227"/>
-      <c r="AG162" s="227"/>
-      <c r="AH162" s="227"/>
-      <c r="AI162" s="229"/>
-      <c r="AJ162" s="230" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK162" s="227"/>
-      <c r="AL162" s="227"/>
-      <c r="AM162" s="227"/>
-      <c r="AN162" s="227"/>
-      <c r="AO162" s="227"/>
-      <c r="AP162" s="227"/>
-      <c r="AQ162" s="227"/>
-      <c r="AR162" s="227"/>
-      <c r="AS162" s="227"/>
-      <c r="AT162" s="229"/>
-      <c r="AU162" s="24"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="195"/>
+      <c r="F162" s="195"/>
+      <c r="G162" s="195"/>
+      <c r="H162" s="195"/>
+      <c r="I162" s="195"/>
+      <c r="J162" s="195"/>
+      <c r="K162" s="195"/>
+      <c r="L162" s="197"/>
+      <c r="M162" s="172"/>
+      <c r="N162" s="172" t="s">
+        <v>127</v>
+      </c>
+      <c r="O162" s="172"/>
+      <c r="P162" s="172"/>
+      <c r="Q162" s="175"/>
+      <c r="R162" s="175"/>
+      <c r="S162" s="175"/>
+      <c r="T162" s="175"/>
+      <c r="U162" s="175"/>
+      <c r="V162" s="175"/>
+      <c r="W162" s="175"/>
+      <c r="X162" s="175"/>
+      <c r="Y162" s="198" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z162" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA162" s="175"/>
+      <c r="AB162" s="175"/>
+      <c r="AC162" s="175"/>
+      <c r="AD162" s="175"/>
+      <c r="AE162" s="175"/>
+      <c r="AF162" s="175"/>
+      <c r="AG162" s="175"/>
+      <c r="AH162" s="175"/>
+      <c r="AI162" s="175"/>
+      <c r="AJ162" s="175"/>
+      <c r="AK162" s="175"/>
+      <c r="AL162" s="175"/>
+      <c r="AM162" s="175"/>
+      <c r="AN162" s="175"/>
+      <c r="AO162" s="175"/>
+      <c r="AP162" s="175"/>
+      <c r="AQ162" s="175"/>
+      <c r="AR162" s="175"/>
+      <c r="AS162" s="175"/>
+      <c r="AT162" s="175"/>
+      <c r="AU162" s="204"/>
       <c r="AV162" s="19"/>
       <c r="AW162" s="20"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="17"/>
-      <c r="D163" s="177"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
-      <c r="M163" s="24"/>
-      <c r="N163" s="24"/>
-      <c r="O163" s="24"/>
-      <c r="P163" s="24"/>
-      <c r="Q163" s="24"/>
-      <c r="R163" s="24"/>
-      <c r="S163" s="24"/>
-      <c r="T163" s="24"/>
-      <c r="U163" s="24"/>
-      <c r="V163" s="24"/>
-      <c r="W163" s="24"/>
-      <c r="X163" s="24"/>
-      <c r="Y163" s="24"/>
-      <c r="Z163" s="24"/>
-      <c r="AA163" s="24"/>
-      <c r="AB163" s="24"/>
-      <c r="AC163" s="24"/>
-      <c r="AD163" s="24"/>
-      <c r="AF163" s="24"/>
-      <c r="AG163" s="24"/>
-      <c r="AH163" s="24"/>
-      <c r="AI163" s="24"/>
-      <c r="AJ163" s="231"/>
-      <c r="AK163" s="24"/>
-      <c r="AL163" s="24"/>
-      <c r="AM163" s="24"/>
-      <c r="AN163" s="24"/>
-      <c r="AO163" s="24"/>
-      <c r="AP163" s="24"/>
-      <c r="AQ163" s="24"/>
-      <c r="AR163" s="24"/>
-      <c r="AS163" s="24"/>
-      <c r="AT163" s="24"/>
-      <c r="AU163" s="24"/>
+      <c r="D163" s="166"/>
+      <c r="E163" s="195"/>
+      <c r="F163" s="195"/>
+      <c r="G163" s="195"/>
+      <c r="H163" s="195"/>
+      <c r="I163" s="195"/>
+      <c r="J163" s="195"/>
+      <c r="K163" s="195" t="s">
+        <v>127</v>
+      </c>
+      <c r="L163" s="197"/>
+      <c r="M163" s="172"/>
+      <c r="N163" s="172"/>
+      <c r="O163" s="172"/>
+      <c r="P163" s="172"/>
+      <c r="Q163" s="175"/>
+      <c r="R163" s="175"/>
+      <c r="S163" s="175"/>
+      <c r="T163" s="175"/>
+      <c r="U163" s="175"/>
+      <c r="V163" s="175"/>
+      <c r="W163" s="175"/>
+      <c r="X163" s="175"/>
+      <c r="Y163" s="198"/>
+      <c r="Z163" s="175"/>
+      <c r="AA163" s="175"/>
+      <c r="AB163" s="175"/>
+      <c r="AC163" s="175"/>
+      <c r="AD163" s="175"/>
+      <c r="AE163" s="175"/>
+      <c r="AF163" s="175"/>
+      <c r="AG163" s="175"/>
+      <c r="AH163" s="175"/>
+      <c r="AI163" s="175"/>
+      <c r="AJ163" s="175"/>
+      <c r="AK163" s="175"/>
+      <c r="AL163" s="175"/>
+      <c r="AM163" s="175"/>
+      <c r="AN163" s="175"/>
+      <c r="AO163" s="175"/>
+      <c r="AP163" s="175"/>
+      <c r="AQ163" s="175"/>
+      <c r="AR163" s="175"/>
+      <c r="AS163" s="175"/>
+      <c r="AT163" s="175"/>
+      <c r="AU163" s="176"/>
       <c r="AV163" s="19"/>
       <c r="AW163" s="20"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="17"/>
-      <c r="E164" s="24"/>
+      <c r="D164" s="166"/>
+      <c r="E164" s="166"/>
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
       <c r="H164" s="24"/>
       <c r="I164" s="24"/>
       <c r="J164" s="24"/>
       <c r="K164" s="24"/>
-      <c r="L164" s="24"/>
-      <c r="M164" s="24"/>
-      <c r="N164" s="24"/>
-      <c r="O164" s="24"/>
-      <c r="P164" s="24"/>
-      <c r="Q164" s="24"/>
-      <c r="R164" s="24"/>
-      <c r="S164" s="24"/>
-      <c r="T164" s="24"/>
-      <c r="U164" s="24"/>
-      <c r="V164" s="24"/>
-      <c r="W164" s="24"/>
-      <c r="X164" s="24"/>
-      <c r="Y164" s="24"/>
-      <c r="Z164" s="24"/>
-      <c r="AA164" s="24"/>
-      <c r="AB164" s="24"/>
-      <c r="AC164" s="24"/>
-      <c r="AD164" s="24"/>
-      <c r="AF164" s="24"/>
-      <c r="AG164" s="24"/>
-      <c r="AH164" s="24"/>
-      <c r="AI164" s="24"/>
-      <c r="AJ164" s="231"/>
-      <c r="AK164" s="24"/>
-      <c r="AL164" s="24"/>
-      <c r="AM164" s="24"/>
-      <c r="AN164" s="24"/>
-      <c r="AO164" s="24"/>
-      <c r="AP164" s="24"/>
-      <c r="AQ164" s="24"/>
-      <c r="AR164" s="24"/>
-      <c r="AS164" s="24"/>
-      <c r="AT164" s="24"/>
-      <c r="AU164" s="24"/>
+      <c r="L164" s="205"/>
+      <c r="M164" s="205"/>
+      <c r="N164" s="205"/>
+      <c r="O164" s="205"/>
+      <c r="P164" s="205"/>
+      <c r="Q164" s="205"/>
+      <c r="R164" s="205"/>
+      <c r="S164" s="205"/>
+      <c r="T164" s="205"/>
+      <c r="U164" s="205"/>
+      <c r="V164" s="205"/>
+      <c r="W164" s="205"/>
+      <c r="X164" s="205"/>
+      <c r="Y164" s="205"/>
+      <c r="Z164" s="205"/>
+      <c r="AA164" s="205"/>
+      <c r="AB164" s="205"/>
+      <c r="AC164" s="205"/>
+      <c r="AD164" s="205"/>
+      <c r="AE164" s="206"/>
+      <c r="AF164" s="205"/>
+      <c r="AG164" s="205"/>
+      <c r="AH164" s="205"/>
+      <c r="AI164" s="205"/>
+      <c r="AJ164" s="205"/>
+      <c r="AK164" s="205"/>
+      <c r="AL164" s="205"/>
+      <c r="AM164" s="205"/>
+      <c r="AN164" s="205"/>
+      <c r="AO164" s="205"/>
+      <c r="AP164" s="205"/>
+      <c r="AQ164" s="205"/>
+      <c r="AR164" s="205"/>
+      <c r="AS164" s="205"/>
+      <c r="AT164" s="205"/>
+      <c r="AU164" s="199"/>
       <c r="AV164" s="19"/>
       <c r="AW164" s="20"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="17"/>
-      <c r="L165" s="24"/>
-      <c r="M165" s="24"/>
-      <c r="N165" s="24"/>
-      <c r="O165" s="24"/>
-      <c r="P165" s="24"/>
-      <c r="Q165" s="24"/>
-      <c r="R165" s="24"/>
-      <c r="S165" s="24"/>
-      <c r="T165" s="24"/>
-      <c r="U165" s="24"/>
-      <c r="V165" s="24"/>
-      <c r="W165" s="24"/>
-      <c r="X165" s="24"/>
-      <c r="Y165" s="24"/>
-      <c r="Z165" s="24"/>
-      <c r="AA165" s="24"/>
-      <c r="AB165" s="24"/>
-      <c r="AC165" s="24"/>
-      <c r="AD165" s="24"/>
-      <c r="AF165" s="24"/>
-      <c r="AG165" s="24"/>
-      <c r="AH165" s="24"/>
-      <c r="AI165" s="24"/>
-      <c r="AJ165" s="231"/>
-      <c r="AK165" s="24"/>
-      <c r="AL165" s="24"/>
-      <c r="AM165" s="24"/>
-      <c r="AN165" s="24"/>
-      <c r="AO165" s="24"/>
-      <c r="AP165" s="24"/>
-      <c r="AQ165" s="24"/>
-      <c r="AR165" s="24"/>
-      <c r="AS165" s="24"/>
-      <c r="AT165" s="24"/>
+      <c r="D165" s="166"/>
+      <c r="E165" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="F165" s="208"/>
+      <c r="G165" s="208"/>
+      <c r="H165" s="209"/>
+      <c r="I165" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="J165" s="195"/>
+      <c r="K165" s="195"/>
+      <c r="L165" s="195"/>
+      <c r="M165" s="195"/>
+      <c r="N165" s="195"/>
+      <c r="O165" s="195"/>
+      <c r="P165" s="195"/>
+      <c r="Q165" s="195"/>
+      <c r="R165" s="195"/>
+      <c r="S165" s="195"/>
+      <c r="T165" s="195"/>
+      <c r="U165" s="195"/>
+      <c r="V165" s="195"/>
+      <c r="W165" s="195"/>
+      <c r="X165" s="195"/>
+      <c r="Y165" s="195"/>
+      <c r="Z165" s="195"/>
+      <c r="AA165" s="195"/>
+      <c r="AB165" s="195"/>
+      <c r="AC165" s="195"/>
+      <c r="AD165" s="195"/>
+      <c r="AE165" s="195"/>
+      <c r="AF165" s="195"/>
+      <c r="AG165" s="195"/>
+      <c r="AH165" s="195"/>
+      <c r="AI165" s="195"/>
+      <c r="AJ165" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK165" s="195"/>
+      <c r="AL165" s="195"/>
+      <c r="AM165" s="195"/>
+      <c r="AN165" s="195"/>
+      <c r="AO165" s="195"/>
+      <c r="AP165" s="195"/>
+      <c r="AQ165" s="195"/>
+      <c r="AR165" s="195"/>
+      <c r="AS165" s="195"/>
+      <c r="AT165" s="195"/>
       <c r="AU165" s="24"/>
       <c r="AV165" s="19"/>
       <c r="AW165" s="20"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="17"/>
-      <c r="L166" s="24"/>
-      <c r="M166" s="24"/>
-      <c r="N166" s="24"/>
-      <c r="O166" s="24"/>
-      <c r="P166" s="24"/>
-      <c r="Q166" s="24"/>
-      <c r="R166" s="24"/>
-      <c r="S166" s="24"/>
-      <c r="T166" s="24"/>
-      <c r="U166" s="24"/>
-      <c r="V166" s="24"/>
-      <c r="W166" s="24"/>
-      <c r="X166" s="24"/>
-      <c r="Y166" s="24"/>
-      <c r="Z166" s="24"/>
-      <c r="AA166" s="24"/>
-      <c r="AB166" s="24"/>
-      <c r="AC166" s="24"/>
-      <c r="AD166" s="24"/>
-      <c r="AF166" s="24"/>
-      <c r="AG166" s="24"/>
-      <c r="AH166" s="24"/>
-      <c r="AI166" s="24"/>
-      <c r="AJ166" s="231"/>
-      <c r="AK166" s="24"/>
-      <c r="AL166" s="24"/>
-      <c r="AM166" s="24"/>
-      <c r="AN166" s="24"/>
-      <c r="AO166" s="24"/>
-      <c r="AP166" s="24"/>
-      <c r="AQ166" s="24"/>
-      <c r="AR166" s="24"/>
-      <c r="AS166" s="24"/>
-      <c r="AT166" s="24"/>
+      <c r="D166" s="166"/>
+      <c r="E166" s="210" t="s">
+        <v>131</v>
+      </c>
+      <c r="F166" s="210"/>
+      <c r="G166" s="210"/>
+      <c r="H166" s="210"/>
+      <c r="I166" s="211" t="s">
+        <v>132</v>
+      </c>
+      <c r="J166" s="212"/>
+      <c r="K166" s="212"/>
+      <c r="L166" s="212"/>
+      <c r="M166" s="212"/>
+      <c r="N166" s="212"/>
+      <c r="O166" s="212"/>
+      <c r="P166" s="212"/>
+      <c r="Q166" s="212"/>
+      <c r="R166" s="212"/>
+      <c r="S166" s="212"/>
+      <c r="T166" s="212"/>
+      <c r="U166" s="212"/>
+      <c r="V166" s="212"/>
+      <c r="W166" s="212"/>
+      <c r="X166" s="212"/>
+      <c r="Y166" s="212"/>
+      <c r="Z166" s="212"/>
+      <c r="AA166" s="212"/>
+      <c r="AB166" s="212"/>
+      <c r="AC166" s="212"/>
+      <c r="AD166" s="212"/>
+      <c r="AE166" s="213"/>
+      <c r="AF166" s="212"/>
+      <c r="AG166" s="212"/>
+      <c r="AH166" s="212"/>
+      <c r="AI166" s="214"/>
+      <c r="AJ166" s="177" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK166" s="212"/>
+      <c r="AL166" s="212"/>
+      <c r="AM166" s="212"/>
+      <c r="AN166" s="212"/>
+      <c r="AO166" s="212"/>
+      <c r="AP166" s="212"/>
+      <c r="AQ166" s="212"/>
+      <c r="AR166" s="212"/>
+      <c r="AS166" s="212"/>
+      <c r="AT166" s="214"/>
       <c r="AU166" s="24"/>
       <c r="AV166" s="19"/>
       <c r="AW166" s="20"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="17"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="24"/>
-      <c r="N167" s="24"/>
-      <c r="O167" s="24"/>
-      <c r="P167" s="24"/>
-      <c r="Q167" s="24"/>
-      <c r="R167" s="24"/>
-      <c r="S167" s="24"/>
-      <c r="T167" s="24"/>
-      <c r="U167" s="24"/>
-      <c r="V167" s="24"/>
-      <c r="W167" s="24"/>
-      <c r="X167" s="24"/>
-      <c r="Y167" s="24"/>
-      <c r="Z167" s="24"/>
-      <c r="AA167" s="24"/>
-      <c r="AB167" s="24"/>
-      <c r="AC167" s="24"/>
-      <c r="AD167" s="24"/>
-      <c r="AF167" s="24"/>
-      <c r="AG167" s="24"/>
-      <c r="AH167" s="24"/>
-      <c r="AI167" s="24"/>
-      <c r="AJ167" s="231"/>
-      <c r="AK167" s="24"/>
-      <c r="AL167" s="24"/>
-      <c r="AM167" s="24"/>
-      <c r="AN167" s="24"/>
-      <c r="AO167" s="24"/>
-      <c r="AP167" s="24"/>
-      <c r="AQ167" s="24"/>
-      <c r="AR167" s="24"/>
-      <c r="AS167" s="24"/>
-      <c r="AT167" s="24"/>
+      <c r="D167" s="166"/>
+      <c r="E167" s="215" t="s">
+        <v>134</v>
+      </c>
+      <c r="F167" s="215"/>
+      <c r="G167" s="215"/>
+      <c r="H167" s="215"/>
+      <c r="I167" s="216" t="s">
+        <v>135</v>
+      </c>
+      <c r="J167" s="217"/>
+      <c r="K167" s="217"/>
+      <c r="L167" s="217"/>
+      <c r="M167" s="217"/>
+      <c r="N167" s="217"/>
+      <c r="O167" s="217"/>
+      <c r="P167" s="217"/>
+      <c r="Q167" s="217"/>
+      <c r="R167" s="217"/>
+      <c r="S167" s="217"/>
+      <c r="T167" s="217"/>
+      <c r="U167" s="217"/>
+      <c r="V167" s="217"/>
+      <c r="W167" s="217"/>
+      <c r="X167" s="217"/>
+      <c r="Y167" s="217"/>
+      <c r="Z167" s="217"/>
+      <c r="AA167" s="217"/>
+      <c r="AB167" s="217"/>
+      <c r="AC167" s="217"/>
+      <c r="AD167" s="217"/>
+      <c r="AE167" s="218"/>
+      <c r="AF167" s="217"/>
+      <c r="AG167" s="217"/>
+      <c r="AH167" s="217"/>
+      <c r="AI167" s="219"/>
+      <c r="AJ167" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK167" s="217"/>
+      <c r="AL167" s="217"/>
+      <c r="AM167" s="217"/>
+      <c r="AN167" s="217"/>
+      <c r="AO167" s="217"/>
+      <c r="AP167" s="217"/>
+      <c r="AQ167" s="217"/>
+      <c r="AR167" s="217"/>
+      <c r="AS167" s="217"/>
+      <c r="AT167" s="219"/>
       <c r="AU167" s="24"/>
       <c r="AV167" s="19"/>
       <c r="AW167" s="20"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
-      <c r="D168" s="177" t="s">
-        <v>107</v>
-      </c>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="24"/>
-      <c r="M168" s="24"/>
-      <c r="N168" s="24"/>
-      <c r="O168" s="24"/>
-      <c r="P168" s="24"/>
-      <c r="Q168" s="24"/>
-      <c r="R168" s="24"/>
-      <c r="S168" s="24"/>
-      <c r="T168" s="24"/>
-      <c r="U168" s="24"/>
-      <c r="V168" s="24"/>
-      <c r="W168" s="24"/>
-      <c r="X168" s="24"/>
-      <c r="Y168" s="24"/>
-      <c r="Z168" s="24"/>
-      <c r="AA168" s="24"/>
-      <c r="AB168" s="24"/>
-      <c r="AC168" s="24"/>
-      <c r="AD168" s="24"/>
-      <c r="AF168" s="24"/>
-      <c r="AG168" s="24"/>
-      <c r="AH168" s="24"/>
-      <c r="AI168" s="24"/>
-      <c r="AJ168" s="231"/>
-      <c r="AK168" s="24"/>
-      <c r="AL168" s="24"/>
-      <c r="AM168" s="24"/>
-      <c r="AN168" s="24"/>
-      <c r="AO168" s="24"/>
-      <c r="AP168" s="24"/>
-      <c r="AQ168" s="24"/>
-      <c r="AR168" s="24"/>
-      <c r="AS168" s="24"/>
-      <c r="AT168" s="24"/>
+      <c r="C168" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
+      <c r="K168" s="0"/>
+      <c r="L168" s="0"/>
+      <c r="M168" s="0"/>
+      <c r="N168" s="0"/>
+      <c r="O168" s="0"/>
+      <c r="P168" s="0"/>
+      <c r="Q168" s="0"/>
+      <c r="R168" s="0"/>
+      <c r="S168" s="0"/>
+      <c r="T168" s="0"/>
+      <c r="U168" s="0"/>
+      <c r="V168" s="0"/>
+      <c r="W168" s="0"/>
+      <c r="X168" s="0"/>
+      <c r="Y168" s="0"/>
+      <c r="Z168" s="0"/>
+      <c r="AA168" s="0"/>
+      <c r="AB168" s="0"/>
+      <c r="AC168" s="0"/>
+      <c r="AD168" s="0"/>
+      <c r="AE168" s="0"/>
+      <c r="AF168" s="0"/>
+      <c r="AG168" s="0"/>
+      <c r="AH168" s="0"/>
+      <c r="AI168" s="0"/>
+      <c r="AJ168" s="0"/>
+      <c r="AK168" s="0"/>
+      <c r="AL168" s="0"/>
+      <c r="AM168" s="0"/>
+      <c r="AN168" s="0"/>
+      <c r="AO168" s="0"/>
+      <c r="AP168" s="0"/>
+      <c r="AQ168" s="0"/>
+      <c r="AR168" s="0"/>
+      <c r="AS168" s="0"/>
+      <c r="AT168" s="0"/>
       <c r="AU168" s="24"/>
       <c r="AV168" s="19"/>
       <c r="AW168" s="20"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="17"/>
-      <c r="D169" s="177"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="24"/>
-      <c r="Q169" s="24"/>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
-      <c r="T169" s="24"/>
-      <c r="U169" s="24"/>
-      <c r="V169" s="24"/>
-      <c r="W169" s="24"/>
-      <c r="X169" s="24"/>
-      <c r="Y169" s="24"/>
-      <c r="Z169" s="24"/>
-      <c r="AA169" s="24"/>
-      <c r="AB169" s="24"/>
-      <c r="AC169" s="24"/>
-      <c r="AD169" s="24"/>
-      <c r="AF169" s="24"/>
-      <c r="AG169" s="24"/>
-      <c r="AH169" s="24"/>
-      <c r="AI169" s="24"/>
-      <c r="AJ169" s="231"/>
-      <c r="AK169" s="24"/>
-      <c r="AL169" s="24"/>
-      <c r="AM169" s="24"/>
-      <c r="AN169" s="24"/>
-      <c r="AO169" s="24"/>
-      <c r="AP169" s="24"/>
-      <c r="AQ169" s="24"/>
-      <c r="AR169" s="24"/>
-      <c r="AS169" s="24"/>
-      <c r="AT169" s="24"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+      <c r="K169" s="0"/>
+      <c r="L169" s="0"/>
+      <c r="M169" s="0"/>
+      <c r="N169" s="0"/>
+      <c r="O169" s="0"/>
+      <c r="P169" s="0"/>
+      <c r="Q169" s="0"/>
+      <c r="R169" s="0"/>
+      <c r="S169" s="0"/>
+      <c r="T169" s="0"/>
+      <c r="U169" s="0"/>
+      <c r="V169" s="0"/>
+      <c r="W169" s="0"/>
+      <c r="X169" s="0"/>
+      <c r="Y169" s="0"/>
+      <c r="Z169" s="0"/>
+      <c r="AA169" s="0"/>
+      <c r="AB169" s="0"/>
+      <c r="AC169" s="0"/>
+      <c r="AD169" s="0"/>
+      <c r="AE169" s="0"/>
+      <c r="AF169" s="0"/>
+      <c r="AG169" s="0"/>
+      <c r="AH169" s="0"/>
+      <c r="AI169" s="0"/>
+      <c r="AJ169" s="0"/>
+      <c r="AK169" s="0"/>
+      <c r="AL169" s="0"/>
+      <c r="AM169" s="0"/>
+      <c r="AN169" s="0"/>
+      <c r="AO169" s="0"/>
+      <c r="AP169" s="0"/>
+      <c r="AQ169" s="0"/>
+      <c r="AR169" s="0"/>
+      <c r="AS169" s="0"/>
+      <c r="AT169" s="0"/>
       <c r="AU169" s="24"/>
       <c r="AV169" s="19"/>
       <c r="AW169" s="20"/>
     </row>
-    <row r="170" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="25"/>
-      <c r="B170" s="232"/>
+      <c r="B170" s="221"/>
       <c r="C170" s="26"/>
-      <c r="E170" s="233"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="26"/>
+      <c r="M170" s="26"/>
+      <c r="N170" s="26"/>
+      <c r="O170" s="26"/>
+      <c r="P170" s="26"/>
+      <c r="Q170" s="26"/>
+      <c r="R170" s="26"/>
+      <c r="S170" s="26"/>
+      <c r="T170" s="26"/>
+      <c r="U170" s="26"/>
+      <c r="V170" s="26"/>
+      <c r="W170" s="26"/>
+      <c r="X170" s="26"/>
+      <c r="Y170" s="26"/>
+      <c r="Z170" s="26"/>
+      <c r="AA170" s="26"/>
+      <c r="AB170" s="26"/>
+      <c r="AC170" s="26"/>
+      <c r="AD170" s="26"/>
+      <c r="AE170" s="26"/>
+      <c r="AF170" s="26"/>
+      <c r="AG170" s="26"/>
+      <c r="AH170" s="26"/>
+      <c r="AI170" s="26"/>
+      <c r="AJ170" s="26"/>
+      <c r="AK170" s="26"/>
+      <c r="AL170" s="26"/>
+      <c r="AM170" s="26"/>
+      <c r="AN170" s="26"/>
+      <c r="AO170" s="26"/>
+      <c r="AP170" s="26"/>
+      <c r="AQ170" s="26"/>
+      <c r="AR170" s="26"/>
+      <c r="AS170" s="26"/>
+      <c r="AT170" s="26"/>
+      <c r="AU170" s="26"/>
       <c r="AV170" s="26"/>
       <c r="AW170" s="27"/>
-      <c r="AX170" s="99"/>
     </row>
     <row r="171" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="9"/>
@@ -17350,7 +17944,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="115">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -17395,9 +17989,14 @@
     <mergeCell ref="AD48:AV48"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
     <mergeCell ref="D56:M56"/>
     <mergeCell ref="N56:W56"/>
     <mergeCell ref="X56:AV56"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="N62:W62"/>
+    <mergeCell ref="X62:AV62"/>
     <mergeCell ref="A82:I84"/>
     <mergeCell ref="J82:O84"/>
     <mergeCell ref="P82:U84"/>
@@ -17432,29 +18031,35 @@
     <mergeCell ref="AA124:AG124"/>
     <mergeCell ref="AH124:AL124"/>
     <mergeCell ref="AM124:AW124"/>
-    <mergeCell ref="F131:K131"/>
-    <mergeCell ref="L131:O131"/>
-    <mergeCell ref="P131:R131"/>
-    <mergeCell ref="S131:U131"/>
-    <mergeCell ref="V131:W131"/>
-    <mergeCell ref="X131:AA131"/>
-    <mergeCell ref="AB131:AE131"/>
-    <mergeCell ref="AF131:AX131"/>
-    <mergeCell ref="V132:W132"/>
-    <mergeCell ref="F137:O137"/>
-    <mergeCell ref="P137:Y137"/>
-    <mergeCell ref="Z137:AX137"/>
-    <mergeCell ref="F145:M145"/>
-    <mergeCell ref="N145:AI145"/>
-    <mergeCell ref="AJ145:AU145"/>
+    <mergeCell ref="D130:I130"/>
+    <mergeCell ref="J130:M130"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="Q130:S130"/>
+    <mergeCell ref="T130:U130"/>
+    <mergeCell ref="V130:Y130"/>
+    <mergeCell ref="Z130:AC130"/>
+    <mergeCell ref="AD130:AV130"/>
+    <mergeCell ref="T131:U131"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="D138:M138"/>
+    <mergeCell ref="N138:W138"/>
+    <mergeCell ref="X138:AV138"/>
+    <mergeCell ref="D144:M144"/>
+    <mergeCell ref="N144:W144"/>
+    <mergeCell ref="X144:AV144"/>
     <mergeCell ref="AY148:BJ148"/>
-    <mergeCell ref="E153:K153"/>
-    <mergeCell ref="L153:AU153"/>
-    <mergeCell ref="E154:K157"/>
-    <mergeCell ref="I160:AI160"/>
-    <mergeCell ref="AJ160:AT160"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="E162:H162"/>
+    <mergeCell ref="F152:M152"/>
+    <mergeCell ref="N152:AI152"/>
+    <mergeCell ref="AJ152:AU152"/>
+    <mergeCell ref="E159:K159"/>
+    <mergeCell ref="L159:AU159"/>
+    <mergeCell ref="E160:K163"/>
+    <mergeCell ref="I165:AI165"/>
+    <mergeCell ref="AJ165:AT165"/>
+    <mergeCell ref="E166:H166"/>
+    <mergeCell ref="E167:H167"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/addProduct.xlsx
+++ b/design/chitiet/addProduct.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="138">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Màn hình (Tên)</t>
   </si>
   <si>
-    <t xml:space="preserve">Màn hình đăng nhập</t>
+    <t xml:space="preserve">Màn hình thêm sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">website bán đồng hồ </t>
@@ -318,9 +318,6 @@
     <t xml:space="preserve">addProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Màn hình thêm sản phẩm</t>
-  </si>
-  <si>
     <t xml:space="preserve">6. Sơ đồ</t>
   </si>
   <si>
@@ -348,19 +345,19 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý user</t>
+    <t xml:space="preserve">Table users</t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">M </t>
-  </si>
-  <si>
     <t xml:space="preserve">Product </t>
   </si>
   <si>
-    <t xml:space="preserve">Table danh sách sản phảm </t>
+    <t xml:space="preserve">Table sản phảm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In</t>
   </si>
   <si>
     <r>
@@ -443,9 +440,6 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">In</t>
-  </si>
-  <si>
     <t xml:space="preserve">Input </t>
   </si>
   <si>
@@ -488,10 +482,19 @@
     <t xml:space="preserve">[Vùng cố định]</t>
   </si>
   <si>
-    <t xml:space="preserve">thêm </t>
+    <t xml:space="preserve">thềm sản phảm </t>
   </si>
   <si>
-    <t xml:space="preserve">Hủy </t>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ảnh sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá </t>
   </si>
   <si>
     <t xml:space="preserve">9. Khái quát chức năng</t>
@@ -1036,13 +1039,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -1058,6 +1054,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -1226,7 +1229,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="224">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1551,32 +1554,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -1703,23 +1706,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1727,7 +1730,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1831,15 +1834,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1883,6 +1886,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2050,10 +2065,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2201,9 +2212,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34200</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2217,7 +2228,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="674640" cy="968760"/>
+          <a:ext cx="673560" cy="967680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2238,9 +2249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2250,7 +2261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2177280" y="24338880"/>
-          <a:ext cx="954720" cy="644760"/>
+          <a:ext cx="953640" cy="643680"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2305,13 +2316,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>163800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2321,7 +2332,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="2582640" y="23725080"/>
-          <a:ext cx="1207080" cy="617400"/>
+          <a:ext cx="1206000" cy="616320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2366,9 +2377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>120960</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2378,7 +2389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2778480" cy="2607120"/>
+          <a:ext cx="2777400" cy="2606040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,9 +2421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2422,7 +2433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1187280" cy="425880"/>
+          <a:ext cx="1186200" cy="424800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2480,9 +2491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>62640</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2492,7 +2503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="993960" cy="397080"/>
+          <a:ext cx="992880" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2654,9 +2665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2666,7 +2677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="912600" cy="397440"/>
+          <a:ext cx="911520" cy="396360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2738,7 +2749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="674640" cy="968760"/>
+          <a:ext cx="673560" cy="967680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2753,15 +2764,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>65160</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2770,8 +2781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3805200" y="23690880"/>
-          <a:ext cx="727200" cy="596880"/>
+          <a:off x="3804120" y="23689800"/>
+          <a:ext cx="726120" cy="595800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2816,9 +2827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
+      <xdr:colOff>124920</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2828,7 +2839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4008600" y="24215040"/>
-          <a:ext cx="954720" cy="644760"/>
+          <a:ext cx="953640" cy="643680"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2892,9 +2903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2904,7 +2915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4815720" cy="416520"/>
+          <a:ext cx="4814640" cy="415440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2940,9 +2951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2956,7 +2967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="217440" y="1015200"/>
-          <a:ext cx="7603920" cy="5257440"/>
+          <a:ext cx="7602840" cy="5256360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,8 +2989,8 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO125" activeCellId="0" sqref="AO125"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V148" activeCellId="4" sqref="AM3 AM43 AM84 AM124 V148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8709,7 +8720,7 @@
       <c r="AK123" s="15"/>
       <c r="AL123" s="15"/>
       <c r="AM123" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="AN123" s="16"/>
       <c r="AO123" s="16"/>
@@ -8776,7 +8787,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -9693,7 +9704,7 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -9850,14 +9861,14 @@
       <c r="B146" s="28"/>
       <c r="C146" s="19"/>
       <c r="D146" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E146" s="72" t="s">
         <v>50</v>
-      </c>
-      <c r="E146" s="72" t="s">
-        <v>51</v>
       </c>
       <c r="F146" s="72"/>
       <c r="G146" s="72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H146" s="72"/>
       <c r="I146" s="72"/>
@@ -9874,11 +9885,11 @@
       <c r="T146" s="72"/>
       <c r="U146" s="72"/>
       <c r="V146" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W146" s="72"/>
       <c r="X146" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y146" s="73"/>
       <c r="Z146" s="73"/>
@@ -9914,18 +9925,18 @@
         <v>1</v>
       </c>
       <c r="E147" s="74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F147" s="74"/>
       <c r="G147" s="75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H147" s="76"/>
       <c r="I147" s="76"/>
       <c r="J147" s="76"/>
       <c r="K147" s="77"/>
       <c r="L147" s="78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M147" s="76"/>
       <c r="N147" s="76"/>
@@ -9937,7 +9948,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="79"/>
       <c r="V147" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W147" s="74"/>
       <c r="X147" s="75"/>
@@ -9974,58 +9985,58 @@
       <c r="D148" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="81" t="s">
+      <c r="E148" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F148" s="74"/>
+      <c r="G148" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="H148" s="82"/>
+      <c r="I148" s="82"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="83"/>
+      <c r="L148" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F148" s="82"/>
-      <c r="G148" s="83" t="s">
+      <c r="M148" s="82"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="82"/>
+      <c r="P148" s="82"/>
+      <c r="Q148" s="82"/>
+      <c r="R148" s="82"/>
+      <c r="S148" s="82"/>
+      <c r="T148" s="82"/>
+      <c r="U148" s="85"/>
+      <c r="V148" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H148" s="84"/>
-      <c r="I148" s="84"/>
-      <c r="J148" s="84"/>
-      <c r="K148" s="85"/>
-      <c r="L148" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="M148" s="84"/>
-      <c r="N148" s="84"/>
-      <c r="O148" s="84"/>
-      <c r="P148" s="84"/>
-      <c r="Q148" s="84"/>
-      <c r="R148" s="84"/>
-      <c r="S148" s="84"/>
-      <c r="T148" s="84"/>
-      <c r="U148" s="87"/>
-      <c r="V148" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="W148" s="82"/>
-      <c r="X148" s="83"/>
-      <c r="Y148" s="84"/>
-      <c r="Z148" s="84"/>
-      <c r="AA148" s="84"/>
-      <c r="AB148" s="84"/>
-      <c r="AC148" s="84"/>
-      <c r="AD148" s="84"/>
-      <c r="AE148" s="84"/>
-      <c r="AF148" s="84"/>
-      <c r="AG148" s="84"/>
-      <c r="AH148" s="84"/>
-      <c r="AI148" s="84"/>
-      <c r="AJ148" s="84"/>
-      <c r="AK148" s="84"/>
-      <c r="AL148" s="84"/>
-      <c r="AM148" s="84"/>
-      <c r="AN148" s="84"/>
-      <c r="AO148" s="84"/>
-      <c r="AP148" s="84"/>
-      <c r="AQ148" s="84"/>
-      <c r="AR148" s="84"/>
-      <c r="AS148" s="84"/>
-      <c r="AT148" s="84"/>
-      <c r="AU148" s="84"/>
-      <c r="AV148" s="87"/>
+      <c r="W148" s="86"/>
+      <c r="X148" s="81"/>
+      <c r="Y148" s="82"/>
+      <c r="Z148" s="82"/>
+      <c r="AA148" s="82"/>
+      <c r="AB148" s="82"/>
+      <c r="AC148" s="82"/>
+      <c r="AD148" s="82"/>
+      <c r="AE148" s="82"/>
+      <c r="AF148" s="82"/>
+      <c r="AG148" s="82"/>
+      <c r="AH148" s="82"/>
+      <c r="AI148" s="82"/>
+      <c r="AJ148" s="82"/>
+      <c r="AK148" s="82"/>
+      <c r="AL148" s="82"/>
+      <c r="AM148" s="82"/>
+      <c r="AN148" s="82"/>
+      <c r="AO148" s="82"/>
+      <c r="AP148" s="82"/>
+      <c r="AQ148" s="82"/>
+      <c r="AR148" s="82"/>
+      <c r="AS148" s="82"/>
+      <c r="AT148" s="82"/>
+      <c r="AU148" s="82"/>
+      <c r="AV148" s="85"/>
       <c r="AW148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10035,50 +10046,50 @@
       <c r="D149" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="E149" s="81"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="84"/>
-      <c r="I149" s="84"/>
-      <c r="J149" s="84"/>
-      <c r="K149" s="85"/>
-      <c r="L149" s="86"/>
-      <c r="M149" s="84"/>
-      <c r="N149" s="84"/>
-      <c r="O149" s="84"/>
-      <c r="P149" s="84"/>
-      <c r="Q149" s="84"/>
-      <c r="R149" s="84"/>
-      <c r="S149" s="84"/>
-      <c r="T149" s="84"/>
-      <c r="U149" s="87"/>
-      <c r="V149" s="81"/>
-      <c r="W149" s="82"/>
-      <c r="X149" s="83"/>
-      <c r="Y149" s="84"/>
-      <c r="Z149" s="84"/>
-      <c r="AA149" s="84"/>
-      <c r="AB149" s="84"/>
-      <c r="AC149" s="84"/>
-      <c r="AD149" s="84"/>
-      <c r="AE149" s="84"/>
-      <c r="AF149" s="84"/>
-      <c r="AG149" s="84"/>
-      <c r="AH149" s="84"/>
-      <c r="AI149" s="84"/>
-      <c r="AJ149" s="84"/>
-      <c r="AK149" s="84"/>
-      <c r="AL149" s="84"/>
-      <c r="AM149" s="84"/>
-      <c r="AN149" s="84"/>
-      <c r="AO149" s="84"/>
-      <c r="AP149" s="84"/>
-      <c r="AQ149" s="84"/>
-      <c r="AR149" s="84"/>
-      <c r="AS149" s="84"/>
-      <c r="AT149" s="84"/>
-      <c r="AU149" s="84"/>
-      <c r="AV149" s="87"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="87"/>
+      <c r="G149" s="81"/>
+      <c r="H149" s="82"/>
+      <c r="I149" s="82"/>
+      <c r="J149" s="82"/>
+      <c r="K149" s="83"/>
+      <c r="L149" s="84"/>
+      <c r="M149" s="82"/>
+      <c r="N149" s="82"/>
+      <c r="O149" s="82"/>
+      <c r="P149" s="82"/>
+      <c r="Q149" s="82"/>
+      <c r="R149" s="82"/>
+      <c r="S149" s="82"/>
+      <c r="T149" s="82"/>
+      <c r="U149" s="85"/>
+      <c r="V149" s="86"/>
+      <c r="W149" s="87"/>
+      <c r="X149" s="81"/>
+      <c r="Y149" s="82"/>
+      <c r="Z149" s="82"/>
+      <c r="AA149" s="82"/>
+      <c r="AB149" s="82"/>
+      <c r="AC149" s="82"/>
+      <c r="AD149" s="82"/>
+      <c r="AE149" s="82"/>
+      <c r="AF149" s="82"/>
+      <c r="AG149" s="82"/>
+      <c r="AH149" s="82"/>
+      <c r="AI149" s="82"/>
+      <c r="AJ149" s="82"/>
+      <c r="AK149" s="82"/>
+      <c r="AL149" s="82"/>
+      <c r="AM149" s="82"/>
+      <c r="AN149" s="82"/>
+      <c r="AO149" s="82"/>
+      <c r="AP149" s="82"/>
+      <c r="AQ149" s="82"/>
+      <c r="AR149" s="82"/>
+      <c r="AS149" s="82"/>
+      <c r="AT149" s="82"/>
+      <c r="AU149" s="82"/>
+      <c r="AV149" s="85"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10088,50 +10099,50 @@
       <c r="D150" s="80" t="n">
         <v>5</v>
       </c>
-      <c r="E150" s="81"/>
-      <c r="F150" s="82"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
-      <c r="K150" s="85"/>
-      <c r="L150" s="86"/>
-      <c r="M150" s="84"/>
-      <c r="N150" s="84"/>
-      <c r="O150" s="84"/>
-      <c r="P150" s="84"/>
-      <c r="Q150" s="84"/>
-      <c r="R150" s="84"/>
-      <c r="S150" s="84"/>
-      <c r="T150" s="84"/>
-      <c r="U150" s="87"/>
-      <c r="V150" s="81"/>
-      <c r="W150" s="82"/>
-      <c r="X150" s="83"/>
-      <c r="Y150" s="84"/>
-      <c r="Z150" s="84"/>
-      <c r="AA150" s="84"/>
-      <c r="AB150" s="84"/>
-      <c r="AC150" s="84"/>
-      <c r="AD150" s="84"/>
-      <c r="AE150" s="84"/>
-      <c r="AF150" s="84"/>
-      <c r="AG150" s="84"/>
-      <c r="AH150" s="84"/>
-      <c r="AI150" s="84"/>
-      <c r="AJ150" s="84"/>
-      <c r="AK150" s="84"/>
-      <c r="AL150" s="84"/>
-      <c r="AM150" s="84"/>
-      <c r="AN150" s="84"/>
-      <c r="AO150" s="84"/>
-      <c r="AP150" s="84"/>
-      <c r="AQ150" s="84"/>
-      <c r="AR150" s="84"/>
-      <c r="AS150" s="84"/>
-      <c r="AT150" s="84"/>
-      <c r="AU150" s="84"/>
-      <c r="AV150" s="87"/>
+      <c r="E150" s="86"/>
+      <c r="F150" s="87"/>
+      <c r="G150" s="81"/>
+      <c r="H150" s="82"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="83"/>
+      <c r="L150" s="84"/>
+      <c r="M150" s="82"/>
+      <c r="N150" s="82"/>
+      <c r="O150" s="82"/>
+      <c r="P150" s="82"/>
+      <c r="Q150" s="82"/>
+      <c r="R150" s="82"/>
+      <c r="S150" s="82"/>
+      <c r="T150" s="82"/>
+      <c r="U150" s="85"/>
+      <c r="V150" s="86"/>
+      <c r="W150" s="87"/>
+      <c r="X150" s="81"/>
+      <c r="Y150" s="82"/>
+      <c r="Z150" s="82"/>
+      <c r="AA150" s="82"/>
+      <c r="AB150" s="82"/>
+      <c r="AC150" s="82"/>
+      <c r="AD150" s="82"/>
+      <c r="AE150" s="82"/>
+      <c r="AF150" s="82"/>
+      <c r="AG150" s="82"/>
+      <c r="AH150" s="82"/>
+      <c r="AI150" s="82"/>
+      <c r="AJ150" s="82"/>
+      <c r="AK150" s="82"/>
+      <c r="AL150" s="82"/>
+      <c r="AM150" s="82"/>
+      <c r="AN150" s="82"/>
+      <c r="AO150" s="82"/>
+      <c r="AP150" s="82"/>
+      <c r="AQ150" s="82"/>
+      <c r="AR150" s="82"/>
+      <c r="AS150" s="82"/>
+      <c r="AT150" s="82"/>
+      <c r="AU150" s="82"/>
+      <c r="AV150" s="85"/>
       <c r="AW150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10141,25 +10152,25 @@
       <c r="D151" s="80" t="n">
         <v>6</v>
       </c>
-      <c r="E151" s="81"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="83"/>
-      <c r="H151" s="84"/>
-      <c r="I151" s="84"/>
-      <c r="J151" s="84"/>
-      <c r="K151" s="85"/>
-      <c r="L151" s="86"/>
-      <c r="M151" s="84"/>
-      <c r="N151" s="84"/>
-      <c r="O151" s="84"/>
-      <c r="P151" s="84"/>
-      <c r="Q151" s="84"/>
-      <c r="R151" s="84"/>
-      <c r="S151" s="84"/>
-      <c r="T151" s="84"/>
-      <c r="U151" s="87"/>
-      <c r="V151" s="81"/>
-      <c r="W151" s="82"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="87"/>
+      <c r="G151" s="81"/>
+      <c r="H151" s="82"/>
+      <c r="I151" s="82"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="83"/>
+      <c r="L151" s="84"/>
+      <c r="M151" s="82"/>
+      <c r="N151" s="82"/>
+      <c r="O151" s="82"/>
+      <c r="P151" s="82"/>
+      <c r="Q151" s="82"/>
+      <c r="R151" s="82"/>
+      <c r="S151" s="82"/>
+      <c r="T151" s="82"/>
+      <c r="U151" s="85"/>
+      <c r="V151" s="86"/>
+      <c r="W151" s="87"/>
       <c r="X151" s="88"/>
       <c r="Y151" s="89"/>
       <c r="Z151" s="89"/>
@@ -10507,7 +10518,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -10657,7 +10668,7 @@
       <c r="AW160" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="208">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -10864,6 +10875,8 @@
     <mergeCell ref="X146:AV146"/>
     <mergeCell ref="E147:F147"/>
     <mergeCell ref="V147:W147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="V148:W148"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10883,8 +10896,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D158" activeCellId="0" sqref="D158"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM84" activeCellId="2" sqref="AM3 AM43 AM84 AM124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10952,7 +10965,7 @@
       </c>
       <c r="AN1" s="6"/>
       <c r="AO1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
@@ -11133,7 +11146,7 @@
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11597,7 +11610,7 @@
       </c>
       <c r="AN41" s="6"/>
       <c r="AO41" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -11606,7 +11619,7 @@
       </c>
       <c r="AS41" s="6"/>
       <c r="AT41" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AU41" s="8"/>
       <c r="AV41" s="8"/>
@@ -11734,7 +11747,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11767,7 +11780,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11782,10 +11795,10 @@
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="C48" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72"/>
@@ -11793,39 +11806,39 @@
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
       <c r="J48" s="104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="104"/>
       <c r="M48" s="104"/>
       <c r="N48" s="104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O48" s="104"/>
       <c r="P48" s="104"/>
       <c r="Q48" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U48" s="72"/>
       <c r="V48" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W48" s="73"/>
       <c r="X48" s="73"/>
       <c r="Y48" s="73"/>
       <c r="Z48" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA48" s="105"/>
       <c r="AB48" s="105"/>
       <c r="AC48" s="105"/>
       <c r="AD48" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE48" s="73"/>
       <c r="AF48" s="73"/>
@@ -11854,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="109"/>
       <c r="F49" s="109"/>
@@ -11862,7 +11875,7 @@
       <c r="H49" s="110"/>
       <c r="I49" s="111"/>
       <c r="J49" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49" s="110"/>
       <c r="L49" s="110"/>
@@ -11874,21 +11887,21 @@
       <c r="P49" s="110"/>
       <c r="Q49" s="112"/>
       <c r="R49" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S49" s="113"/>
       <c r="T49" s="107" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="U49" s="107"/>
       <c r="V49" s="114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W49" s="109"/>
       <c r="X49" s="109"/>
       <c r="Y49" s="113"/>
       <c r="Z49" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA49" s="109"/>
       <c r="AB49" s="109"/>
@@ -11921,7 +11934,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="114" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" s="119"/>
       <c r="F50" s="119"/>
@@ -11929,7 +11942,7 @@
       <c r="H50" s="120"/>
       <c r="I50" s="121"/>
       <c r="J50" s="122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -11939,21 +11952,21 @@
       <c r="P50" s="120"/>
       <c r="Q50" s="122"/>
       <c r="R50" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S50" s="123"/>
       <c r="T50" s="107" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="U50" s="107"/>
       <c r="V50" s="114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W50" s="119"/>
       <c r="X50" s="119"/>
       <c r="Y50" s="123"/>
       <c r="Z50" s="124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA50" s="119"/>
       <c r="AB50" s="119"/>
@@ -11986,7 +11999,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E51" s="119"/>
       <c r="F51" s="119"/>
@@ -11994,7 +12007,7 @@
       <c r="H51" s="120"/>
       <c r="I51" s="121"/>
       <c r="J51" s="122" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K51" s="120"/>
       <c r="L51" s="120"/>
@@ -12004,21 +12017,21 @@
       <c r="P51" s="120"/>
       <c r="Q51" s="122"/>
       <c r="R51" s="120" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S51" s="123"/>
       <c r="T51" s="107" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="U51" s="107"/>
       <c r="V51" s="114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W51" s="119"/>
       <c r="X51" s="119"/>
       <c r="Y51" s="123"/>
       <c r="Z51" s="124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA51" s="119"/>
       <c r="AB51" s="119"/>
@@ -12154,7 +12167,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -12205,10 +12218,10 @@
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
       <c r="C56" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="72"/>
       <c r="F56" s="72"/>
@@ -12220,7 +12233,7 @@
       <c r="L56" s="72"/>
       <c r="M56" s="72"/>
       <c r="N56" s="141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O56" s="141"/>
       <c r="P56" s="141"/>
@@ -12232,7 +12245,7 @@
       <c r="V56" s="141"/>
       <c r="W56" s="141"/>
       <c r="X56" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y56" s="73"/>
       <c r="Z56" s="73"/>
@@ -12266,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E57" s="97"/>
       <c r="F57" s="97"/>
@@ -12278,7 +12291,7 @@
       <c r="L57" s="97"/>
       <c r="M57" s="144"/>
       <c r="N57" s="145" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O57" s="146"/>
       <c r="P57" s="146"/>
@@ -12322,7 +12335,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="150" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58" s="151"/>
       <c r="F58" s="151"/>
@@ -12334,7 +12347,7 @@
       <c r="L58" s="151"/>
       <c r="M58" s="152"/>
       <c r="N58" s="150" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O58" s="151"/>
       <c r="P58" s="151"/>
@@ -12476,7 +12489,7 @@
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
       <c r="C61" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -12528,10 +12541,10 @@
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
       <c r="C62" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="72"/>
       <c r="F62" s="72"/>
@@ -12543,7 +12556,7 @@
       <c r="L62" s="72"/>
       <c r="M62" s="72"/>
       <c r="N62" s="141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O62" s="141"/>
       <c r="P62" s="141"/>
@@ -12555,7 +12568,7 @@
       <c r="V62" s="141"/>
       <c r="W62" s="141"/>
       <c r="X62" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y62" s="73"/>
       <c r="Z62" s="73"/>
@@ -12590,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E63" s="97"/>
       <c r="F63" s="97"/>
@@ -12602,7 +12615,7 @@
       <c r="L63" s="97"/>
       <c r="M63" s="144"/>
       <c r="N63" s="145" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O63" s="146"/>
       <c r="P63" s="146"/>
@@ -12647,7 +12660,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="151"/>
       <c r="F64" s="151"/>
@@ -12658,8 +12671,8 @@
       <c r="K64" s="151"/>
       <c r="L64" s="151"/>
       <c r="M64" s="152"/>
-      <c r="N64" s="150" t="s">
-        <v>90</v>
+      <c r="N64" s="145" t="s">
+        <v>91</v>
       </c>
       <c r="O64" s="151"/>
       <c r="P64" s="151"/>
@@ -12700,202 +12713,217 @@
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="156"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="158"/>
-      <c r="O65" s="159"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="159"/>
-      <c r="S65" s="159"/>
-      <c r="T65" s="159"/>
-      <c r="U65" s="159"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="160"/>
-      <c r="X65" s="158"/>
-      <c r="Y65" s="161"/>
-      <c r="Z65" s="161"/>
-      <c r="AA65" s="161"/>
-      <c r="AB65" s="159"/>
-      <c r="AC65" s="159"/>
-      <c r="AD65" s="159"/>
-      <c r="AE65" s="159"/>
-      <c r="AF65" s="161"/>
-      <c r="AG65" s="161"/>
-      <c r="AH65" s="159"/>
-      <c r="AI65" s="159"/>
-      <c r="AJ65" s="159"/>
-      <c r="AK65" s="159"/>
-      <c r="AL65" s="159"/>
-      <c r="AM65" s="159"/>
-      <c r="AN65" s="159"/>
-      <c r="AO65" s="159"/>
-      <c r="AP65" s="159"/>
-      <c r="AQ65" s="159"/>
-      <c r="AR65" s="159"/>
-      <c r="AS65" s="159"/>
-      <c r="AT65" s="159"/>
-      <c r="AU65" s="159"/>
-      <c r="AV65" s="162"/>
+      <c r="C65" s="149" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="151"/>
+      <c r="F65" s="151"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="151"/>
+      <c r="L65" s="151"/>
+      <c r="M65" s="152"/>
+      <c r="N65" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="O65" s="151"/>
+      <c r="P65" s="151"/>
+      <c r="Q65" s="151"/>
+      <c r="R65" s="151"/>
+      <c r="S65" s="151"/>
+      <c r="T65" s="151"/>
+      <c r="U65" s="151"/>
+      <c r="V65" s="151"/>
+      <c r="W65" s="152"/>
+      <c r="X65" s="150"/>
+      <c r="Y65" s="153"/>
+      <c r="Z65" s="153"/>
+      <c r="AA65" s="153"/>
+      <c r="AB65" s="151"/>
+      <c r="AC65" s="151"/>
+      <c r="AD65" s="151"/>
+      <c r="AE65" s="151"/>
+      <c r="AF65" s="153"/>
+      <c r="AG65" s="153"/>
+      <c r="AH65" s="151"/>
+      <c r="AI65" s="151"/>
+      <c r="AJ65" s="151"/>
+      <c r="AK65" s="151"/>
+      <c r="AL65" s="151"/>
+      <c r="AM65" s="151"/>
+      <c r="AN65" s="151"/>
+      <c r="AO65" s="151"/>
+      <c r="AP65" s="151"/>
+      <c r="AQ65" s="151"/>
+      <c r="AR65" s="151"/>
+      <c r="AS65" s="151"/>
+      <c r="AT65" s="151"/>
+      <c r="AU65" s="151"/>
+      <c r="AV65" s="152"/>
       <c r="AW65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="163"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="139"/>
-      <c r="Z66" s="139"/>
-      <c r="AA66" s="139"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="139"/>
-      <c r="AG66" s="139"/>
-      <c r="AH66" s="19"/>
-      <c r="AI66" s="19"/>
-      <c r="AJ66" s="19"/>
-      <c r="AK66" s="19"/>
-      <c r="AL66" s="19"/>
-      <c r="AM66" s="19"/>
-      <c r="AN66" s="19"/>
-      <c r="AO66" s="19"/>
-      <c r="AP66" s="19"/>
-      <c r="AQ66" s="19"/>
-      <c r="AR66" s="19"/>
-      <c r="AS66" s="19"/>
-      <c r="AT66" s="19"/>
-      <c r="AU66" s="19"/>
+      <c r="C66" s="149" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="151"/>
+      <c r="F66" s="151"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="151"/>
+      <c r="K66" s="151"/>
+      <c r="L66" s="151"/>
+      <c r="M66" s="152"/>
+      <c r="N66" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="O66" s="151"/>
+      <c r="P66" s="151"/>
+      <c r="Q66" s="151"/>
+      <c r="R66" s="151"/>
+      <c r="S66" s="151"/>
+      <c r="T66" s="151"/>
+      <c r="U66" s="151"/>
+      <c r="V66" s="151"/>
+      <c r="W66" s="152"/>
+      <c r="X66" s="150"/>
+      <c r="Y66" s="153"/>
+      <c r="Z66" s="153"/>
+      <c r="AA66" s="153"/>
+      <c r="AB66" s="151"/>
+      <c r="AC66" s="151"/>
+      <c r="AD66" s="151"/>
+      <c r="AE66" s="151"/>
+      <c r="AF66" s="153"/>
+      <c r="AG66" s="153"/>
+      <c r="AH66" s="151"/>
+      <c r="AI66" s="151"/>
+      <c r="AJ66" s="151"/>
+      <c r="AK66" s="151"/>
+      <c r="AL66" s="151"/>
+      <c r="AM66" s="151"/>
+      <c r="AN66" s="151"/>
+      <c r="AO66" s="151"/>
+      <c r="AP66" s="151"/>
+      <c r="AQ66" s="151"/>
+      <c r="AR66" s="151"/>
+      <c r="AS66" s="151"/>
+      <c r="AT66" s="151"/>
+      <c r="AU66" s="151"/>
+      <c r="AV66" s="152"/>
       <c r="AW66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="139"/>
-      <c r="D67" s="163"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="139"/>
-      <c r="Z67" s="139"/>
-      <c r="AA67" s="139"/>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="19"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="139"/>
-      <c r="AG67" s="139"/>
-      <c r="AH67" s="19"/>
-      <c r="AI67" s="19"/>
-      <c r="AJ67" s="19"/>
-      <c r="AK67" s="19"/>
-      <c r="AL67" s="19"/>
-      <c r="AM67" s="19"/>
-      <c r="AN67" s="19"/>
-      <c r="AO67" s="19"/>
-      <c r="AP67" s="19"/>
-      <c r="AQ67" s="19"/>
-      <c r="AR67" s="19"/>
-      <c r="AS67" s="19"/>
-      <c r="AT67" s="19"/>
-      <c r="AU67" s="19"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="165"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="165"/>
+      <c r="I67" s="165"/>
+      <c r="J67" s="165"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="165"/>
+      <c r="M67" s="165"/>
+      <c r="N67" s="165"/>
+      <c r="O67" s="165"/>
+      <c r="P67" s="165"/>
+      <c r="Q67" s="165"/>
+      <c r="R67" s="165"/>
+      <c r="S67" s="165"/>
+      <c r="T67" s="165"/>
+      <c r="U67" s="165"/>
+      <c r="V67" s="165"/>
+      <c r="W67" s="165"/>
+      <c r="X67" s="165"/>
+      <c r="Y67" s="164"/>
+      <c r="Z67" s="164"/>
+      <c r="AA67" s="164"/>
+      <c r="AB67" s="165"/>
+      <c r="AC67" s="165"/>
+      <c r="AD67" s="165"/>
+      <c r="AE67" s="165"/>
+      <c r="AF67" s="164"/>
+      <c r="AG67" s="164"/>
+      <c r="AH67" s="165"/>
+      <c r="AI67" s="165"/>
+      <c r="AJ67" s="165"/>
+      <c r="AK67" s="165"/>
+      <c r="AL67" s="165"/>
+      <c r="AM67" s="165"/>
+      <c r="AN67" s="165"/>
+      <c r="AO67" s="165"/>
+      <c r="AP67" s="165"/>
+      <c r="AQ67" s="165"/>
+      <c r="AR67" s="165"/>
+      <c r="AS67" s="165"/>
+      <c r="AT67" s="165"/>
+      <c r="AU67" s="165"/>
+      <c r="AV67" s="165"/>
       <c r="AW67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="163"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="139"/>
-      <c r="Z68" s="139"/>
-      <c r="AA68" s="139"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="139"/>
-      <c r="AG68" s="139"/>
-      <c r="AH68" s="19"/>
-      <c r="AI68" s="19"/>
-      <c r="AJ68" s="19"/>
-      <c r="AK68" s="19"/>
-      <c r="AL68" s="19"/>
-      <c r="AM68" s="19"/>
-      <c r="AN68" s="19"/>
-      <c r="AO68" s="19"/>
-      <c r="AP68" s="19"/>
-      <c r="AQ68" s="19"/>
-      <c r="AR68" s="19"/>
-      <c r="AS68" s="19"/>
-      <c r="AT68" s="19"/>
-      <c r="AU68" s="19"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
+      <c r="M68" s="165"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="165"/>
+      <c r="P68" s="165"/>
+      <c r="Q68" s="165"/>
+      <c r="R68" s="165"/>
+      <c r="S68" s="165"/>
+      <c r="T68" s="165"/>
+      <c r="U68" s="165"/>
+      <c r="V68" s="165"/>
+      <c r="W68" s="165"/>
+      <c r="X68" s="165"/>
+      <c r="Y68" s="164"/>
+      <c r="Z68" s="164"/>
+      <c r="AA68" s="164"/>
+      <c r="AB68" s="165"/>
+      <c r="AC68" s="165"/>
+      <c r="AD68" s="165"/>
+      <c r="AE68" s="165"/>
+      <c r="AF68" s="164"/>
+      <c r="AG68" s="164"/>
+      <c r="AH68" s="165"/>
+      <c r="AI68" s="165"/>
+      <c r="AJ68" s="165"/>
+      <c r="AK68" s="165"/>
+      <c r="AL68" s="165"/>
+      <c r="AM68" s="165"/>
+      <c r="AN68" s="165"/>
+      <c r="AO68" s="165"/>
+      <c r="AP68" s="165"/>
+      <c r="AQ68" s="165"/>
+      <c r="AR68" s="165"/>
+      <c r="AS68" s="165"/>
+      <c r="AT68" s="165"/>
+      <c r="AU68" s="165"/>
+      <c r="AV68" s="165"/>
       <c r="AW68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13602,7 +13630,7 @@
       </c>
       <c r="AN82" s="6"/>
       <c r="AO82" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
@@ -13748,7 +13776,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13781,7 +13809,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13814,7 +13842,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -13876,7 +13904,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -13909,7 +13937,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13941,7 +13969,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -13973,7 +14001,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="D93" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
@@ -14035,7 +14063,7 @@
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
       <c r="C95" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -14068,7 +14096,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="D96" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
@@ -14901,7 +14929,7 @@
       </c>
       <c r="AN122" s="6"/>
       <c r="AO122" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
@@ -15063,7 +15091,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -15096,7 +15124,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -15129,7 +15157,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -15161,7 +15189,7 @@
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="C129" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM129" s="19"/>
       <c r="AN129" s="19"/>
@@ -15176,10 +15204,10 @@
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
       <c r="C130" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D130" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E130" s="72"/>
       <c r="F130" s="72"/>
@@ -15187,39 +15215,39 @@
       <c r="H130" s="72"/>
       <c r="I130" s="72"/>
       <c r="J130" s="104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K130" s="104"/>
       <c r="L130" s="104"/>
       <c r="M130" s="104"/>
       <c r="N130" s="104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O130" s="104"/>
       <c r="P130" s="104"/>
       <c r="Q130" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R130" s="72"/>
       <c r="S130" s="72"/>
       <c r="T130" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U130" s="72"/>
       <c r="V130" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W130" s="73"/>
       <c r="X130" s="73"/>
       <c r="Y130" s="73"/>
       <c r="Z130" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA130" s="105"/>
       <c r="AB130" s="105"/>
       <c r="AC130" s="105"/>
       <c r="AD130" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE130" s="73"/>
       <c r="AF130" s="73"/>
@@ -15297,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E131" s="109"/>
       <c r="F131" s="109"/>
@@ -15305,7 +15333,7 @@
       <c r="H131" s="110"/>
       <c r="I131" s="111"/>
       <c r="J131" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K131" s="110"/>
       <c r="L131" s="110"/>
@@ -15317,21 +15345,21 @@
       <c r="P131" s="110"/>
       <c r="Q131" s="112"/>
       <c r="R131" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S131" s="113"/>
       <c r="T131" s="107" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="U131" s="107"/>
       <c r="V131" s="114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W131" s="109"/>
       <c r="X131" s="109"/>
       <c r="Y131" s="113"/>
       <c r="Z131" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA131" s="109"/>
       <c r="AB131" s="109"/>
@@ -15413,7 +15441,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="114" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E132" s="119"/>
       <c r="F132" s="119"/>
@@ -15421,7 +15449,7 @@
       <c r="H132" s="120"/>
       <c r="I132" s="121"/>
       <c r="J132" s="122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K132" s="120"/>
       <c r="L132" s="120"/>
@@ -15431,21 +15459,21 @@
       <c r="P132" s="120"/>
       <c r="Q132" s="122"/>
       <c r="R132" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S132" s="123"/>
       <c r="T132" s="107" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="U132" s="107"/>
       <c r="V132" s="114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W132" s="119"/>
       <c r="X132" s="119"/>
       <c r="Y132" s="123"/>
       <c r="Z132" s="124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA132" s="119"/>
       <c r="AB132" s="119"/>
@@ -15527,7 +15555,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E133" s="119"/>
       <c r="F133" s="119"/>
@@ -15535,7 +15563,7 @@
       <c r="H133" s="120"/>
       <c r="I133" s="121"/>
       <c r="J133" s="122" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K133" s="120"/>
       <c r="L133" s="120"/>
@@ -15545,21 +15573,21 @@
       <c r="P133" s="120"/>
       <c r="Q133" s="122"/>
       <c r="R133" s="120" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S133" s="123"/>
       <c r="T133" s="107" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="U133" s="107"/>
       <c r="V133" s="114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W133" s="119"/>
       <c r="X133" s="119"/>
       <c r="Y133" s="123"/>
       <c r="Z133" s="124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA133" s="119"/>
       <c r="AB133" s="119"/>
@@ -15837,6 +15865,53 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
+      <c r="C136" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
+      <c r="V136" s="19"/>
+      <c r="W136" s="139"/>
+      <c r="X136" s="139"/>
+      <c r="Y136" s="139"/>
+      <c r="Z136" s="139"/>
+      <c r="AA136" s="19"/>
+      <c r="AB136" s="19"/>
+      <c r="AC136" s="19"/>
+      <c r="AD136" s="19"/>
+      <c r="AE136" s="139"/>
+      <c r="AF136" s="139"/>
+      <c r="AG136" s="19"/>
+      <c r="AH136" s="19"/>
+      <c r="AI136" s="19"/>
+      <c r="AJ136" s="19"/>
+      <c r="AK136" s="19"/>
+      <c r="AL136" s="19"/>
+      <c r="AM136" s="19"/>
+      <c r="AN136" s="19"/>
+      <c r="AO136" s="19"/>
+      <c r="AP136" s="19"/>
+      <c r="AQ136" s="19"/>
+      <c r="AR136" s="19"/>
+      <c r="AS136" s="19"/>
+      <c r="AT136" s="19"/>
+      <c r="AU136" s="19"/>
       <c r="AW136" s="20"/>
       <c r="AX136" s="1"/>
       <c r="AKN136" s="0"/>
@@ -15891,53 +15966,60 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="C137" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
-      <c r="T137" s="19"/>
-      <c r="U137" s="19"/>
-      <c r="V137" s="19"/>
-      <c r="W137" s="139"/>
-      <c r="X137" s="139"/>
-      <c r="Y137" s="139"/>
-      <c r="Z137" s="139"/>
-      <c r="AA137" s="19"/>
-      <c r="AB137" s="19"/>
-      <c r="AC137" s="19"/>
-      <c r="AD137" s="19"/>
-      <c r="AE137" s="139"/>
-      <c r="AF137" s="139"/>
-      <c r="AG137" s="19"/>
-      <c r="AH137" s="19"/>
-      <c r="AI137" s="19"/>
-      <c r="AJ137" s="19"/>
-      <c r="AK137" s="19"/>
-      <c r="AL137" s="19"/>
-      <c r="AM137" s="19"/>
-      <c r="AN137" s="19"/>
-      <c r="AO137" s="19"/>
-      <c r="AP137" s="19"/>
-      <c r="AQ137" s="19"/>
-      <c r="AR137" s="19"/>
-      <c r="AS137" s="19"/>
-      <c r="AT137" s="19"/>
-      <c r="AU137" s="19"/>
+      <c r="C137" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="72"/>
+      <c r="L137" s="72"/>
+      <c r="M137" s="72"/>
+      <c r="N137" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="O137" s="141"/>
+      <c r="P137" s="141"/>
+      <c r="Q137" s="141"/>
+      <c r="R137" s="141"/>
+      <c r="S137" s="141"/>
+      <c r="T137" s="141"/>
+      <c r="U137" s="141"/>
+      <c r="V137" s="141"/>
+      <c r="W137" s="141"/>
+      <c r="X137" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y137" s="73"/>
+      <c r="Z137" s="73"/>
+      <c r="AA137" s="73"/>
+      <c r="AB137" s="73"/>
+      <c r="AC137" s="73"/>
+      <c r="AD137" s="73"/>
+      <c r="AE137" s="73"/>
+      <c r="AF137" s="73"/>
+      <c r="AG137" s="73"/>
+      <c r="AH137" s="73"/>
+      <c r="AI137" s="73"/>
+      <c r="AJ137" s="73"/>
+      <c r="AK137" s="73"/>
+      <c r="AL137" s="73"/>
+      <c r="AM137" s="73"/>
+      <c r="AN137" s="73"/>
+      <c r="AO137" s="73"/>
+      <c r="AP137" s="73"/>
+      <c r="AQ137" s="73"/>
+      <c r="AR137" s="73"/>
+      <c r="AS137" s="73"/>
+      <c r="AT137" s="73"/>
+      <c r="AU137" s="73"/>
+      <c r="AV137" s="73"/>
       <c r="AW137" s="20"/>
       <c r="AX137" s="1"/>
       <c r="AKN137" s="0"/>
@@ -15992,60 +16074,58 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="C138" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D138" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E138" s="72"/>
-      <c r="F138" s="72"/>
-      <c r="G138" s="72"/>
-      <c r="H138" s="72"/>
-      <c r="I138" s="72"/>
-      <c r="J138" s="72"/>
-      <c r="K138" s="72"/>
-      <c r="L138" s="72"/>
-      <c r="M138" s="72"/>
-      <c r="N138" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="O138" s="141"/>
-      <c r="P138" s="141"/>
-      <c r="Q138" s="141"/>
-      <c r="R138" s="141"/>
-      <c r="S138" s="141"/>
-      <c r="T138" s="141"/>
-      <c r="U138" s="141"/>
-      <c r="V138" s="141"/>
-      <c r="W138" s="141"/>
-      <c r="X138" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y138" s="73"/>
-      <c r="Z138" s="73"/>
-      <c r="AA138" s="73"/>
-      <c r="AB138" s="73"/>
-      <c r="AC138" s="73"/>
-      <c r="AD138" s="73"/>
-      <c r="AE138" s="73"/>
-      <c r="AF138" s="73"/>
-      <c r="AG138" s="73"/>
-      <c r="AH138" s="73"/>
-      <c r="AI138" s="73"/>
-      <c r="AJ138" s="73"/>
-      <c r="AK138" s="73"/>
-      <c r="AL138" s="73"/>
-      <c r="AM138" s="73"/>
-      <c r="AN138" s="73"/>
-      <c r="AO138" s="73"/>
-      <c r="AP138" s="73"/>
-      <c r="AQ138" s="73"/>
-      <c r="AR138" s="73"/>
-      <c r="AS138" s="73"/>
-      <c r="AT138" s="73"/>
-      <c r="AU138" s="73"/>
-      <c r="AV138" s="73"/>
+      <c r="C138" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" s="97"/>
+      <c r="F138" s="97"/>
+      <c r="G138" s="97"/>
+      <c r="H138" s="97"/>
+      <c r="I138" s="97"/>
+      <c r="J138" s="97"/>
+      <c r="K138" s="97"/>
+      <c r="L138" s="97"/>
+      <c r="M138" s="144"/>
+      <c r="N138" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="O138" s="146"/>
+      <c r="P138" s="146"/>
+      <c r="Q138" s="146"/>
+      <c r="R138" s="146"/>
+      <c r="S138" s="146"/>
+      <c r="T138" s="146"/>
+      <c r="U138" s="146"/>
+      <c r="V138" s="146"/>
+      <c r="W138" s="147"/>
+      <c r="X138" s="145"/>
+      <c r="Y138" s="148"/>
+      <c r="Z138" s="148"/>
+      <c r="AA138" s="148"/>
+      <c r="AB138" s="146"/>
+      <c r="AC138" s="146"/>
+      <c r="AD138" s="146"/>
+      <c r="AE138" s="146"/>
+      <c r="AF138" s="148"/>
+      <c r="AG138" s="148"/>
+      <c r="AH138" s="146"/>
+      <c r="AI138" s="146"/>
+      <c r="AJ138" s="146"/>
+      <c r="AK138" s="146"/>
+      <c r="AL138" s="146"/>
+      <c r="AM138" s="146"/>
+      <c r="AN138" s="146"/>
+      <c r="AO138" s="146"/>
+      <c r="AP138" s="146"/>
+      <c r="AQ138" s="146"/>
+      <c r="AR138" s="146"/>
+      <c r="AS138" s="146"/>
+      <c r="AT138" s="146"/>
+      <c r="AU138" s="146"/>
+      <c r="AV138" s="147"/>
       <c r="AW138" s="20"/>
       <c r="AX138" s="1"/>
       <c r="AKN138" s="0"/>
@@ -16100,58 +16180,58 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="C139" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" s="143" t="s">
+      <c r="C139" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="E139" s="97"/>
-      <c r="F139" s="97"/>
-      <c r="G139" s="97"/>
-      <c r="H139" s="97"/>
-      <c r="I139" s="97"/>
-      <c r="J139" s="97"/>
-      <c r="K139" s="97"/>
-      <c r="L139" s="97"/>
-      <c r="M139" s="144"/>
-      <c r="N139" s="145" t="s">
+      <c r="E139" s="151"/>
+      <c r="F139" s="151"/>
+      <c r="G139" s="151"/>
+      <c r="H139" s="151"/>
+      <c r="I139" s="151"/>
+      <c r="J139" s="151"/>
+      <c r="K139" s="151"/>
+      <c r="L139" s="151"/>
+      <c r="M139" s="152"/>
+      <c r="N139" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="O139" s="146"/>
-      <c r="P139" s="146"/>
-      <c r="Q139" s="146"/>
-      <c r="R139" s="146"/>
-      <c r="S139" s="146"/>
-      <c r="T139" s="146"/>
-      <c r="U139" s="146"/>
-      <c r="V139" s="146"/>
-      <c r="W139" s="147"/>
-      <c r="X139" s="145"/>
-      <c r="Y139" s="148"/>
-      <c r="Z139" s="148"/>
-      <c r="AA139" s="148"/>
-      <c r="AB139" s="146"/>
-      <c r="AC139" s="146"/>
-      <c r="AD139" s="146"/>
-      <c r="AE139" s="146"/>
-      <c r="AF139" s="148"/>
-      <c r="AG139" s="148"/>
-      <c r="AH139" s="146"/>
-      <c r="AI139" s="146"/>
-      <c r="AJ139" s="146"/>
-      <c r="AK139" s="146"/>
-      <c r="AL139" s="146"/>
-      <c r="AM139" s="146"/>
-      <c r="AN139" s="146"/>
-      <c r="AO139" s="146"/>
-      <c r="AP139" s="146"/>
-      <c r="AQ139" s="146"/>
-      <c r="AR139" s="146"/>
-      <c r="AS139" s="146"/>
-      <c r="AT139" s="146"/>
-      <c r="AU139" s="146"/>
-      <c r="AV139" s="147"/>
+      <c r="O139" s="151"/>
+      <c r="P139" s="151"/>
+      <c r="Q139" s="151"/>
+      <c r="R139" s="151"/>
+      <c r="S139" s="151"/>
+      <c r="T139" s="151"/>
+      <c r="U139" s="151"/>
+      <c r="V139" s="151"/>
+      <c r="W139" s="152"/>
+      <c r="X139" s="150"/>
+      <c r="Y139" s="153"/>
+      <c r="Z139" s="153"/>
+      <c r="AA139" s="153"/>
+      <c r="AB139" s="151"/>
+      <c r="AC139" s="151"/>
+      <c r="AD139" s="151"/>
+      <c r="AE139" s="151"/>
+      <c r="AF139" s="153"/>
+      <c r="AG139" s="153"/>
+      <c r="AH139" s="151"/>
+      <c r="AI139" s="151"/>
+      <c r="AJ139" s="151"/>
+      <c r="AK139" s="151"/>
+      <c r="AL139" s="151"/>
+      <c r="AM139" s="151"/>
+      <c r="AN139" s="151"/>
+      <c r="AO139" s="151"/>
+      <c r="AP139" s="151"/>
+      <c r="AQ139" s="151"/>
+      <c r="AR139" s="151"/>
+      <c r="AS139" s="151"/>
+      <c r="AT139" s="151"/>
+      <c r="AU139" s="151"/>
+      <c r="AV139" s="152"/>
       <c r="AW139" s="20"/>
       <c r="AX139" s="1"/>
       <c r="AKN139" s="0"/>
@@ -16206,58 +16286,52 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="C140" s="149" t="n">
-        <v>2</v>
-      </c>
-      <c r="D140" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="E140" s="151"/>
-      <c r="F140" s="151"/>
-      <c r="G140" s="151"/>
-      <c r="H140" s="151"/>
-      <c r="I140" s="151"/>
-      <c r="J140" s="151"/>
-      <c r="K140" s="151"/>
-      <c r="L140" s="151"/>
-      <c r="M140" s="152"/>
-      <c r="N140" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="O140" s="151"/>
-      <c r="P140" s="151"/>
-      <c r="Q140" s="151"/>
-      <c r="R140" s="151"/>
-      <c r="S140" s="151"/>
-      <c r="T140" s="151"/>
-      <c r="U140" s="151"/>
-      <c r="V140" s="151"/>
-      <c r="W140" s="152"/>
-      <c r="X140" s="150"/>
-      <c r="Y140" s="153"/>
-      <c r="Z140" s="153"/>
-      <c r="AA140" s="153"/>
-      <c r="AB140" s="151"/>
-      <c r="AC140" s="151"/>
-      <c r="AD140" s="151"/>
-      <c r="AE140" s="151"/>
-      <c r="AF140" s="153"/>
-      <c r="AG140" s="153"/>
-      <c r="AH140" s="151"/>
-      <c r="AI140" s="151"/>
-      <c r="AJ140" s="151"/>
-      <c r="AK140" s="151"/>
-      <c r="AL140" s="151"/>
-      <c r="AM140" s="151"/>
-      <c r="AN140" s="151"/>
-      <c r="AO140" s="151"/>
-      <c r="AP140" s="151"/>
-      <c r="AQ140" s="151"/>
-      <c r="AR140" s="151"/>
-      <c r="AS140" s="151"/>
-      <c r="AT140" s="151"/>
-      <c r="AU140" s="151"/>
-      <c r="AV140" s="152"/>
+      <c r="C140" s="164"/>
+      <c r="D140" s="165"/>
+      <c r="E140" s="165"/>
+      <c r="F140" s="165"/>
+      <c r="G140" s="165"/>
+      <c r="H140" s="165"/>
+      <c r="I140" s="165"/>
+      <c r="J140" s="165"/>
+      <c r="K140" s="165"/>
+      <c r="L140" s="165"/>
+      <c r="M140" s="165"/>
+      <c r="N140" s="165"/>
+      <c r="O140" s="165"/>
+      <c r="P140" s="165"/>
+      <c r="Q140" s="165"/>
+      <c r="R140" s="165"/>
+      <c r="S140" s="165"/>
+      <c r="T140" s="165"/>
+      <c r="U140" s="165"/>
+      <c r="V140" s="165"/>
+      <c r="W140" s="165"/>
+      <c r="X140" s="165"/>
+      <c r="Y140" s="164"/>
+      <c r="Z140" s="164"/>
+      <c r="AA140" s="164"/>
+      <c r="AB140" s="165"/>
+      <c r="AC140" s="165"/>
+      <c r="AD140" s="165"/>
+      <c r="AE140" s="165"/>
+      <c r="AF140" s="164"/>
+      <c r="AG140" s="164"/>
+      <c r="AH140" s="165"/>
+      <c r="AI140" s="165"/>
+      <c r="AJ140" s="165"/>
+      <c r="AK140" s="165"/>
+      <c r="AL140" s="165"/>
+      <c r="AM140" s="165"/>
+      <c r="AN140" s="165"/>
+      <c r="AO140" s="165"/>
+      <c r="AP140" s="165"/>
+      <c r="AQ140" s="165"/>
+      <c r="AR140" s="165"/>
+      <c r="AS140" s="165"/>
+      <c r="AT140" s="165"/>
+      <c r="AU140" s="165"/>
+      <c r="AV140" s="166"/>
       <c r="AW140" s="20"/>
       <c r="AX140" s="1"/>
       <c r="AKN140" s="0"/>
@@ -16312,275 +16386,288 @@
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="C141" s="154"/>
-      <c r="D141" s="155"/>
-      <c r="E141" s="156"/>
-      <c r="F141" s="156"/>
-      <c r="G141" s="156"/>
-      <c r="H141" s="156"/>
-      <c r="I141" s="156"/>
-      <c r="J141" s="156"/>
-      <c r="K141" s="156"/>
-      <c r="L141" s="156"/>
-      <c r="M141" s="157"/>
-      <c r="N141" s="158"/>
-      <c r="O141" s="159"/>
-      <c r="P141" s="159"/>
-      <c r="Q141" s="159"/>
-      <c r="R141" s="159"/>
-      <c r="S141" s="159"/>
-      <c r="T141" s="159"/>
-      <c r="U141" s="159"/>
-      <c r="V141" s="159"/>
-      <c r="W141" s="160"/>
-      <c r="X141" s="158"/>
-      <c r="Y141" s="161"/>
-      <c r="Z141" s="161"/>
-      <c r="AA141" s="161"/>
-      <c r="AB141" s="159"/>
-      <c r="AC141" s="159"/>
-      <c r="AD141" s="159"/>
-      <c r="AE141" s="159"/>
-      <c r="AF141" s="161"/>
-      <c r="AG141" s="161"/>
-      <c r="AH141" s="159"/>
-      <c r="AI141" s="159"/>
-      <c r="AJ141" s="159"/>
-      <c r="AK141" s="159"/>
-      <c r="AL141" s="159"/>
-      <c r="AM141" s="159"/>
-      <c r="AN141" s="159"/>
-      <c r="AO141" s="159"/>
-      <c r="AP141" s="159"/>
-      <c r="AQ141" s="159"/>
-      <c r="AR141" s="159"/>
-      <c r="AS141" s="159"/>
-      <c r="AT141" s="159"/>
-      <c r="AU141" s="159"/>
-      <c r="AV141" s="162"/>
+      <c r="C141" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="19"/>
+      <c r="U141" s="19"/>
+      <c r="V141" s="19"/>
+      <c r="W141" s="139"/>
+      <c r="X141" s="139"/>
+      <c r="Y141" s="139"/>
+      <c r="Z141" s="139"/>
+      <c r="AA141" s="19"/>
+      <c r="AB141" s="19"/>
+      <c r="AC141" s="19"/>
+      <c r="AD141" s="19"/>
+      <c r="AE141" s="139"/>
+      <c r="AF141" s="139"/>
+      <c r="AG141" s="19"/>
+      <c r="AH141" s="19"/>
+      <c r="AI141" s="19"/>
+      <c r="AJ141" s="19"/>
+      <c r="AK141" s="19"/>
+      <c r="AL141" s="19"/>
+      <c r="AM141" s="19"/>
+      <c r="AN141" s="19"/>
+      <c r="AO141" s="19"/>
+      <c r="AP141" s="19"/>
+      <c r="AQ141" s="19"/>
+      <c r="AR141" s="19"/>
+      <c r="AS141" s="19"/>
+      <c r="AT141" s="19"/>
+      <c r="AU141" s="19"/>
       <c r="AW141" s="20"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="C142" s="139"/>
-      <c r="D142" s="163"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="19"/>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="139"/>
-      <c r="Z142" s="139"/>
-      <c r="AA142" s="139"/>
-      <c r="AB142" s="19"/>
-      <c r="AC142" s="19"/>
-      <c r="AD142" s="19"/>
-      <c r="AE142" s="19"/>
-      <c r="AF142" s="139"/>
-      <c r="AG142" s="139"/>
-      <c r="AH142" s="19"/>
-      <c r="AI142" s="19"/>
-      <c r="AJ142" s="19"/>
-      <c r="AK142" s="19"/>
-      <c r="AL142" s="19"/>
-      <c r="AM142" s="19"/>
-      <c r="AN142" s="19"/>
-      <c r="AO142" s="19"/>
-      <c r="AP142" s="19"/>
-      <c r="AQ142" s="19"/>
-      <c r="AR142" s="19"/>
-      <c r="AS142" s="19"/>
-      <c r="AT142" s="19"/>
-      <c r="AU142" s="19"/>
+      <c r="C142" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="72"/>
+      <c r="N142" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="O142" s="141"/>
+      <c r="P142" s="141"/>
+      <c r="Q142" s="141"/>
+      <c r="R142" s="141"/>
+      <c r="S142" s="141"/>
+      <c r="T142" s="141"/>
+      <c r="U142" s="141"/>
+      <c r="V142" s="141"/>
+      <c r="W142" s="141"/>
+      <c r="X142" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y142" s="73"/>
+      <c r="Z142" s="73"/>
+      <c r="AA142" s="73"/>
+      <c r="AB142" s="73"/>
+      <c r="AC142" s="73"/>
+      <c r="AD142" s="73"/>
+      <c r="AE142" s="73"/>
+      <c r="AF142" s="73"/>
+      <c r="AG142" s="73"/>
+      <c r="AH142" s="73"/>
+      <c r="AI142" s="73"/>
+      <c r="AJ142" s="73"/>
+      <c r="AK142" s="73"/>
+      <c r="AL142" s="73"/>
+      <c r="AM142" s="73"/>
+      <c r="AN142" s="73"/>
+      <c r="AO142" s="73"/>
+      <c r="AP142" s="73"/>
+      <c r="AQ142" s="73"/>
+      <c r="AR142" s="73"/>
+      <c r="AS142" s="73"/>
+      <c r="AT142" s="73"/>
+      <c r="AU142" s="73"/>
+      <c r="AV142" s="73"/>
       <c r="AW142" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="E143" s="97"/>
+      <c r="F143" s="97"/>
+      <c r="G143" s="97"/>
+      <c r="H143" s="97"/>
+      <c r="I143" s="97"/>
+      <c r="J143" s="97"/>
+      <c r="K143" s="97"/>
+      <c r="L143" s="97"/>
+      <c r="M143" s="144"/>
+      <c r="N143" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-      <c r="O143" s="19"/>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="19"/>
-      <c r="R143" s="19"/>
-      <c r="S143" s="19"/>
-      <c r="T143" s="19"/>
-      <c r="U143" s="19"/>
-      <c r="V143" s="19"/>
-      <c r="W143" s="139"/>
-      <c r="X143" s="139"/>
-      <c r="Y143" s="139"/>
-      <c r="Z143" s="139"/>
-      <c r="AA143" s="19"/>
-      <c r="AB143" s="19"/>
-      <c r="AC143" s="19"/>
-      <c r="AD143" s="19"/>
-      <c r="AE143" s="139"/>
-      <c r="AF143" s="139"/>
-      <c r="AG143" s="19"/>
-      <c r="AH143" s="19"/>
-      <c r="AI143" s="19"/>
-      <c r="AJ143" s="19"/>
-      <c r="AK143" s="19"/>
-      <c r="AL143" s="19"/>
-      <c r="AM143" s="19"/>
-      <c r="AN143" s="19"/>
-      <c r="AO143" s="19"/>
-      <c r="AP143" s="19"/>
-      <c r="AQ143" s="19"/>
-      <c r="AR143" s="19"/>
-      <c r="AS143" s="19"/>
-      <c r="AT143" s="19"/>
-      <c r="AU143" s="19"/>
+      <c r="O143" s="146"/>
+      <c r="P143" s="146"/>
+      <c r="Q143" s="146"/>
+      <c r="R143" s="146"/>
+      <c r="S143" s="146"/>
+      <c r="T143" s="146"/>
+      <c r="U143" s="146"/>
+      <c r="V143" s="146"/>
+      <c r="W143" s="147"/>
+      <c r="X143" s="145"/>
+      <c r="Y143" s="148"/>
+      <c r="Z143" s="148"/>
+      <c r="AA143" s="148"/>
+      <c r="AB143" s="146"/>
+      <c r="AC143" s="146"/>
+      <c r="AD143" s="146"/>
+      <c r="AE143" s="146"/>
+      <c r="AF143" s="148"/>
+      <c r="AG143" s="148"/>
+      <c r="AH143" s="146"/>
+      <c r="AI143" s="146"/>
+      <c r="AJ143" s="146"/>
+      <c r="AK143" s="146"/>
+      <c r="AL143" s="146"/>
+      <c r="AM143" s="146"/>
+      <c r="AN143" s="146"/>
+      <c r="AO143" s="146"/>
+      <c r="AP143" s="146"/>
+      <c r="AQ143" s="146"/>
+      <c r="AR143" s="146"/>
+      <c r="AS143" s="146"/>
+      <c r="AT143" s="146"/>
+      <c r="AU143" s="146"/>
+      <c r="AV143" s="147"/>
       <c r="AW143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="C144" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D144" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E144" s="72"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="72"/>
-      <c r="H144" s="72"/>
-      <c r="I144" s="72"/>
-      <c r="J144" s="72"/>
-      <c r="K144" s="72"/>
-      <c r="L144" s="72"/>
-      <c r="M144" s="72"/>
-      <c r="N144" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="O144" s="141"/>
-      <c r="P144" s="141"/>
-      <c r="Q144" s="141"/>
-      <c r="R144" s="141"/>
-      <c r="S144" s="141"/>
-      <c r="T144" s="141"/>
-      <c r="U144" s="141"/>
-      <c r="V144" s="141"/>
-      <c r="W144" s="141"/>
-      <c r="X144" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y144" s="73"/>
-      <c r="Z144" s="73"/>
-      <c r="AA144" s="73"/>
-      <c r="AB144" s="73"/>
-      <c r="AC144" s="73"/>
-      <c r="AD144" s="73"/>
-      <c r="AE144" s="73"/>
-      <c r="AF144" s="73"/>
-      <c r="AG144" s="73"/>
-      <c r="AH144" s="73"/>
-      <c r="AI144" s="73"/>
-      <c r="AJ144" s="73"/>
-      <c r="AK144" s="73"/>
-      <c r="AL144" s="73"/>
-      <c r="AM144" s="73"/>
-      <c r="AN144" s="73"/>
-      <c r="AO144" s="73"/>
-      <c r="AP144" s="73"/>
-      <c r="AQ144" s="73"/>
-      <c r="AR144" s="73"/>
-      <c r="AS144" s="73"/>
-      <c r="AT144" s="73"/>
-      <c r="AU144" s="73"/>
-      <c r="AV144" s="73"/>
+      <c r="C144" s="149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="E144" s="151"/>
+      <c r="F144" s="151"/>
+      <c r="G144" s="151"/>
+      <c r="H144" s="151"/>
+      <c r="I144" s="151"/>
+      <c r="J144" s="151"/>
+      <c r="K144" s="151"/>
+      <c r="L144" s="151"/>
+      <c r="M144" s="152"/>
+      <c r="N144" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="O144" s="151"/>
+      <c r="P144" s="151"/>
+      <c r="Q144" s="151"/>
+      <c r="R144" s="151"/>
+      <c r="S144" s="151"/>
+      <c r="T144" s="151"/>
+      <c r="U144" s="151"/>
+      <c r="V144" s="151"/>
+      <c r="W144" s="152"/>
+      <c r="X144" s="150"/>
+      <c r="Y144" s="153"/>
+      <c r="Z144" s="153"/>
+      <c r="AA144" s="153"/>
+      <c r="AB144" s="151"/>
+      <c r="AC144" s="151"/>
+      <c r="AD144" s="151"/>
+      <c r="AE144" s="151"/>
+      <c r="AF144" s="153"/>
+      <c r="AG144" s="153"/>
+      <c r="AH144" s="151"/>
+      <c r="AI144" s="151"/>
+      <c r="AJ144" s="151"/>
+      <c r="AK144" s="151"/>
+      <c r="AL144" s="151"/>
+      <c r="AM144" s="151"/>
+      <c r="AN144" s="151"/>
+      <c r="AO144" s="151"/>
+      <c r="AP144" s="151"/>
+      <c r="AQ144" s="151"/>
+      <c r="AR144" s="151"/>
+      <c r="AS144" s="151"/>
+      <c r="AT144" s="151"/>
+      <c r="AU144" s="151"/>
+      <c r="AV144" s="152"/>
       <c r="AW144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
-      <c r="C145" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="97"/>
-      <c r="K145" s="97"/>
-      <c r="L145" s="97"/>
-      <c r="M145" s="144"/>
+      <c r="C145" s="149" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" s="151"/>
+      <c r="F145" s="151"/>
+      <c r="G145" s="151"/>
+      <c r="H145" s="151"/>
+      <c r="I145" s="151"/>
+      <c r="J145" s="151"/>
+      <c r="K145" s="151"/>
+      <c r="L145" s="151"/>
+      <c r="M145" s="152"/>
       <c r="N145" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="O145" s="146"/>
-      <c r="P145" s="146"/>
-      <c r="Q145" s="146"/>
-      <c r="R145" s="146"/>
-      <c r="S145" s="146"/>
-      <c r="T145" s="146"/>
-      <c r="U145" s="146"/>
-      <c r="V145" s="146"/>
-      <c r="W145" s="147"/>
-      <c r="X145" s="145"/>
-      <c r="Y145" s="148"/>
-      <c r="Z145" s="148"/>
-      <c r="AA145" s="148"/>
-      <c r="AB145" s="146"/>
-      <c r="AC145" s="146"/>
-      <c r="AD145" s="146"/>
-      <c r="AE145" s="146"/>
-      <c r="AF145" s="148"/>
-      <c r="AG145" s="148"/>
-      <c r="AH145" s="146"/>
-      <c r="AI145" s="146"/>
-      <c r="AJ145" s="146"/>
-      <c r="AK145" s="146"/>
-      <c r="AL145" s="146"/>
-      <c r="AM145" s="146"/>
-      <c r="AN145" s="146"/>
-      <c r="AO145" s="146"/>
-      <c r="AP145" s="146"/>
-      <c r="AQ145" s="146"/>
-      <c r="AR145" s="146"/>
-      <c r="AS145" s="146"/>
-      <c r="AT145" s="146"/>
-      <c r="AU145" s="146"/>
-      <c r="AV145" s="147"/>
+        <v>91</v>
+      </c>
+      <c r="O145" s="151"/>
+      <c r="P145" s="151"/>
+      <c r="Q145" s="151"/>
+      <c r="R145" s="151"/>
+      <c r="S145" s="151"/>
+      <c r="T145" s="151"/>
+      <c r="U145" s="151"/>
+      <c r="V145" s="151"/>
+      <c r="W145" s="152"/>
+      <c r="X145" s="150"/>
+      <c r="Y145" s="153"/>
+      <c r="Z145" s="153"/>
+      <c r="AA145" s="153"/>
+      <c r="AB145" s="151"/>
+      <c r="AC145" s="151"/>
+      <c r="AD145" s="151"/>
+      <c r="AE145" s="151"/>
+      <c r="AF145" s="153"/>
+      <c r="AG145" s="153"/>
+      <c r="AH145" s="151"/>
+      <c r="AI145" s="151"/>
+      <c r="AJ145" s="151"/>
+      <c r="AK145" s="151"/>
+      <c r="AL145" s="151"/>
+      <c r="AM145" s="151"/>
+      <c r="AN145" s="151"/>
+      <c r="AO145" s="151"/>
+      <c r="AP145" s="151"/>
+      <c r="AQ145" s="151"/>
+      <c r="AR145" s="151"/>
+      <c r="AS145" s="151"/>
+      <c r="AT145" s="151"/>
+      <c r="AU145" s="151"/>
+      <c r="AV145" s="152"/>
       <c r="AW145" s="20"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
       <c r="C146" s="149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146" s="150" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E146" s="151"/>
       <c r="F146" s="151"/>
@@ -16591,8 +16678,8 @@
       <c r="K146" s="151"/>
       <c r="L146" s="151"/>
       <c r="M146" s="152"/>
-      <c r="N146" s="150" t="s">
-        <v>90</v>
+      <c r="N146" s="145" t="s">
+        <v>91</v>
       </c>
       <c r="O146" s="151"/>
       <c r="P146" s="151"/>
@@ -16629,63 +16716,63 @@
       <c r="AU146" s="151"/>
       <c r="AV146" s="152"/>
       <c r="AW146" s="20"/>
-      <c r="AY146" s="164"/>
+      <c r="AY146" s="167"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
-      <c r="C147" s="154"/>
-      <c r="D147" s="155"/>
-      <c r="E147" s="156"/>
-      <c r="F147" s="156"/>
-      <c r="G147" s="156"/>
-      <c r="H147" s="156"/>
-      <c r="I147" s="156"/>
-      <c r="J147" s="156"/>
-      <c r="K147" s="156"/>
-      <c r="L147" s="156"/>
-      <c r="M147" s="157"/>
-      <c r="N147" s="158"/>
-      <c r="O147" s="159"/>
-      <c r="P147" s="159"/>
-      <c r="Q147" s="159"/>
-      <c r="R147" s="159"/>
-      <c r="S147" s="159"/>
-      <c r="T147" s="159"/>
-      <c r="U147" s="159"/>
-      <c r="V147" s="159"/>
-      <c r="W147" s="160"/>
-      <c r="X147" s="158"/>
-      <c r="Y147" s="161"/>
-      <c r="Z147" s="161"/>
-      <c r="AA147" s="161"/>
-      <c r="AB147" s="159"/>
-      <c r="AC147" s="159"/>
-      <c r="AD147" s="159"/>
-      <c r="AE147" s="159"/>
-      <c r="AF147" s="161"/>
-      <c r="AG147" s="161"/>
-      <c r="AH147" s="159"/>
-      <c r="AI147" s="159"/>
-      <c r="AJ147" s="159"/>
-      <c r="AK147" s="159"/>
-      <c r="AL147" s="159"/>
-      <c r="AM147" s="159"/>
-      <c r="AN147" s="159"/>
-      <c r="AO147" s="159"/>
-      <c r="AP147" s="159"/>
-      <c r="AQ147" s="159"/>
-      <c r="AR147" s="159"/>
-      <c r="AS147" s="159"/>
-      <c r="AT147" s="159"/>
-      <c r="AU147" s="159"/>
-      <c r="AV147" s="162"/>
+      <c r="C147" s="0"/>
+      <c r="D147" s="0"/>
+      <c r="E147" s="0"/>
+      <c r="F147" s="0"/>
+      <c r="G147" s="0"/>
+      <c r="H147" s="0"/>
+      <c r="I147" s="0"/>
+      <c r="J147" s="0"/>
+      <c r="K147" s="0"/>
+      <c r="L147" s="0"/>
+      <c r="M147" s="0"/>
+      <c r="N147" s="0"/>
+      <c r="O147" s="0"/>
+      <c r="P147" s="0"/>
+      <c r="Q147" s="0"/>
+      <c r="R147" s="0"/>
+      <c r="S147" s="0"/>
+      <c r="T147" s="0"/>
+      <c r="U147" s="0"/>
+      <c r="V147" s="0"/>
+      <c r="W147" s="0"/>
+      <c r="X147" s="0"/>
+      <c r="Y147" s="0"/>
+      <c r="Z147" s="0"/>
+      <c r="AA147" s="0"/>
+      <c r="AB147" s="0"/>
+      <c r="AC147" s="0"/>
+      <c r="AD147" s="0"/>
+      <c r="AE147" s="0"/>
+      <c r="AF147" s="0"/>
+      <c r="AG147" s="0"/>
+      <c r="AH147" s="0"/>
+      <c r="AI147" s="0"/>
+      <c r="AJ147" s="0"/>
+      <c r="AK147" s="0"/>
+      <c r="AL147" s="0"/>
+      <c r="AM147" s="0"/>
+      <c r="AN147" s="0"/>
+      <c r="AO147" s="0"/>
+      <c r="AP147" s="0"/>
+      <c r="AQ147" s="0"/>
+      <c r="AR147" s="0"/>
+      <c r="AS147" s="0"/>
+      <c r="AT147" s="0"/>
+      <c r="AU147" s="0"/>
+      <c r="AV147" s="0"/>
       <c r="AW147" s="20"/>
-      <c r="AY147" s="164"/>
+      <c r="AY147" s="167"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
       <c r="C148" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
@@ -16733,23 +16820,23 @@
       <c r="AU148" s="0"/>
       <c r="AV148" s="0"/>
       <c r="AW148" s="20"/>
-      <c r="AY148" s="165"/>
-      <c r="AZ148" s="165"/>
-      <c r="BA148" s="165"/>
-      <c r="BB148" s="165"/>
-      <c r="BC148" s="165"/>
-      <c r="BD148" s="165"/>
-      <c r="BE148" s="165"/>
-      <c r="BF148" s="165"/>
-      <c r="BG148" s="165"/>
-      <c r="BH148" s="165"/>
-      <c r="BI148" s="165"/>
-      <c r="BJ148" s="165"/>
+      <c r="AY148" s="168"/>
+      <c r="AZ148" s="168"/>
+      <c r="BA148" s="168"/>
+      <c r="BB148" s="168"/>
+      <c r="BC148" s="168"/>
+      <c r="BD148" s="168"/>
+      <c r="BE148" s="168"/>
+      <c r="BF148" s="168"/>
+      <c r="BG148" s="168"/>
+      <c r="BH148" s="168"/>
+      <c r="BI148" s="168"/>
+      <c r="BJ148" s="168"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="D149" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E149" s="139"/>
       <c r="F149" s="19"/>
@@ -16800,7 +16887,7 @@
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
       <c r="D150" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E150" s="139"/>
       <c r="F150" s="19"/>
@@ -16851,8 +16938,8 @@
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
       <c r="D151" s="19"/>
-      <c r="E151" s="166" t="s">
-        <v>107</v>
+      <c r="E151" s="169" t="s">
+        <v>108</v>
       </c>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
@@ -16902,285 +16989,285 @@
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="D152" s="19"/>
-      <c r="E152" s="167" t="s">
-        <v>50</v>
-      </c>
-      <c r="F152" s="168" t="s">
-        <v>68</v>
-      </c>
-      <c r="G152" s="168"/>
-      <c r="H152" s="168"/>
-      <c r="I152" s="168"/>
-      <c r="J152" s="168"/>
-      <c r="K152" s="168"/>
-      <c r="L152" s="168"/>
-      <c r="M152" s="168"/>
-      <c r="N152" s="168" t="s">
-        <v>108</v>
-      </c>
-      <c r="O152" s="168"/>
-      <c r="P152" s="168"/>
-      <c r="Q152" s="168"/>
-      <c r="R152" s="168"/>
-      <c r="S152" s="168"/>
-      <c r="T152" s="168"/>
-      <c r="U152" s="168"/>
-      <c r="V152" s="168"/>
-      <c r="W152" s="168"/>
-      <c r="X152" s="168"/>
-      <c r="Y152" s="168"/>
-      <c r="Z152" s="168"/>
-      <c r="AA152" s="168"/>
-      <c r="AB152" s="168"/>
-      <c r="AC152" s="168"/>
-      <c r="AD152" s="168"/>
-      <c r="AE152" s="168"/>
-      <c r="AF152" s="168"/>
-      <c r="AG152" s="168"/>
-      <c r="AH152" s="168"/>
-      <c r="AI152" s="168"/>
-      <c r="AJ152" s="168" t="s">
+      <c r="E152" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="F152" s="171" t="s">
+        <v>67</v>
+      </c>
+      <c r="G152" s="171"/>
+      <c r="H152" s="171"/>
+      <c r="I152" s="171"/>
+      <c r="J152" s="171"/>
+      <c r="K152" s="171"/>
+      <c r="L152" s="171"/>
+      <c r="M152" s="171"/>
+      <c r="N152" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="AK152" s="168"/>
-      <c r="AL152" s="168"/>
-      <c r="AM152" s="168"/>
-      <c r="AN152" s="168"/>
-      <c r="AO152" s="168"/>
-      <c r="AP152" s="168"/>
-      <c r="AQ152" s="168"/>
-      <c r="AR152" s="168"/>
-      <c r="AS152" s="168"/>
-      <c r="AT152" s="168"/>
-      <c r="AU152" s="168"/>
+      <c r="O152" s="171"/>
+      <c r="P152" s="171"/>
+      <c r="Q152" s="171"/>
+      <c r="R152" s="171"/>
+      <c r="S152" s="171"/>
+      <c r="T152" s="171"/>
+      <c r="U152" s="171"/>
+      <c r="V152" s="171"/>
+      <c r="W152" s="171"/>
+      <c r="X152" s="171"/>
+      <c r="Y152" s="171"/>
+      <c r="Z152" s="171"/>
+      <c r="AA152" s="171"/>
+      <c r="AB152" s="171"/>
+      <c r="AC152" s="171"/>
+      <c r="AD152" s="171"/>
+      <c r="AE152" s="171"/>
+      <c r="AF152" s="171"/>
+      <c r="AG152" s="171"/>
+      <c r="AH152" s="171"/>
+      <c r="AI152" s="171"/>
+      <c r="AJ152" s="171" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK152" s="171"/>
+      <c r="AL152" s="171"/>
+      <c r="AM152" s="171"/>
+      <c r="AN152" s="171"/>
+      <c r="AO152" s="171"/>
+      <c r="AP152" s="171"/>
+      <c r="AQ152" s="171"/>
+      <c r="AR152" s="171"/>
+      <c r="AS152" s="171"/>
+      <c r="AT152" s="171"/>
+      <c r="AU152" s="171"/>
       <c r="AV152" s="19"/>
       <c r="AW152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="D153" s="19"/>
-      <c r="E153" s="169" t="n">
+      <c r="E153" s="172" t="n">
         <v>1</v>
       </c>
-      <c r="F153" s="170" t="s">
-        <v>110</v>
-      </c>
-      <c r="G153" s="171"/>
-      <c r="H153" s="171"/>
-      <c r="I153" s="172"/>
-      <c r="J153" s="172"/>
-      <c r="K153" s="172"/>
-      <c r="L153" s="172"/>
-      <c r="M153" s="173"/>
-      <c r="N153" s="174" t="s">
+      <c r="F153" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="O153" s="171"/>
-      <c r="P153" s="171"/>
-      <c r="Q153" s="172"/>
-      <c r="R153" s="172"/>
-      <c r="S153" s="172"/>
-      <c r="T153" s="172"/>
-      <c r="U153" s="172"/>
-      <c r="V153" s="175"/>
-      <c r="W153" s="175"/>
-      <c r="X153" s="175"/>
-      <c r="Y153" s="175"/>
-      <c r="Z153" s="175"/>
-      <c r="AA153" s="175"/>
-      <c r="AB153" s="175"/>
-      <c r="AC153" s="175"/>
-      <c r="AD153" s="175"/>
-      <c r="AE153" s="175"/>
-      <c r="AF153" s="175"/>
-      <c r="AG153" s="175"/>
-      <c r="AH153" s="175"/>
-      <c r="AI153" s="176"/>
-      <c r="AJ153" s="177" t="s">
+      <c r="G153" s="174"/>
+      <c r="H153" s="174"/>
+      <c r="I153" s="175"/>
+      <c r="J153" s="175"/>
+      <c r="K153" s="175"/>
+      <c r="L153" s="175"/>
+      <c r="M153" s="176"/>
+      <c r="N153" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="AK153" s="178"/>
-      <c r="AL153" s="178"/>
-      <c r="AM153" s="178"/>
-      <c r="AN153" s="178"/>
-      <c r="AO153" s="178"/>
-      <c r="AP153" s="178"/>
-      <c r="AQ153" s="178"/>
-      <c r="AR153" s="178"/>
-      <c r="AS153" s="178"/>
-      <c r="AT153" s="178"/>
-      <c r="AU153" s="179"/>
+      <c r="O153" s="174"/>
+      <c r="P153" s="174"/>
+      <c r="Q153" s="175"/>
+      <c r="R153" s="175"/>
+      <c r="S153" s="175"/>
+      <c r="T153" s="175"/>
+      <c r="U153" s="175"/>
+      <c r="V153" s="178"/>
+      <c r="W153" s="178"/>
+      <c r="X153" s="178"/>
+      <c r="Y153" s="178"/>
+      <c r="Z153" s="178"/>
+      <c r="AA153" s="178"/>
+      <c r="AB153" s="178"/>
+      <c r="AC153" s="178"/>
+      <c r="AD153" s="178"/>
+      <c r="AE153" s="178"/>
+      <c r="AF153" s="178"/>
+      <c r="AG153" s="178"/>
+      <c r="AH153" s="178"/>
+      <c r="AI153" s="179"/>
+      <c r="AJ153" s="180" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK153" s="181"/>
+      <c r="AL153" s="181"/>
+      <c r="AM153" s="181"/>
+      <c r="AN153" s="181"/>
+      <c r="AO153" s="181"/>
+      <c r="AP153" s="181"/>
+      <c r="AQ153" s="181"/>
+      <c r="AR153" s="181"/>
+      <c r="AS153" s="181"/>
+      <c r="AT153" s="181"/>
+      <c r="AU153" s="182"/>
       <c r="AV153" s="19"/>
       <c r="AW153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="D154" s="19"/>
-      <c r="E154" s="180" t="n">
+      <c r="E154" s="183" t="n">
         <v>2</v>
       </c>
-      <c r="F154" s="181" t="s">
-        <v>113</v>
-      </c>
-      <c r="G154" s="182"/>
-      <c r="H154" s="182"/>
-      <c r="I154" s="183"/>
-      <c r="J154" s="183"/>
-      <c r="K154" s="183"/>
-      <c r="L154" s="183"/>
-      <c r="M154" s="184"/>
-      <c r="N154" s="185" t="s">
-        <v>111</v>
-      </c>
-      <c r="O154" s="186"/>
-      <c r="P154" s="186"/>
-      <c r="Q154" s="187"/>
-      <c r="R154" s="187"/>
-      <c r="S154" s="187"/>
-      <c r="T154" s="187"/>
-      <c r="U154" s="187"/>
-      <c r="V154" s="188"/>
-      <c r="W154" s="188"/>
-      <c r="X154" s="188"/>
-      <c r="Y154" s="188"/>
-      <c r="Z154" s="188"/>
-      <c r="AA154" s="188"/>
-      <c r="AB154" s="188"/>
-      <c r="AC154" s="188"/>
-      <c r="AD154" s="188"/>
-      <c r="AE154" s="188"/>
-      <c r="AF154" s="188"/>
-      <c r="AG154" s="188"/>
-      <c r="AH154" s="188"/>
-      <c r="AI154" s="189"/>
-      <c r="AJ154" s="190" t="s">
+      <c r="F154" s="184" t="s">
         <v>114</v>
       </c>
-      <c r="AK154" s="191"/>
-      <c r="AL154" s="191"/>
-      <c r="AM154" s="191"/>
-      <c r="AN154" s="191"/>
-      <c r="AO154" s="191"/>
-      <c r="AP154" s="191"/>
-      <c r="AQ154" s="191"/>
-      <c r="AR154" s="191"/>
-      <c r="AS154" s="191"/>
-      <c r="AT154" s="191"/>
-      <c r="AU154" s="192"/>
+      <c r="G154" s="185"/>
+      <c r="H154" s="185"/>
+      <c r="I154" s="186"/>
+      <c r="J154" s="186"/>
+      <c r="K154" s="186"/>
+      <c r="L154" s="186"/>
+      <c r="M154" s="187"/>
+      <c r="N154" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="O154" s="189"/>
+      <c r="P154" s="189"/>
+      <c r="Q154" s="190"/>
+      <c r="R154" s="190"/>
+      <c r="S154" s="190"/>
+      <c r="T154" s="190"/>
+      <c r="U154" s="190"/>
+      <c r="V154" s="191"/>
+      <c r="W154" s="191"/>
+      <c r="X154" s="191"/>
+      <c r="Y154" s="191"/>
+      <c r="Z154" s="191"/>
+      <c r="AA154" s="191"/>
+      <c r="AB154" s="191"/>
+      <c r="AC154" s="191"/>
+      <c r="AD154" s="191"/>
+      <c r="AE154" s="191"/>
+      <c r="AF154" s="191"/>
+      <c r="AG154" s="191"/>
+      <c r="AH154" s="191"/>
+      <c r="AI154" s="192"/>
+      <c r="AJ154" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK154" s="194"/>
+      <c r="AL154" s="194"/>
+      <c r="AM154" s="194"/>
+      <c r="AN154" s="194"/>
+      <c r="AO154" s="194"/>
+      <c r="AP154" s="194"/>
+      <c r="AQ154" s="194"/>
+      <c r="AR154" s="194"/>
+      <c r="AS154" s="194"/>
+      <c r="AT154" s="194"/>
+      <c r="AU154" s="195"/>
       <c r="AV154" s="19"/>
       <c r="AW154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="D155" s="19"/>
-      <c r="E155" s="169" t="n">
+      <c r="E155" s="172" t="n">
         <v>3</v>
       </c>
-      <c r="F155" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="G155" s="171"/>
-      <c r="H155" s="171"/>
-      <c r="I155" s="172"/>
-      <c r="J155" s="172"/>
-      <c r="K155" s="172"/>
-      <c r="L155" s="172"/>
-      <c r="M155" s="173"/>
-      <c r="N155" s="174" t="s">
-        <v>111</v>
-      </c>
-      <c r="O155" s="171"/>
-      <c r="P155" s="171"/>
-      <c r="Q155" s="172"/>
-      <c r="R155" s="172"/>
-      <c r="S155" s="172"/>
-      <c r="T155" s="172"/>
-      <c r="U155" s="172"/>
-      <c r="V155" s="175"/>
-      <c r="W155" s="175"/>
-      <c r="X155" s="175"/>
-      <c r="Y155" s="175"/>
-      <c r="Z155" s="175"/>
-      <c r="AA155" s="175"/>
-      <c r="AB155" s="175"/>
-      <c r="AC155" s="175"/>
-      <c r="AD155" s="175"/>
-      <c r="AE155" s="175"/>
-      <c r="AF155" s="175"/>
-      <c r="AG155" s="175"/>
-      <c r="AH155" s="175"/>
-      <c r="AI155" s="176"/>
-      <c r="AJ155" s="177" t="s">
+      <c r="F155" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="AK155" s="178"/>
-      <c r="AL155" s="178"/>
-      <c r="AM155" s="178"/>
-      <c r="AN155" s="178"/>
-      <c r="AO155" s="178"/>
-      <c r="AP155" s="178"/>
-      <c r="AQ155" s="178"/>
-      <c r="AR155" s="178"/>
-      <c r="AS155" s="178"/>
-      <c r="AT155" s="178"/>
-      <c r="AU155" s="179"/>
+      <c r="G155" s="174"/>
+      <c r="H155" s="174"/>
+      <c r="I155" s="175"/>
+      <c r="J155" s="175"/>
+      <c r="K155" s="175"/>
+      <c r="L155" s="175"/>
+      <c r="M155" s="176"/>
+      <c r="N155" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="O155" s="174"/>
+      <c r="P155" s="174"/>
+      <c r="Q155" s="175"/>
+      <c r="R155" s="175"/>
+      <c r="S155" s="175"/>
+      <c r="T155" s="175"/>
+      <c r="U155" s="175"/>
+      <c r="V155" s="178"/>
+      <c r="W155" s="178"/>
+      <c r="X155" s="178"/>
+      <c r="Y155" s="178"/>
+      <c r="Z155" s="178"/>
+      <c r="AA155" s="178"/>
+      <c r="AB155" s="178"/>
+      <c r="AC155" s="178"/>
+      <c r="AD155" s="178"/>
+      <c r="AE155" s="178"/>
+      <c r="AF155" s="178"/>
+      <c r="AG155" s="178"/>
+      <c r="AH155" s="178"/>
+      <c r="AI155" s="179"/>
+      <c r="AJ155" s="180" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK155" s="181"/>
+      <c r="AL155" s="181"/>
+      <c r="AM155" s="181"/>
+      <c r="AN155" s="181"/>
+      <c r="AO155" s="181"/>
+      <c r="AP155" s="181"/>
+      <c r="AQ155" s="181"/>
+      <c r="AR155" s="181"/>
+      <c r="AS155" s="181"/>
+      <c r="AT155" s="181"/>
+      <c r="AU155" s="182"/>
       <c r="AV155" s="19"/>
       <c r="AW155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="169" t="n">
+      <c r="E156" s="172" t="n">
         <v>4</v>
       </c>
-      <c r="F156" s="170" t="s">
-        <v>117</v>
-      </c>
-      <c r="G156" s="171"/>
-      <c r="H156" s="171"/>
-      <c r="I156" s="172"/>
-      <c r="J156" s="172"/>
-      <c r="K156" s="172"/>
-      <c r="L156" s="172"/>
-      <c r="M156" s="173"/>
-      <c r="N156" s="174" t="s">
+      <c r="F156" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="O156" s="171"/>
-      <c r="P156" s="171"/>
-      <c r="Q156" s="172"/>
-      <c r="R156" s="172"/>
-      <c r="S156" s="172"/>
-      <c r="T156" s="172"/>
-      <c r="U156" s="172"/>
-      <c r="V156" s="175"/>
-      <c r="W156" s="175"/>
-      <c r="X156" s="175"/>
-      <c r="Y156" s="175"/>
-      <c r="Z156" s="175"/>
-      <c r="AA156" s="175"/>
-      <c r="AB156" s="175"/>
-      <c r="AC156" s="175"/>
-      <c r="AD156" s="175"/>
-      <c r="AE156" s="175"/>
-      <c r="AF156" s="175"/>
-      <c r="AG156" s="175"/>
-      <c r="AH156" s="175"/>
-      <c r="AI156" s="176"/>
-      <c r="AJ156" s="177" t="s">
+      <c r="G156" s="174"/>
+      <c r="H156" s="174"/>
+      <c r="I156" s="175"/>
+      <c r="J156" s="175"/>
+      <c r="K156" s="175"/>
+      <c r="L156" s="175"/>
+      <c r="M156" s="176"/>
+      <c r="N156" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="AK156" s="178"/>
-      <c r="AL156" s="178"/>
-      <c r="AM156" s="178"/>
-      <c r="AN156" s="178"/>
-      <c r="AO156" s="178"/>
-      <c r="AP156" s="178"/>
-      <c r="AQ156" s="178"/>
-      <c r="AR156" s="178"/>
-      <c r="AS156" s="178"/>
-      <c r="AT156" s="178"/>
-      <c r="AU156" s="179"/>
+      <c r="O156" s="174"/>
+      <c r="P156" s="174"/>
+      <c r="Q156" s="175"/>
+      <c r="R156" s="175"/>
+      <c r="S156" s="175"/>
+      <c r="T156" s="175"/>
+      <c r="U156" s="175"/>
+      <c r="V156" s="178"/>
+      <c r="W156" s="178"/>
+      <c r="X156" s="178"/>
+      <c r="Y156" s="178"/>
+      <c r="Z156" s="178"/>
+      <c r="AA156" s="178"/>
+      <c r="AB156" s="178"/>
+      <c r="AC156" s="178"/>
+      <c r="AD156" s="178"/>
+      <c r="AE156" s="178"/>
+      <c r="AF156" s="178"/>
+      <c r="AG156" s="178"/>
+      <c r="AH156" s="178"/>
+      <c r="AI156" s="179"/>
+      <c r="AJ156" s="180" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK156" s="181"/>
+      <c r="AL156" s="181"/>
+      <c r="AM156" s="181"/>
+      <c r="AN156" s="181"/>
+      <c r="AO156" s="181"/>
+      <c r="AP156" s="181"/>
+      <c r="AQ156" s="181"/>
+      <c r="AR156" s="181"/>
+      <c r="AS156" s="181"/>
+      <c r="AT156" s="181"/>
+      <c r="AU156" s="182"/>
       <c r="AV156" s="19"/>
       <c r="AW156" s="20"/>
     </row>
@@ -17236,50 +17323,50 @@
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
       <c r="D158" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E158" s="193"/>
-      <c r="F158" s="194"/>
-      <c r="G158" s="194"/>
-      <c r="H158" s="194"/>
-      <c r="I158" s="194"/>
-      <c r="J158" s="194"/>
-      <c r="K158" s="194"/>
-      <c r="L158" s="194"/>
-      <c r="M158" s="194"/>
-      <c r="N158" s="194"/>
-      <c r="O158" s="194"/>
-      <c r="P158" s="194"/>
-      <c r="Q158" s="194"/>
-      <c r="R158" s="194"/>
-      <c r="S158" s="194"/>
-      <c r="T158" s="194"/>
-      <c r="U158" s="194"/>
-      <c r="V158" s="194"/>
-      <c r="W158" s="194"/>
-      <c r="X158" s="194"/>
-      <c r="Y158" s="194"/>
-      <c r="Z158" s="194"/>
-      <c r="AA158" s="194"/>
-      <c r="AB158" s="194"/>
-      <c r="AC158" s="194"/>
-      <c r="AD158" s="194"/>
-      <c r="AE158" s="194"/>
-      <c r="AF158" s="194"/>
-      <c r="AG158" s="194"/>
-      <c r="AH158" s="194"/>
-      <c r="AI158" s="194"/>
-      <c r="AJ158" s="194"/>
-      <c r="AK158" s="194"/>
-      <c r="AL158" s="194"/>
-      <c r="AM158" s="194"/>
-      <c r="AN158" s="194"/>
-      <c r="AO158" s="194"/>
-      <c r="AP158" s="194"/>
-      <c r="AQ158" s="194"/>
-      <c r="AR158" s="194"/>
-      <c r="AS158" s="194"/>
-      <c r="AT158" s="194"/>
+        <v>121</v>
+      </c>
+      <c r="E158" s="196"/>
+      <c r="F158" s="197"/>
+      <c r="G158" s="197"/>
+      <c r="H158" s="197"/>
+      <c r="I158" s="197"/>
+      <c r="J158" s="197"/>
+      <c r="K158" s="197"/>
+      <c r="L158" s="197"/>
+      <c r="M158" s="197"/>
+      <c r="N158" s="197"/>
+      <c r="O158" s="197"/>
+      <c r="P158" s="197"/>
+      <c r="Q158" s="197"/>
+      <c r="R158" s="197"/>
+      <c r="S158" s="197"/>
+      <c r="T158" s="197"/>
+      <c r="U158" s="197"/>
+      <c r="V158" s="197"/>
+      <c r="W158" s="197"/>
+      <c r="X158" s="197"/>
+      <c r="Y158" s="197"/>
+      <c r="Z158" s="197"/>
+      <c r="AA158" s="197"/>
+      <c r="AB158" s="197"/>
+      <c r="AC158" s="197"/>
+      <c r="AD158" s="197"/>
+      <c r="AE158" s="197"/>
+      <c r="AF158" s="197"/>
+      <c r="AG158" s="197"/>
+      <c r="AH158" s="197"/>
+      <c r="AI158" s="197"/>
+      <c r="AJ158" s="197"/>
+      <c r="AK158" s="197"/>
+      <c r="AL158" s="197"/>
+      <c r="AM158" s="197"/>
+      <c r="AN158" s="197"/>
+      <c r="AO158" s="197"/>
+      <c r="AP158" s="197"/>
+      <c r="AQ158" s="197"/>
+      <c r="AR158" s="197"/>
+      <c r="AS158" s="197"/>
+      <c r="AT158" s="197"/>
       <c r="AU158" s="24"/>
       <c r="AV158" s="19"/>
       <c r="AW158" s="20"/>
@@ -17287,484 +17374,484 @@
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
       <c r="D159" s="19"/>
-      <c r="E159" s="195" t="s">
-        <v>121</v>
-      </c>
-      <c r="F159" s="195"/>
-      <c r="G159" s="195"/>
-      <c r="H159" s="195"/>
-      <c r="I159" s="195"/>
-      <c r="J159" s="195"/>
-      <c r="K159" s="195"/>
-      <c r="L159" s="196" t="s">
+      <c r="E159" s="198" t="s">
         <v>122</v>
       </c>
-      <c r="M159" s="196"/>
-      <c r="N159" s="196"/>
-      <c r="O159" s="196"/>
-      <c r="P159" s="196"/>
-      <c r="Q159" s="196"/>
-      <c r="R159" s="196"/>
-      <c r="S159" s="196"/>
-      <c r="T159" s="196"/>
-      <c r="U159" s="196"/>
-      <c r="V159" s="196"/>
-      <c r="W159" s="196"/>
-      <c r="X159" s="196"/>
-      <c r="Y159" s="196"/>
-      <c r="Z159" s="196"/>
-      <c r="AA159" s="196"/>
-      <c r="AB159" s="196"/>
-      <c r="AC159" s="196"/>
-      <c r="AD159" s="196"/>
-      <c r="AE159" s="196"/>
-      <c r="AF159" s="196"/>
-      <c r="AG159" s="196"/>
-      <c r="AH159" s="196"/>
-      <c r="AI159" s="196"/>
-      <c r="AJ159" s="196"/>
-      <c r="AK159" s="196"/>
-      <c r="AL159" s="196"/>
-      <c r="AM159" s="196"/>
-      <c r="AN159" s="196"/>
-      <c r="AO159" s="196"/>
-      <c r="AP159" s="196"/>
-      <c r="AQ159" s="196"/>
-      <c r="AR159" s="196"/>
-      <c r="AS159" s="196"/>
-      <c r="AT159" s="196"/>
-      <c r="AU159" s="196"/>
+      <c r="F159" s="198"/>
+      <c r="G159" s="198"/>
+      <c r="H159" s="198"/>
+      <c r="I159" s="198"/>
+      <c r="J159" s="198"/>
+      <c r="K159" s="198"/>
+      <c r="L159" s="199" t="s">
+        <v>123</v>
+      </c>
+      <c r="M159" s="199"/>
+      <c r="N159" s="199"/>
+      <c r="O159" s="199"/>
+      <c r="P159" s="199"/>
+      <c r="Q159" s="199"/>
+      <c r="R159" s="199"/>
+      <c r="S159" s="199"/>
+      <c r="T159" s="199"/>
+      <c r="U159" s="199"/>
+      <c r="V159" s="199"/>
+      <c r="W159" s="199"/>
+      <c r="X159" s="199"/>
+      <c r="Y159" s="199"/>
+      <c r="Z159" s="199"/>
+      <c r="AA159" s="199"/>
+      <c r="AB159" s="199"/>
+      <c r="AC159" s="199"/>
+      <c r="AD159" s="199"/>
+      <c r="AE159" s="199"/>
+      <c r="AF159" s="199"/>
+      <c r="AG159" s="199"/>
+      <c r="AH159" s="199"/>
+      <c r="AI159" s="199"/>
+      <c r="AJ159" s="199"/>
+      <c r="AK159" s="199"/>
+      <c r="AL159" s="199"/>
+      <c r="AM159" s="199"/>
+      <c r="AN159" s="199"/>
+      <c r="AO159" s="199"/>
+      <c r="AP159" s="199"/>
+      <c r="AQ159" s="199"/>
+      <c r="AR159" s="199"/>
+      <c r="AS159" s="199"/>
+      <c r="AT159" s="199"/>
+      <c r="AU159" s="199"/>
       <c r="AV159" s="19"/>
       <c r="AW159" s="20"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
       <c r="D160" s="19"/>
-      <c r="E160" s="195" t="s">
-        <v>60</v>
-      </c>
-      <c r="F160" s="195"/>
-      <c r="G160" s="195"/>
-      <c r="H160" s="195"/>
-      <c r="I160" s="195"/>
-      <c r="J160" s="195"/>
-      <c r="K160" s="195"/>
-      <c r="L160" s="197"/>
-      <c r="M160" s="172"/>
-      <c r="N160" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="O160" s="172"/>
-      <c r="P160" s="172"/>
-      <c r="Q160" s="175"/>
-      <c r="R160" s="175"/>
-      <c r="S160" s="175"/>
-      <c r="T160" s="175"/>
-      <c r="U160" s="175"/>
-      <c r="V160" s="175"/>
-      <c r="W160" s="175"/>
-      <c r="X160" s="175"/>
-      <c r="Y160" s="198" t="s">
+      <c r="E160" s="198" t="s">
+        <v>58</v>
+      </c>
+      <c r="F160" s="198"/>
+      <c r="G160" s="198"/>
+      <c r="H160" s="198"/>
+      <c r="I160" s="198"/>
+      <c r="J160" s="198"/>
+      <c r="K160" s="198"/>
+      <c r="L160" s="200"/>
+      <c r="M160" s="175"/>
+      <c r="N160" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="Z160" s="175" t="s">
+      <c r="O160" s="175"/>
+      <c r="P160" s="175"/>
+      <c r="Q160" s="178"/>
+      <c r="R160" s="178"/>
+      <c r="S160" s="178"/>
+      <c r="T160" s="178"/>
+      <c r="U160" s="178"/>
+      <c r="V160" s="178"/>
+      <c r="W160" s="178"/>
+      <c r="X160" s="178"/>
+      <c r="Y160" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="AA160" s="175"/>
-      <c r="AB160" s="175"/>
-      <c r="AC160" s="175"/>
-      <c r="AD160" s="175"/>
-      <c r="AE160" s="175"/>
-      <c r="AF160" s="175"/>
-      <c r="AG160" s="175"/>
-      <c r="AH160" s="175"/>
-      <c r="AI160" s="175"/>
-      <c r="AJ160" s="175"/>
-      <c r="AK160" s="175"/>
-      <c r="AL160" s="175"/>
-      <c r="AM160" s="175"/>
-      <c r="AN160" s="175"/>
-      <c r="AO160" s="175"/>
-      <c r="AP160" s="175"/>
-      <c r="AQ160" s="175"/>
-      <c r="AR160" s="175"/>
-      <c r="AS160" s="175"/>
-      <c r="AT160" s="199"/>
-      <c r="AU160" s="200"/>
+      <c r="Z160" s="178" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA160" s="178"/>
+      <c r="AB160" s="178"/>
+      <c r="AC160" s="178"/>
+      <c r="AD160" s="178"/>
+      <c r="AE160" s="178"/>
+      <c r="AF160" s="178"/>
+      <c r="AG160" s="178"/>
+      <c r="AH160" s="178"/>
+      <c r="AI160" s="178"/>
+      <c r="AJ160" s="178"/>
+      <c r="AK160" s="178"/>
+      <c r="AL160" s="178"/>
+      <c r="AM160" s="178"/>
+      <c r="AN160" s="178"/>
+      <c r="AO160" s="178"/>
+      <c r="AP160" s="178"/>
+      <c r="AQ160" s="178"/>
+      <c r="AR160" s="178"/>
+      <c r="AS160" s="178"/>
+      <c r="AT160" s="202"/>
+      <c r="AU160" s="203"/>
       <c r="AV160" s="19"/>
       <c r="AW160" s="20"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
       <c r="D161" s="19"/>
-      <c r="E161" s="195"/>
-      <c r="F161" s="195"/>
-      <c r="G161" s="195"/>
-      <c r="H161" s="195"/>
-      <c r="I161" s="195"/>
-      <c r="J161" s="195"/>
-      <c r="K161" s="195"/>
-      <c r="L161" s="201"/>
-      <c r="M161" s="183"/>
-      <c r="N161" s="183" t="s">
+      <c r="E161" s="198"/>
+      <c r="F161" s="198"/>
+      <c r="G161" s="198"/>
+      <c r="H161" s="198"/>
+      <c r="I161" s="198"/>
+      <c r="J161" s="198"/>
+      <c r="K161" s="198"/>
+      <c r="L161" s="204"/>
+      <c r="M161" s="186"/>
+      <c r="N161" s="186" t="s">
+        <v>127</v>
+      </c>
+      <c r="O161" s="186"/>
+      <c r="P161" s="186"/>
+      <c r="Q161" s="205"/>
+      <c r="R161" s="205"/>
+      <c r="S161" s="205"/>
+      <c r="T161" s="205"/>
+      <c r="U161" s="205"/>
+      <c r="V161" s="205"/>
+      <c r="W161" s="205"/>
+      <c r="X161" s="205"/>
+      <c r="Y161" s="206" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z161" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="O161" s="183"/>
-      <c r="P161" s="183"/>
-      <c r="Q161" s="202"/>
-      <c r="R161" s="202"/>
-      <c r="S161" s="202"/>
-      <c r="T161" s="202"/>
-      <c r="U161" s="202"/>
-      <c r="V161" s="202"/>
-      <c r="W161" s="202"/>
-      <c r="X161" s="202"/>
-      <c r="Y161" s="203" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z161" s="202" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA161" s="202"/>
-      <c r="AB161" s="202"/>
-      <c r="AC161" s="202"/>
-      <c r="AD161" s="202"/>
-      <c r="AE161" s="202"/>
-      <c r="AF161" s="202"/>
-      <c r="AG161" s="202"/>
-      <c r="AH161" s="202"/>
-      <c r="AI161" s="202"/>
-      <c r="AJ161" s="202"/>
-      <c r="AK161" s="202"/>
-      <c r="AL161" s="202"/>
-      <c r="AM161" s="202"/>
-      <c r="AN161" s="202"/>
-      <c r="AO161" s="202"/>
-      <c r="AP161" s="202"/>
-      <c r="AQ161" s="202"/>
-      <c r="AR161" s="202"/>
-      <c r="AS161" s="202"/>
-      <c r="AT161" s="202"/>
-      <c r="AU161" s="176"/>
+      <c r="AA161" s="205"/>
+      <c r="AB161" s="205"/>
+      <c r="AC161" s="205"/>
+      <c r="AD161" s="205"/>
+      <c r="AE161" s="205"/>
+      <c r="AF161" s="205"/>
+      <c r="AG161" s="205"/>
+      <c r="AH161" s="205"/>
+      <c r="AI161" s="205"/>
+      <c r="AJ161" s="205"/>
+      <c r="AK161" s="205"/>
+      <c r="AL161" s="205"/>
+      <c r="AM161" s="205"/>
+      <c r="AN161" s="205"/>
+      <c r="AO161" s="205"/>
+      <c r="AP161" s="205"/>
+      <c r="AQ161" s="205"/>
+      <c r="AR161" s="205"/>
+      <c r="AS161" s="205"/>
+      <c r="AT161" s="205"/>
+      <c r="AU161" s="179"/>
       <c r="AV161" s="19"/>
       <c r="AW161" s="20"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
       <c r="D162" s="19"/>
-      <c r="E162" s="195"/>
-      <c r="F162" s="195"/>
-      <c r="G162" s="195"/>
-      <c r="H162" s="195"/>
-      <c r="I162" s="195"/>
-      <c r="J162" s="195"/>
-      <c r="K162" s="195"/>
-      <c r="L162" s="197"/>
-      <c r="M162" s="172"/>
-      <c r="N162" s="172" t="s">
-        <v>127</v>
-      </c>
-      <c r="O162" s="172"/>
-      <c r="P162" s="172"/>
-      <c r="Q162" s="175"/>
-      <c r="R162" s="175"/>
-      <c r="S162" s="175"/>
-      <c r="T162" s="175"/>
-      <c r="U162" s="175"/>
-      <c r="V162" s="175"/>
-      <c r="W162" s="175"/>
-      <c r="X162" s="175"/>
-      <c r="Y162" s="198" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z162" s="175" t="s">
+      <c r="E162" s="198"/>
+      <c r="F162" s="198"/>
+      <c r="G162" s="198"/>
+      <c r="H162" s="198"/>
+      <c r="I162" s="198"/>
+      <c r="J162" s="198"/>
+      <c r="K162" s="198"/>
+      <c r="L162" s="200"/>
+      <c r="M162" s="175"/>
+      <c r="N162" s="175" t="s">
+        <v>128</v>
+      </c>
+      <c r="O162" s="175"/>
+      <c r="P162" s="175"/>
+      <c r="Q162" s="178"/>
+      <c r="R162" s="178"/>
+      <c r="S162" s="178"/>
+      <c r="T162" s="178"/>
+      <c r="U162" s="178"/>
+      <c r="V162" s="178"/>
+      <c r="W162" s="178"/>
+      <c r="X162" s="178"/>
+      <c r="Y162" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="AA162" s="175"/>
-      <c r="AB162" s="175"/>
-      <c r="AC162" s="175"/>
-      <c r="AD162" s="175"/>
-      <c r="AE162" s="175"/>
-      <c r="AF162" s="175"/>
-      <c r="AG162" s="175"/>
-      <c r="AH162" s="175"/>
-      <c r="AI162" s="175"/>
-      <c r="AJ162" s="175"/>
-      <c r="AK162" s="175"/>
-      <c r="AL162" s="175"/>
-      <c r="AM162" s="175"/>
-      <c r="AN162" s="175"/>
-      <c r="AO162" s="175"/>
-      <c r="AP162" s="175"/>
-      <c r="AQ162" s="175"/>
-      <c r="AR162" s="175"/>
-      <c r="AS162" s="175"/>
-      <c r="AT162" s="175"/>
-      <c r="AU162" s="204"/>
+      <c r="Z162" s="178" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA162" s="178"/>
+      <c r="AB162" s="178"/>
+      <c r="AC162" s="178"/>
+      <c r="AD162" s="178"/>
+      <c r="AE162" s="178"/>
+      <c r="AF162" s="178"/>
+      <c r="AG162" s="178"/>
+      <c r="AH162" s="178"/>
+      <c r="AI162" s="178"/>
+      <c r="AJ162" s="178"/>
+      <c r="AK162" s="178"/>
+      <c r="AL162" s="178"/>
+      <c r="AM162" s="178"/>
+      <c r="AN162" s="178"/>
+      <c r="AO162" s="178"/>
+      <c r="AP162" s="178"/>
+      <c r="AQ162" s="178"/>
+      <c r="AR162" s="178"/>
+      <c r="AS162" s="178"/>
+      <c r="AT162" s="178"/>
+      <c r="AU162" s="207"/>
       <c r="AV162" s="19"/>
       <c r="AW162" s="20"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="17"/>
-      <c r="D163" s="166"/>
-      <c r="E163" s="195"/>
-      <c r="F163" s="195"/>
-      <c r="G163" s="195"/>
-      <c r="H163" s="195"/>
-      <c r="I163" s="195"/>
-      <c r="J163" s="195"/>
-      <c r="K163" s="195" t="s">
-        <v>127</v>
-      </c>
-      <c r="L163" s="197"/>
-      <c r="M163" s="172"/>
-      <c r="N163" s="172"/>
-      <c r="O163" s="172"/>
-      <c r="P163" s="172"/>
-      <c r="Q163" s="175"/>
-      <c r="R163" s="175"/>
-      <c r="S163" s="175"/>
-      <c r="T163" s="175"/>
-      <c r="U163" s="175"/>
-      <c r="V163" s="175"/>
-      <c r="W163" s="175"/>
-      <c r="X163" s="175"/>
-      <c r="Y163" s="198"/>
-      <c r="Z163" s="175"/>
-      <c r="AA163" s="175"/>
-      <c r="AB163" s="175"/>
-      <c r="AC163" s="175"/>
-      <c r="AD163" s="175"/>
-      <c r="AE163" s="175"/>
-      <c r="AF163" s="175"/>
-      <c r="AG163" s="175"/>
-      <c r="AH163" s="175"/>
-      <c r="AI163" s="175"/>
-      <c r="AJ163" s="175"/>
-      <c r="AK163" s="175"/>
-      <c r="AL163" s="175"/>
-      <c r="AM163" s="175"/>
-      <c r="AN163" s="175"/>
-      <c r="AO163" s="175"/>
-      <c r="AP163" s="175"/>
-      <c r="AQ163" s="175"/>
-      <c r="AR163" s="175"/>
-      <c r="AS163" s="175"/>
-      <c r="AT163" s="175"/>
-      <c r="AU163" s="176"/>
+      <c r="D163" s="169"/>
+      <c r="E163" s="198"/>
+      <c r="F163" s="198"/>
+      <c r="G163" s="198"/>
+      <c r="H163" s="198"/>
+      <c r="I163" s="198"/>
+      <c r="J163" s="198"/>
+      <c r="K163" s="198" t="s">
+        <v>128</v>
+      </c>
+      <c r="L163" s="200"/>
+      <c r="M163" s="175"/>
+      <c r="N163" s="175"/>
+      <c r="O163" s="175"/>
+      <c r="P163" s="175"/>
+      <c r="Q163" s="178"/>
+      <c r="R163" s="178"/>
+      <c r="S163" s="178"/>
+      <c r="T163" s="178"/>
+      <c r="U163" s="178"/>
+      <c r="V163" s="178"/>
+      <c r="W163" s="178"/>
+      <c r="X163" s="178"/>
+      <c r="Y163" s="201"/>
+      <c r="Z163" s="178"/>
+      <c r="AA163" s="178"/>
+      <c r="AB163" s="178"/>
+      <c r="AC163" s="178"/>
+      <c r="AD163" s="178"/>
+      <c r="AE163" s="178"/>
+      <c r="AF163" s="178"/>
+      <c r="AG163" s="178"/>
+      <c r="AH163" s="178"/>
+      <c r="AI163" s="178"/>
+      <c r="AJ163" s="178"/>
+      <c r="AK163" s="178"/>
+      <c r="AL163" s="178"/>
+      <c r="AM163" s="178"/>
+      <c r="AN163" s="178"/>
+      <c r="AO163" s="178"/>
+      <c r="AP163" s="178"/>
+      <c r="AQ163" s="178"/>
+      <c r="AR163" s="178"/>
+      <c r="AS163" s="178"/>
+      <c r="AT163" s="178"/>
+      <c r="AU163" s="179"/>
       <c r="AV163" s="19"/>
       <c r="AW163" s="20"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="17"/>
-      <c r="D164" s="166"/>
-      <c r="E164" s="166"/>
+      <c r="D164" s="169"/>
+      <c r="E164" s="169"/>
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
       <c r="H164" s="24"/>
       <c r="I164" s="24"/>
       <c r="J164" s="24"/>
       <c r="K164" s="24"/>
-      <c r="L164" s="205"/>
-      <c r="M164" s="205"/>
-      <c r="N164" s="205"/>
-      <c r="O164" s="205"/>
-      <c r="P164" s="205"/>
-      <c r="Q164" s="205"/>
-      <c r="R164" s="205"/>
-      <c r="S164" s="205"/>
-      <c r="T164" s="205"/>
-      <c r="U164" s="205"/>
-      <c r="V164" s="205"/>
-      <c r="W164" s="205"/>
-      <c r="X164" s="205"/>
-      <c r="Y164" s="205"/>
-      <c r="Z164" s="205"/>
-      <c r="AA164" s="205"/>
-      <c r="AB164" s="205"/>
-      <c r="AC164" s="205"/>
-      <c r="AD164" s="205"/>
-      <c r="AE164" s="206"/>
-      <c r="AF164" s="205"/>
-      <c r="AG164" s="205"/>
-      <c r="AH164" s="205"/>
-      <c r="AI164" s="205"/>
-      <c r="AJ164" s="205"/>
-      <c r="AK164" s="205"/>
-      <c r="AL164" s="205"/>
-      <c r="AM164" s="205"/>
-      <c r="AN164" s="205"/>
-      <c r="AO164" s="205"/>
-      <c r="AP164" s="205"/>
-      <c r="AQ164" s="205"/>
-      <c r="AR164" s="205"/>
-      <c r="AS164" s="205"/>
-      <c r="AT164" s="205"/>
-      <c r="AU164" s="199"/>
+      <c r="L164" s="208"/>
+      <c r="M164" s="208"/>
+      <c r="N164" s="208"/>
+      <c r="O164" s="208"/>
+      <c r="P164" s="208"/>
+      <c r="Q164" s="208"/>
+      <c r="R164" s="208"/>
+      <c r="S164" s="208"/>
+      <c r="T164" s="208"/>
+      <c r="U164" s="208"/>
+      <c r="V164" s="208"/>
+      <c r="W164" s="208"/>
+      <c r="X164" s="208"/>
+      <c r="Y164" s="208"/>
+      <c r="Z164" s="208"/>
+      <c r="AA164" s="208"/>
+      <c r="AB164" s="208"/>
+      <c r="AC164" s="208"/>
+      <c r="AD164" s="208"/>
+      <c r="AE164" s="166"/>
+      <c r="AF164" s="208"/>
+      <c r="AG164" s="208"/>
+      <c r="AH164" s="208"/>
+      <c r="AI164" s="208"/>
+      <c r="AJ164" s="208"/>
+      <c r="AK164" s="208"/>
+      <c r="AL164" s="208"/>
+      <c r="AM164" s="208"/>
+      <c r="AN164" s="208"/>
+      <c r="AO164" s="208"/>
+      <c r="AP164" s="208"/>
+      <c r="AQ164" s="208"/>
+      <c r="AR164" s="208"/>
+      <c r="AS164" s="208"/>
+      <c r="AT164" s="208"/>
+      <c r="AU164" s="202"/>
       <c r="AV164" s="19"/>
       <c r="AW164" s="20"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="17"/>
-      <c r="D165" s="166"/>
-      <c r="E165" s="207" t="s">
-        <v>128</v>
-      </c>
-      <c r="F165" s="208"/>
-      <c r="G165" s="208"/>
-      <c r="H165" s="209"/>
-      <c r="I165" s="195" t="s">
+      <c r="D165" s="169"/>
+      <c r="E165" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="J165" s="195"/>
-      <c r="K165" s="195"/>
-      <c r="L165" s="195"/>
-      <c r="M165" s="195"/>
-      <c r="N165" s="195"/>
-      <c r="O165" s="195"/>
-      <c r="P165" s="195"/>
-      <c r="Q165" s="195"/>
-      <c r="R165" s="195"/>
-      <c r="S165" s="195"/>
-      <c r="T165" s="195"/>
-      <c r="U165" s="195"/>
-      <c r="V165" s="195"/>
-      <c r="W165" s="195"/>
-      <c r="X165" s="195"/>
-      <c r="Y165" s="195"/>
-      <c r="Z165" s="195"/>
-      <c r="AA165" s="195"/>
-      <c r="AB165" s="195"/>
-      <c r="AC165" s="195"/>
-      <c r="AD165" s="195"/>
-      <c r="AE165" s="195"/>
-      <c r="AF165" s="195"/>
-      <c r="AG165" s="195"/>
-      <c r="AH165" s="195"/>
-      <c r="AI165" s="195"/>
-      <c r="AJ165" s="195" t="s">
+      <c r="F165" s="210"/>
+      <c r="G165" s="210"/>
+      <c r="H165" s="211"/>
+      <c r="I165" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="AK165" s="195"/>
-      <c r="AL165" s="195"/>
-      <c r="AM165" s="195"/>
-      <c r="AN165" s="195"/>
-      <c r="AO165" s="195"/>
-      <c r="AP165" s="195"/>
-      <c r="AQ165" s="195"/>
-      <c r="AR165" s="195"/>
-      <c r="AS165" s="195"/>
-      <c r="AT165" s="195"/>
+      <c r="J165" s="198"/>
+      <c r="K165" s="198"/>
+      <c r="L165" s="198"/>
+      <c r="M165" s="198"/>
+      <c r="N165" s="198"/>
+      <c r="O165" s="198"/>
+      <c r="P165" s="198"/>
+      <c r="Q165" s="198"/>
+      <c r="R165" s="198"/>
+      <c r="S165" s="198"/>
+      <c r="T165" s="198"/>
+      <c r="U165" s="198"/>
+      <c r="V165" s="198"/>
+      <c r="W165" s="198"/>
+      <c r="X165" s="198"/>
+      <c r="Y165" s="198"/>
+      <c r="Z165" s="198"/>
+      <c r="AA165" s="198"/>
+      <c r="AB165" s="198"/>
+      <c r="AC165" s="198"/>
+      <c r="AD165" s="198"/>
+      <c r="AE165" s="198"/>
+      <c r="AF165" s="198"/>
+      <c r="AG165" s="198"/>
+      <c r="AH165" s="198"/>
+      <c r="AI165" s="198"/>
+      <c r="AJ165" s="198" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK165" s="198"/>
+      <c r="AL165" s="198"/>
+      <c r="AM165" s="198"/>
+      <c r="AN165" s="198"/>
+      <c r="AO165" s="198"/>
+      <c r="AP165" s="198"/>
+      <c r="AQ165" s="198"/>
+      <c r="AR165" s="198"/>
+      <c r="AS165" s="198"/>
+      <c r="AT165" s="198"/>
       <c r="AU165" s="24"/>
       <c r="AV165" s="19"/>
       <c r="AW165" s="20"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="17"/>
-      <c r="D166" s="166"/>
-      <c r="E166" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="F166" s="210"/>
-      <c r="G166" s="210"/>
-      <c r="H166" s="210"/>
-      <c r="I166" s="211" t="s">
+      <c r="D166" s="169"/>
+      <c r="E166" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="J166" s="212"/>
-      <c r="K166" s="212"/>
-      <c r="L166" s="212"/>
-      <c r="M166" s="212"/>
-      <c r="N166" s="212"/>
-      <c r="O166" s="212"/>
-      <c r="P166" s="212"/>
-      <c r="Q166" s="212"/>
-      <c r="R166" s="212"/>
-      <c r="S166" s="212"/>
-      <c r="T166" s="212"/>
-      <c r="U166" s="212"/>
-      <c r="V166" s="212"/>
-      <c r="W166" s="212"/>
-      <c r="X166" s="212"/>
-      <c r="Y166" s="212"/>
-      <c r="Z166" s="212"/>
-      <c r="AA166" s="212"/>
-      <c r="AB166" s="212"/>
-      <c r="AC166" s="212"/>
-      <c r="AD166" s="212"/>
-      <c r="AE166" s="213"/>
-      <c r="AF166" s="212"/>
-      <c r="AG166" s="212"/>
-      <c r="AH166" s="212"/>
-      <c r="AI166" s="214"/>
-      <c r="AJ166" s="177" t="s">
+      <c r="F166" s="212"/>
+      <c r="G166" s="212"/>
+      <c r="H166" s="212"/>
+      <c r="I166" s="213" t="s">
         <v>133</v>
       </c>
-      <c r="AK166" s="212"/>
-      <c r="AL166" s="212"/>
-      <c r="AM166" s="212"/>
-      <c r="AN166" s="212"/>
-      <c r="AO166" s="212"/>
-      <c r="AP166" s="212"/>
-      <c r="AQ166" s="212"/>
-      <c r="AR166" s="212"/>
-      <c r="AS166" s="212"/>
-      <c r="AT166" s="214"/>
+      <c r="J166" s="214"/>
+      <c r="K166" s="214"/>
+      <c r="L166" s="214"/>
+      <c r="M166" s="214"/>
+      <c r="N166" s="214"/>
+      <c r="O166" s="214"/>
+      <c r="P166" s="214"/>
+      <c r="Q166" s="214"/>
+      <c r="R166" s="214"/>
+      <c r="S166" s="214"/>
+      <c r="T166" s="214"/>
+      <c r="U166" s="214"/>
+      <c r="V166" s="214"/>
+      <c r="W166" s="214"/>
+      <c r="X166" s="214"/>
+      <c r="Y166" s="214"/>
+      <c r="Z166" s="214"/>
+      <c r="AA166" s="214"/>
+      <c r="AB166" s="214"/>
+      <c r="AC166" s="214"/>
+      <c r="AD166" s="214"/>
+      <c r="AE166" s="215"/>
+      <c r="AF166" s="214"/>
+      <c r="AG166" s="214"/>
+      <c r="AH166" s="214"/>
+      <c r="AI166" s="216"/>
+      <c r="AJ166" s="180" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK166" s="214"/>
+      <c r="AL166" s="214"/>
+      <c r="AM166" s="214"/>
+      <c r="AN166" s="214"/>
+      <c r="AO166" s="214"/>
+      <c r="AP166" s="214"/>
+      <c r="AQ166" s="214"/>
+      <c r="AR166" s="214"/>
+      <c r="AS166" s="214"/>
+      <c r="AT166" s="216"/>
       <c r="AU166" s="24"/>
       <c r="AV166" s="19"/>
       <c r="AW166" s="20"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="17"/>
-      <c r="D167" s="166"/>
-      <c r="E167" s="215" t="s">
-        <v>134</v>
-      </c>
-      <c r="F167" s="215"/>
-      <c r="G167" s="215"/>
-      <c r="H167" s="215"/>
-      <c r="I167" s="216" t="s">
+      <c r="D167" s="169"/>
+      <c r="E167" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="J167" s="217"/>
-      <c r="K167" s="217"/>
-      <c r="L167" s="217"/>
-      <c r="M167" s="217"/>
-      <c r="N167" s="217"/>
-      <c r="O167" s="217"/>
-      <c r="P167" s="217"/>
-      <c r="Q167" s="217"/>
-      <c r="R167" s="217"/>
-      <c r="S167" s="217"/>
-      <c r="T167" s="217"/>
-      <c r="U167" s="217"/>
-      <c r="V167" s="217"/>
-      <c r="W167" s="217"/>
-      <c r="X167" s="217"/>
-      <c r="Y167" s="217"/>
-      <c r="Z167" s="217"/>
-      <c r="AA167" s="217"/>
-      <c r="AB167" s="217"/>
-      <c r="AC167" s="217"/>
-      <c r="AD167" s="217"/>
-      <c r="AE167" s="218"/>
-      <c r="AF167" s="217"/>
-      <c r="AG167" s="217"/>
-      <c r="AH167" s="217"/>
-      <c r="AI167" s="219"/>
-      <c r="AJ167" s="220" t="s">
+      <c r="F167" s="217"/>
+      <c r="G167" s="217"/>
+      <c r="H167" s="217"/>
+      <c r="I167" s="218" t="s">
         <v>136</v>
       </c>
-      <c r="AK167" s="217"/>
-      <c r="AL167" s="217"/>
-      <c r="AM167" s="217"/>
-      <c r="AN167" s="217"/>
-      <c r="AO167" s="217"/>
-      <c r="AP167" s="217"/>
-      <c r="AQ167" s="217"/>
-      <c r="AR167" s="217"/>
-      <c r="AS167" s="217"/>
-      <c r="AT167" s="219"/>
+      <c r="J167" s="219"/>
+      <c r="K167" s="219"/>
+      <c r="L167" s="219"/>
+      <c r="M167" s="219"/>
+      <c r="N167" s="219"/>
+      <c r="O167" s="219"/>
+      <c r="P167" s="219"/>
+      <c r="Q167" s="219"/>
+      <c r="R167" s="219"/>
+      <c r="S167" s="219"/>
+      <c r="T167" s="219"/>
+      <c r="U167" s="219"/>
+      <c r="V167" s="219"/>
+      <c r="W167" s="219"/>
+      <c r="X167" s="219"/>
+      <c r="Y167" s="219"/>
+      <c r="Z167" s="219"/>
+      <c r="AA167" s="219"/>
+      <c r="AB167" s="219"/>
+      <c r="AC167" s="219"/>
+      <c r="AD167" s="219"/>
+      <c r="AE167" s="220"/>
+      <c r="AF167" s="219"/>
+      <c r="AG167" s="219"/>
+      <c r="AH167" s="219"/>
+      <c r="AI167" s="221"/>
+      <c r="AJ167" s="222" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK167" s="219"/>
+      <c r="AL167" s="219"/>
+      <c r="AM167" s="219"/>
+      <c r="AN167" s="219"/>
+      <c r="AO167" s="219"/>
+      <c r="AP167" s="219"/>
+      <c r="AQ167" s="219"/>
+      <c r="AR167" s="219"/>
+      <c r="AS167" s="219"/>
+      <c r="AT167" s="221"/>
       <c r="AU167" s="24"/>
       <c r="AV167" s="19"/>
       <c r="AW167" s="20"/>
@@ -17772,7 +17859,7 @@
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
       <c r="C168" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
@@ -17872,7 +17959,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="25"/>
-      <c r="B170" s="221"/>
+      <c r="B170" s="223"/>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
@@ -18043,12 +18130,12 @@
     <mergeCell ref="T132:U132"/>
     <mergeCell ref="T133:U133"/>
     <mergeCell ref="T134:U134"/>
-    <mergeCell ref="D138:M138"/>
-    <mergeCell ref="N138:W138"/>
-    <mergeCell ref="X138:AV138"/>
-    <mergeCell ref="D144:M144"/>
-    <mergeCell ref="N144:W144"/>
-    <mergeCell ref="X144:AV144"/>
+    <mergeCell ref="D137:M137"/>
+    <mergeCell ref="N137:W137"/>
+    <mergeCell ref="X137:AV137"/>
+    <mergeCell ref="D142:M142"/>
+    <mergeCell ref="N142:W142"/>
+    <mergeCell ref="X142:AV142"/>
     <mergeCell ref="AY148:BJ148"/>
     <mergeCell ref="F152:M152"/>
     <mergeCell ref="N152:AI152"/>
